--- a/Transformers Appendix.xlsx
+++ b/Transformers Appendix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgonzales21\Downloads\IE things\Illustrations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgonzales21\Downloads\IE things\IE things\Major Projects\Building-a-Transformer-from-scratch-using-Pytorch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A444970-CE01-4B63-A4EC-B886DE61114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B2BF7C-421A-4F9E-8163-7072FDC0D8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="863" activeTab="7" xr2:uid="{B6E777E1-0DF3-4A26-B79D-D8B12E8CCB74}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="863" activeTab="10" xr2:uid="{B6E777E1-0DF3-4A26-B79D-D8B12E8CCB74}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Architecture" sheetId="13" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="-&gt; Add &amp; Norm" sheetId="8" r:id="rId6"/>
     <sheet name="-&gt; Feed Forward" sheetId="5" r:id="rId7"/>
     <sheet name="-&gt; Cross Attention" sheetId="12" r:id="rId8"/>
-    <sheet name="-&gt; Linear" sheetId="9" r:id="rId9"/>
-    <sheet name="-&gt; Softmax" sheetId="10" r:id="rId10"/>
+    <sheet name="-&gt; Linear" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="-&gt; Softmax" sheetId="10" state="hidden" r:id="rId10"/>
     <sheet name="-&gt; Output Probabilities" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -2014,10 +2014,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2035,14 +2035,14 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2050,19 +2050,19 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -14608,7 +14608,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14636,7 +14636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8FFDF9-96BB-4D2E-9819-CDD679E8AB7B}">
   <dimension ref="B2:W56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
@@ -14656,14 +14656,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="79" t="s">
@@ -14715,14 +14715,14 @@
       <c r="N7" s="83"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="81"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="38"/>
       <c r="I8" s="38" t="s">
         <v>106</v>
@@ -14751,14 +14751,14 @@
       <c r="R8" s="79"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="81"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="38"/>
       <c r="H9" s="38" t="s">
         <v>106</v>
@@ -14784,18 +14784,18 @@
       <c r="O9" s="36">
         <v>1</v>
       </c>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="81"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38" t="s">
         <v>121</v>
@@ -14823,23 +14823,23 @@
         <v>0.32</v>
       </c>
       <c r="O10" s="36"/>
-      <c r="Q10" s="81" t="s">
+      <c r="Q10" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="81"/>
+      <c r="R10" s="80"/>
       <c r="S10" s="36" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="81"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="38"/>
       <c r="H11" s="36"/>
       <c r="I11" s="20"/>
@@ -14849,18 +14849,18 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="36"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="81"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="38"/>
       <c r="H12" s="36"/>
       <c r="I12" s="20"/>
@@ -14870,8 +14870,8 @@
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="38"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
       <c r="S12" s="38"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -14890,8 +14890,8 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="38"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
       <c r="S13" s="38"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -14991,8 +14991,8 @@
       <c r="O19" s="38">
         <v>1</v>
       </c>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G20" s="38" t="s">
@@ -15023,10 +15023,10 @@
       <c r="O20" s="38">
         <v>1</v>
       </c>
-      <c r="Q20" s="81" t="s">
+      <c r="Q20" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="R20" s="81"/>
+      <c r="R20" s="80"/>
       <c r="S20" s="38" t="s">
         <v>115</v>
       </c>
@@ -15059,10 +15059,10 @@
       <c r="O21" s="38">
         <v>1</v>
       </c>
-      <c r="Q21" s="81" t="s">
+      <c r="Q21" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="R21" s="81"/>
+      <c r="R21" s="80"/>
       <c r="S21" s="38" t="s">
         <v>116</v>
       </c>
@@ -15076,8 +15076,8 @@
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="38"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
       <c r="S22" s="38"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
@@ -15091,8 +15091,8 @@
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="38"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
       <c r="S23" s="38"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
@@ -15216,8 +15216,8 @@
       <c r="O32" s="38">
         <v>1</v>
       </c>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="80"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="41"/>
@@ -15249,10 +15249,10 @@
       <c r="O33" s="38">
         <v>1</v>
       </c>
-      <c r="Q33" s="81" t="s">
+      <c r="Q33" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="R33" s="81"/>
+      <c r="R33" s="80"/>
       <c r="S33" s="36" t="s">
         <v>81</v>
       </c>
@@ -15287,10 +15287,10 @@
       <c r="O34" s="38">
         <v>1</v>
       </c>
-      <c r="Q34" s="81" t="s">
+      <c r="Q34" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="R34" s="81"/>
+      <c r="R34" s="80"/>
       <c r="S34" s="36" t="s">
         <v>82</v>
       </c>
@@ -15325,10 +15325,10 @@
       <c r="O35" s="38">
         <v>1</v>
       </c>
-      <c r="Q35" s="81" t="s">
+      <c r="Q35" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="R35" s="81"/>
+      <c r="R35" s="80"/>
       <c r="S35" s="36" t="s">
         <v>83</v>
       </c>
@@ -15358,8 +15358,8 @@
       <c r="O36" s="38">
         <v>1</v>
       </c>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
@@ -15643,10 +15643,10 @@
       <c r="N46" s="6">
         <v>0</v>
       </c>
-      <c r="O46" s="81" t="s">
+      <c r="O46" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="P46" s="81"/>
+      <c r="P46" s="80"/>
       <c r="Q46" s="38" t="s">
         <v>107</v>
       </c>
@@ -15729,6 +15729,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="R39:W39"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I29:N29"/>
     <mergeCell ref="D8:E8"/>
@@ -15745,39 +15778,6 @@
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="R39:W39"/>
-    <mergeCell ref="R40:W40"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15804,16 +15804,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="83" t="s">
@@ -15852,183 +15852,183 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="81"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="21" cm="1">
         <f t="array" aca="1" ref="D6:I11" ca="1">M19:R24</f>
-        <v>0.7724543067297982</v>
+        <v>0.90872111650614062</v>
       </c>
       <c r="E6" s="21">
         <f ca="1"/>
-        <v>0.71045557526297598</v>
+        <v>0.41950105446173236</v>
       </c>
       <c r="F6" s="21">
         <f ca="1"/>
-        <v>0.71101168657635228</v>
+        <v>0.98532794396176171</v>
       </c>
       <c r="G6" s="21">
         <f ca="1"/>
-        <v>0.92295152473828468</v>
+        <v>0.75965925776753918</v>
       </c>
       <c r="H6" s="21">
         <f ca="1"/>
-        <v>0.82763616652618777</v>
+        <v>0.44670157327956894</v>
       </c>
       <c r="I6" s="21">
         <f ca="1"/>
-        <v>0.56728016519298197</v>
+        <v>0.11564453181711887</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="81"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="21">
         <f ca="1"/>
-        <v>0.36488519843248657</v>
+        <v>0.68934114829880566</v>
       </c>
       <c r="E7" s="21">
         <f ca="1"/>
-        <v>0.53861325842303565</v>
+        <v>0.63856488162821257</v>
       </c>
       <c r="F7" s="21">
         <f ca="1"/>
-        <v>0.76317346685900223</v>
+        <v>0.6123681892266597</v>
       </c>
       <c r="G7" s="21">
         <f ca="1"/>
-        <v>0.76126142551842113</v>
+        <v>0.83027961516572835</v>
       </c>
       <c r="H7" s="21">
         <f ca="1"/>
-        <v>0.49877746853276839</v>
+        <v>0.76675804522259927</v>
       </c>
       <c r="I7" s="21">
         <f ca="1"/>
-        <v>0.25195592894503394</v>
+        <v>0.32679804365522425</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="81"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="47">
         <f ca="1"/>
-        <v>0.24653727504448208</v>
+        <v>0.93935930558814151</v>
       </c>
       <c r="E8" s="47">
         <f ca="1"/>
-        <v>0.51462705636977346</v>
+        <v>0.6526689326464763</v>
       </c>
       <c r="F8" s="47">
         <f ca="1"/>
-        <v>0.90740642240736546</v>
+        <v>0.54014510484510647</v>
       </c>
       <c r="G8" s="47">
         <f ca="1"/>
-        <v>0.21094458742591304</v>
+        <v>0.47486176268501756</v>
       </c>
       <c r="H8" s="47">
         <f ca="1"/>
-        <v>0.77245028083283751</v>
+        <v>0.77316671356585798</v>
       </c>
       <c r="I8" s="47">
         <f ca="1"/>
-        <v>0.13614554028463011</v>
+        <v>0.5192391784489685</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="81"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="21">
         <f ca="1"/>
-        <v>0.37245927440535498</v>
+        <v>0.14709005235265904</v>
       </c>
       <c r="E9" s="21">
         <f ca="1"/>
-        <v>0.24823592300387864</v>
+        <v>0.4433359395477976</v>
       </c>
       <c r="F9" s="21">
         <f ca="1"/>
-        <v>0.83215851762138771</v>
+        <v>0.20316319582880493</v>
       </c>
       <c r="G9" s="21">
         <f ca="1"/>
-        <v>0.85763110313593804</v>
+        <v>0.58860668743828648</v>
       </c>
       <c r="H9" s="21">
         <f ca="1"/>
-        <v>0.60206925723323179</v>
+        <v>0.21286940644914498</v>
       </c>
       <c r="I9" s="21">
         <f ca="1"/>
-        <v>0.79198599564468064</v>
+        <v>0.77112070220831619</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="81"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="21">
         <f ca="1"/>
-        <v>0.2369862497961932</v>
+        <v>0.44380562334547036</v>
       </c>
       <c r="E10" s="21">
         <f ca="1"/>
-        <v>0.98996089750756266</v>
+        <v>0.51485569427480771</v>
       </c>
       <c r="F10" s="21">
         <f ca="1"/>
-        <v>0.708291459869415</v>
+        <v>0.31040265847801995</v>
       </c>
       <c r="G10" s="21">
         <f ca="1"/>
-        <v>0.39494747570519473</v>
+        <v>0.74085010614831925</v>
       </c>
       <c r="H10" s="21">
         <f ca="1"/>
-        <v>0.56390730300989822</v>
+        <v>0.41477111995241001</v>
       </c>
       <c r="I10" s="21">
         <f ca="1"/>
-        <v>0.89152174411366514</v>
+        <v>0.40189674854374369</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="81"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="21">
         <f ca="1"/>
-        <v>0.29228265435977652</v>
+        <v>0.42110657325036271</v>
       </c>
       <c r="E11" s="21">
         <f ca="1"/>
-        <v>0.96864103857843808</v>
+        <v>0.15777999609298599</v>
       </c>
       <c r="F11" s="21">
         <f ca="1"/>
-        <v>0.83809729903808927</v>
+        <v>0.10127082007773991</v>
       </c>
       <c r="G11" s="21">
         <f ca="1"/>
-        <v>0.84817122303884163</v>
+        <v>0.25988719571699526</v>
       </c>
       <c r="H11" s="21">
         <f ca="1"/>
-        <v>0.10241909633486768</v>
+        <v>0.5413891118684766</v>
       </c>
       <c r="I11" s="21">
         <f ca="1"/>
-        <v>0.31695795173051655</v>
+        <v>0.99451479889298366</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -16056,100 +16056,100 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="81"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="22" cm="1">
         <f t="array" aca="1" ref="D14:I16" ca="1">V19:AA21</f>
-        <v>0.54492086315065724</v>
+        <v>0.7596399639103828</v>
       </c>
       <c r="E14" s="22">
         <f ca="1"/>
-        <v>0.4663825150707579</v>
+        <v>0.22179895091021606</v>
       </c>
       <c r="F14" s="22">
         <f ca="1"/>
-        <v>0.33527569492011766</v>
+        <v>0.85501393132000159</v>
       </c>
       <c r="G14" s="22">
         <f ca="1"/>
-        <v>0.32826000768207053</v>
+        <v>0.89895163345946072</v>
       </c>
       <c r="H14" s="22">
         <f ca="1"/>
-        <v>0.86353095278553904</v>
+        <v>0.55137703133629756</v>
       </c>
       <c r="I14" s="22">
         <f ca="1"/>
-        <v>0.78719070478634179</v>
+        <v>0.17268136980347037</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="81"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="22">
         <f ca="1"/>
-        <v>0.54245058706418736</v>
+        <v>0.97866170133938279</v>
       </c>
       <c r="E15" s="22">
         <f ca="1"/>
-        <v>0.88776959224906182</v>
+        <v>0.65804253698211257</v>
       </c>
       <c r="F15" s="22">
         <f ca="1"/>
-        <v>0.52239466418849689</v>
+        <v>0.64760281159828836</v>
       </c>
       <c r="G15" s="22">
         <f ca="1"/>
-        <v>0.57042684955609313</v>
+        <v>0.76597509104431283</v>
       </c>
       <c r="H15" s="22">
         <f ca="1"/>
-        <v>0.84783099966439757</v>
+        <v>0.73353878529468153</v>
       </c>
       <c r="I15" s="22">
         <f ca="1"/>
-        <v>0.59083264871254615</v>
+        <v>0.85519032153264929</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="81"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="49">
         <f ca="1"/>
-        <v>0.94953430117235471</v>
+        <v>0.38876975562431726</v>
       </c>
       <c r="E16" s="49">
         <f ca="1"/>
-        <v>0.17003668528446303</v>
+        <v>0.9215029365824805</v>
       </c>
       <c r="F16" s="49">
         <f ca="1"/>
-        <v>0.89254632793706512</v>
+        <v>0.90245356915997821</v>
       </c>
       <c r="G16" s="49">
         <f ca="1"/>
-        <v>0.21864215486896632</v>
+        <v>0.83340120130683371</v>
       </c>
       <c r="H16" s="49">
         <f ca="1"/>
-        <v>0.33592309269645493</v>
+        <v>0.84966739627125487</v>
       </c>
       <c r="I16" s="49">
         <f ca="1"/>
-        <v>0.16407366204952223</v>
+        <v>0.32575922393905743</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="6">
         <v>0</v>
       </c>
@@ -16170,10 +16170,10 @@
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="81"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="6">
         <v>0</v>
       </c>
@@ -16238,10 +16238,10 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="81"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="6">
         <v>0</v>
       </c>
@@ -16265,54 +16265,54 @@
       </c>
       <c r="M19" s="21" cm="1">
         <f t="array" aca="1" ref="M19:R27" ca="1">_xlfn.RANDARRAY(9, 6, 0.1,1,FALSE)</f>
-        <v>0.7724543067297982</v>
+        <v>0.90872111650614062</v>
       </c>
       <c r="N19" s="21">
         <f ca="1"/>
-        <v>0.71045557526297598</v>
+        <v>0.41950105446173236</v>
       </c>
       <c r="O19" s="21">
         <f ca="1"/>
-        <v>0.71101168657635228</v>
+        <v>0.98532794396176171</v>
       </c>
       <c r="P19" s="21">
         <f ca="1"/>
-        <v>0.92295152473828468</v>
+        <v>0.75965925776753918</v>
       </c>
       <c r="Q19" s="21">
         <f ca="1"/>
-        <v>0.82763616652618777</v>
+        <v>0.44670157327956894</v>
       </c>
       <c r="R19" s="21">
         <f ca="1"/>
-        <v>0.56728016519298197</v>
+        <v>0.11564453181711887</v>
       </c>
       <c r="U19" s="48" t="s">
         <v>84</v>
       </c>
       <c r="V19" s="22" cm="1">
         <f t="array" aca="1" ref="V19:AA27" ca="1">_xlfn.RANDARRAY(9, 6, 0.1,1,FALSE)</f>
-        <v>0.54492086315065724</v>
+        <v>0.7596399639103828</v>
       </c>
       <c r="W19" s="22">
         <f ca="1"/>
-        <v>0.4663825150707579</v>
+        <v>0.22179895091021606</v>
       </c>
       <c r="X19" s="22">
         <f ca="1"/>
-        <v>0.33527569492011766</v>
+        <v>0.85501393132000159</v>
       </c>
       <c r="Y19" s="22">
         <f ca="1"/>
-        <v>0.32826000768207053</v>
+        <v>0.89895163345946072</v>
       </c>
       <c r="Z19" s="22">
         <f ca="1"/>
-        <v>0.86353095278553904</v>
+        <v>0.55137703133629756</v>
       </c>
       <c r="AA19" s="22">
         <f ca="1"/>
-        <v>0.78719070478634179</v>
+        <v>0.17268136980347037</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -16321,54 +16321,54 @@
       </c>
       <c r="M20" s="21">
         <f ca="1"/>
-        <v>0.36488519843248657</v>
+        <v>0.68934114829880566</v>
       </c>
       <c r="N20" s="21">
         <f ca="1"/>
-        <v>0.53861325842303565</v>
+        <v>0.63856488162821257</v>
       </c>
       <c r="O20" s="21">
         <f ca="1"/>
-        <v>0.76317346685900223</v>
+        <v>0.6123681892266597</v>
       </c>
       <c r="P20" s="21">
         <f ca="1"/>
-        <v>0.76126142551842113</v>
+        <v>0.83027961516572835</v>
       </c>
       <c r="Q20" s="21">
         <f ca="1"/>
-        <v>0.49877746853276839</v>
+        <v>0.76675804522259927</v>
       </c>
       <c r="R20" s="21">
         <f ca="1"/>
-        <v>0.25195592894503394</v>
+        <v>0.32679804365522425</v>
       </c>
       <c r="U20" s="48" t="s">
         <v>86</v>
       </c>
       <c r="V20" s="22">
         <f ca="1"/>
-        <v>0.54245058706418736</v>
+        <v>0.97866170133938279</v>
       </c>
       <c r="W20" s="22">
         <f ca="1"/>
-        <v>0.88776959224906182</v>
+        <v>0.65804253698211257</v>
       </c>
       <c r="X20" s="22">
         <f ca="1"/>
-        <v>0.52239466418849689</v>
+        <v>0.64760281159828836</v>
       </c>
       <c r="Y20" s="22">
         <f ca="1"/>
-        <v>0.57042684955609313</v>
+        <v>0.76597509104431283</v>
       </c>
       <c r="Z20" s="22">
         <f ca="1"/>
-        <v>0.84783099966439757</v>
+        <v>0.73353878529468153</v>
       </c>
       <c r="AA20" s="22">
         <f ca="1"/>
-        <v>0.59083264871254615</v>
+        <v>0.85519032153264929</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -16377,54 +16377,54 @@
       </c>
       <c r="M21" s="21">
         <f ca="1"/>
-        <v>0.24653727504448208</v>
+        <v>0.93935930558814151</v>
       </c>
       <c r="N21" s="21">
         <f ca="1"/>
-        <v>0.51462705636977346</v>
+        <v>0.6526689326464763</v>
       </c>
       <c r="O21" s="21">
         <f ca="1"/>
-        <v>0.90740642240736546</v>
+        <v>0.54014510484510647</v>
       </c>
       <c r="P21" s="21">
         <f ca="1"/>
-        <v>0.21094458742591304</v>
+        <v>0.47486176268501756</v>
       </c>
       <c r="Q21" s="21">
         <f ca="1"/>
-        <v>0.77245028083283751</v>
+        <v>0.77316671356585798</v>
       </c>
       <c r="R21" s="21">
         <f ca="1"/>
-        <v>0.13614554028463011</v>
+        <v>0.5192391784489685</v>
       </c>
       <c r="U21" s="48" t="s">
         <v>85</v>
       </c>
       <c r="V21" s="22">
         <f ca="1"/>
-        <v>0.94953430117235471</v>
+        <v>0.38876975562431726</v>
       </c>
       <c r="W21" s="22">
         <f ca="1"/>
-        <v>0.17003668528446303</v>
+        <v>0.9215029365824805</v>
       </c>
       <c r="X21" s="22">
         <f ca="1"/>
-        <v>0.89254632793706512</v>
+        <v>0.90245356915997821</v>
       </c>
       <c r="Y21" s="22">
         <f ca="1"/>
-        <v>0.21864215486896632</v>
+        <v>0.83340120130683371</v>
       </c>
       <c r="Z21" s="22">
         <f ca="1"/>
-        <v>0.33592309269645493</v>
+        <v>0.84966739627125487</v>
       </c>
       <c r="AA21" s="22">
         <f ca="1"/>
-        <v>0.16407366204952223</v>
+        <v>0.32575922393905743</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
@@ -16443,54 +16443,54 @@
       </c>
       <c r="M22" s="21">
         <f ca="1"/>
-        <v>0.37245927440535498</v>
+        <v>0.14709005235265904</v>
       </c>
       <c r="N22" s="21">
         <f ca="1"/>
-        <v>0.24823592300387864</v>
+        <v>0.4433359395477976</v>
       </c>
       <c r="O22" s="21">
         <f ca="1"/>
-        <v>0.83215851762138771</v>
+        <v>0.20316319582880493</v>
       </c>
       <c r="P22" s="21">
         <f ca="1"/>
-        <v>0.85763110313593804</v>
+        <v>0.58860668743828648</v>
       </c>
       <c r="Q22" s="21">
         <f ca="1"/>
-        <v>0.60206925723323179</v>
+        <v>0.21286940644914498</v>
       </c>
       <c r="R22" s="21">
         <f ca="1"/>
-        <v>0.79198599564468064</v>
+        <v>0.77112070220831619</v>
       </c>
       <c r="U22" s="40" t="s">
         <v>126</v>
       </c>
       <c r="V22" s="6">
         <f ca="1"/>
-        <v>0.37328375908909162</v>
+        <v>0.57052675758072824</v>
       </c>
       <c r="W22" s="6">
         <f ca="1"/>
-        <v>0.29981673650572005</v>
+        <v>0.27234881896957952</v>
       </c>
       <c r="X22" s="6">
         <f ca="1"/>
-        <v>0.83268646007130687</v>
+        <v>0.44768755038393193</v>
       </c>
       <c r="Y22" s="6">
         <f ca="1"/>
-        <v>0.40859462205568664</v>
+        <v>0.94016873547276525</v>
       </c>
       <c r="Z22" s="6">
         <f ca="1"/>
-        <v>0.7699475972788703</v>
+        <v>0.39307183339089224</v>
       </c>
       <c r="AA22" s="6">
         <f ca="1"/>
-        <v>0.12114742090996811</v>
+        <v>0.64482184987685209</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -16499,54 +16499,54 @@
       </c>
       <c r="M23" s="21">
         <f ca="1"/>
-        <v>0.2369862497961932</v>
+        <v>0.44380562334547036</v>
       </c>
       <c r="N23" s="21">
         <f ca="1"/>
-        <v>0.98996089750756266</v>
+        <v>0.51485569427480771</v>
       </c>
       <c r="O23" s="21">
         <f ca="1"/>
-        <v>0.708291459869415</v>
+        <v>0.31040265847801995</v>
       </c>
       <c r="P23" s="21">
         <f ca="1"/>
-        <v>0.39494747570519473</v>
+        <v>0.74085010614831925</v>
       </c>
       <c r="Q23" s="21">
         <f ca="1"/>
-        <v>0.56390730300989822</v>
+        <v>0.41477111995241001</v>
       </c>
       <c r="R23" s="21">
         <f ca="1"/>
-        <v>0.89152174411366514</v>
+        <v>0.40189674854374369</v>
       </c>
       <c r="U23" s="40" t="s">
         <v>127</v>
       </c>
       <c r="V23" s="6">
         <f ca="1"/>
-        <v>0.61592906683225745</v>
+        <v>0.88016573990737035</v>
       </c>
       <c r="W23" s="6">
         <f ca="1"/>
-        <v>0.4265910400487174</v>
+        <v>0.15609465872035</v>
       </c>
       <c r="X23" s="6">
         <f ca="1"/>
-        <v>0.39146746238386032</v>
+        <v>0.22829097769241891</v>
       </c>
       <c r="Y23" s="6">
         <f ca="1"/>
-        <v>0.30511434461753817</v>
+        <v>0.57034219816301213</v>
       </c>
       <c r="Z23" s="6">
         <f ca="1"/>
-        <v>0.15866696983660056</v>
+        <v>0.90517684179968794</v>
       </c>
       <c r="AA23" s="6">
         <f ca="1"/>
-        <v>0.61030161844144981</v>
+        <v>0.55660884601488281</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
@@ -16562,54 +16562,54 @@
       </c>
       <c r="M24" s="21">
         <f ca="1"/>
-        <v>0.29228265435977652</v>
+        <v>0.42110657325036271</v>
       </c>
       <c r="N24" s="21">
         <f ca="1"/>
-        <v>0.96864103857843808</v>
+        <v>0.15777999609298599</v>
       </c>
       <c r="O24" s="21">
         <f ca="1"/>
-        <v>0.83809729903808927</v>
+        <v>0.10127082007773991</v>
       </c>
       <c r="P24" s="21">
         <f ca="1"/>
-        <v>0.84817122303884163</v>
+        <v>0.25988719571699526</v>
       </c>
       <c r="Q24" s="21">
         <f ca="1"/>
-        <v>0.10241909633486768</v>
+        <v>0.5413891118684766</v>
       </c>
       <c r="R24" s="21">
         <f ca="1"/>
-        <v>0.31695795173051655</v>
+        <v>0.99451479889298366</v>
       </c>
       <c r="U24" s="40" t="s">
         <v>128</v>
       </c>
       <c r="V24" s="6">
         <f ca="1"/>
-        <v>0.92613577768397781</v>
+        <v>0.80723928661933919</v>
       </c>
       <c r="W24" s="6">
         <f ca="1"/>
-        <v>0.74291407792868958</v>
+        <v>0.615856878464899</v>
       </c>
       <c r="X24" s="6">
         <f ca="1"/>
-        <v>0.83154580671742728</v>
+        <v>0.40341680027936633</v>
       </c>
       <c r="Y24" s="6">
         <f ca="1"/>
-        <v>0.19409180188674724</v>
+        <v>0.44026169824601014</v>
       </c>
       <c r="Z24" s="6">
         <f ca="1"/>
-        <v>0.94549681696877008</v>
+        <v>0.24076959893718763</v>
       </c>
       <c r="AA24" s="6">
         <f ca="1"/>
-        <v>0.33842502612348779</v>
+        <v>0.17327040378993508</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -16618,54 +16618,54 @@
       </c>
       <c r="M25" s="6">
         <f ca="1"/>
-        <v>0.24450842750204194</v>
+        <v>0.45013119595524698</v>
       </c>
       <c r="N25" s="6">
         <f ca="1"/>
-        <v>0.313920992134191</v>
+        <v>0.88394571071490446</v>
       </c>
       <c r="O25" s="6">
         <f ca="1"/>
-        <v>0.20896748031837897</v>
+        <v>0.67068921961378281</v>
       </c>
       <c r="P25" s="6">
         <f ca="1"/>
-        <v>0.67319573659385123</v>
+        <v>0.45886380190161336</v>
       </c>
       <c r="Q25" s="6">
         <f ca="1"/>
-        <v>0.53541379567861114</v>
+        <v>0.94149561602976184</v>
       </c>
       <c r="R25" s="6">
         <f ca="1"/>
-        <v>0.61975808489001794</v>
+        <v>0.51296694153587996</v>
       </c>
       <c r="U25" s="40" t="s">
         <v>123</v>
       </c>
       <c r="V25" s="6">
         <f ca="1"/>
-        <v>0.1387849716802787</v>
+        <v>0.20352740439865502</v>
       </c>
       <c r="W25" s="6">
         <f ca="1"/>
-        <v>0.86042911942098743</v>
+        <v>0.46351290905296127</v>
       </c>
       <c r="X25" s="6">
         <f ca="1"/>
-        <v>0.84853659028177808</v>
+        <v>0.26322953405460803</v>
       </c>
       <c r="Y25" s="6">
         <f ca="1"/>
-        <v>0.58074958325135517</v>
+        <v>0.44188897966051943</v>
       </c>
       <c r="Z25" s="6">
         <f ca="1"/>
-        <v>0.41449431935752479</v>
+        <v>0.67717427006581765</v>
       </c>
       <c r="AA25" s="6">
         <f ca="1"/>
-        <v>0.40514935770593707</v>
+        <v>0.98777958953326084</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
@@ -16693,54 +16693,54 @@
       </c>
       <c r="M26" s="6">
         <f ca="1"/>
-        <v>0.96770257122905279</v>
+        <v>0.48971475822075683</v>
       </c>
       <c r="N26" s="6">
         <f ca="1"/>
-        <v>0.82280616456593925</v>
+        <v>0.56208901554620416</v>
       </c>
       <c r="O26" s="6">
         <f ca="1"/>
-        <v>0.94361224427492973</v>
+        <v>0.37326968028585772</v>
       </c>
       <c r="P26" s="6">
         <f ca="1"/>
-        <v>0.12516174483837794</v>
+        <v>0.19771199476233248</v>
       </c>
       <c r="Q26" s="6">
         <f ca="1"/>
-        <v>0.37912588085039078</v>
+        <v>0.50395575506786505</v>
       </c>
       <c r="R26" s="6">
         <f ca="1"/>
-        <v>0.32968315921046898</v>
+        <v>0.4444955294645081</v>
       </c>
       <c r="U26" s="40" t="s">
         <v>124</v>
       </c>
       <c r="V26" s="6">
         <f ca="1"/>
-        <v>0.92811042653346609</v>
+        <v>0.11583240298400588</v>
       </c>
       <c r="W26" s="6">
         <f ca="1"/>
-        <v>0.99670753799391054</v>
+        <v>0.85158995803835946</v>
       </c>
       <c r="X26" s="6">
         <f ca="1"/>
-        <v>0.28865981700575527</v>
+        <v>0.90811740311650158</v>
       </c>
       <c r="Y26" s="6">
         <f ca="1"/>
-        <v>0.34305730129271006</v>
+        <v>0.25891595549392887</v>
       </c>
       <c r="Z26" s="6">
         <f ca="1"/>
-        <v>0.73865328780985196</v>
+        <v>0.70765813460416149</v>
       </c>
       <c r="AA26" s="6">
         <f ca="1"/>
-        <v>0.24231526874824905</v>
+        <v>0.83934687194195279</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -16770,54 +16770,54 @@
       </c>
       <c r="M27" s="6">
         <f ca="1"/>
-        <v>0.76882207098080646</v>
+        <v>0.87871930758807326</v>
       </c>
       <c r="N27" s="6">
         <f ca="1"/>
-        <v>0.62968806219557605</v>
+        <v>0.96494778641590018</v>
       </c>
       <c r="O27" s="6">
         <f ca="1"/>
-        <v>0.2228558597953223</v>
+        <v>0.91259613062272238</v>
       </c>
       <c r="P27" s="6">
         <f ca="1"/>
-        <v>0.48244323785127752</v>
+        <v>0.79027479367726006</v>
       </c>
       <c r="Q27" s="6">
         <f ca="1"/>
-        <v>0.18770924716618831</v>
+        <v>0.37581668502600629</v>
       </c>
       <c r="R27" s="6">
         <f ca="1"/>
-        <v>0.15862688079438825</v>
+        <v>0.57641465490268473</v>
       </c>
       <c r="U27" s="40" t="s">
         <v>125</v>
       </c>
       <c r="V27" s="6">
         <f ca="1"/>
-        <v>0.78700097341602815</v>
+        <v>0.10068950328049531</v>
       </c>
       <c r="W27" s="6">
         <f ca="1"/>
-        <v>0.83768539293103506</v>
+        <v>0.94061060586596001</v>
       </c>
       <c r="X27" s="6">
         <f ca="1"/>
-        <v>0.2008432469104704</v>
+        <v>0.21938432518759376</v>
       </c>
       <c r="Y27" s="6">
         <f ca="1"/>
-        <v>0.27505335576628287</v>
+        <v>0.10275684552994924</v>
       </c>
       <c r="Z27" s="6">
         <f ca="1"/>
-        <v>0.5780886242795662</v>
+        <v>0.12951329799187339</v>
       </c>
       <c r="AA27" s="6">
         <f ca="1"/>
-        <v>0.30308028412439714</v>
+        <v>0.30712037620771127</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
@@ -16875,12 +16875,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B19:C19"/>
@@ -16896,6 +16890,12 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B24:F24"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16906,7 +16906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3621-BE87-4510-93D4-92172D1B5EE2}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -16944,13 +16944,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
@@ -17105,27 +17105,27 @@
       </c>
       <c r="O7" s="6" cm="1">
         <f t="array" aca="1" ref="O7:T12" ca="1">_xlfn.RANDARRAY(6, 6, -1, 1, FALSE)</f>
-        <v>0.6528785760224467</v>
+        <v>0.1472014734241891</v>
       </c>
       <c r="P7" s="6">
         <f ca="1"/>
-        <v>-0.14560521872152243</v>
+        <v>0.4639557039311033</v>
       </c>
       <c r="Q7" s="6">
         <f ca="1"/>
-        <v>-0.10826080168202301</v>
+        <v>0.85914445796152084</v>
       </c>
       <c r="R7" s="6">
         <f ca="1"/>
-        <v>-0.45304566587448192</v>
+        <v>-0.738100273535923</v>
       </c>
       <c r="S7" s="6">
         <f ca="1"/>
-        <v>0.49077069216244551</v>
+        <v>6.6735242867508981E-2</v>
       </c>
       <c r="T7" s="6">
         <f ca="1"/>
-        <v>-0.96895725514115405</v>
+        <v>-0.67667887546779304</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -17147,27 +17147,27 @@
       </c>
       <c r="O8" s="6">
         <f ca="1"/>
-        <v>-0.60884011767387847</v>
+        <v>-0.14338739868285044</v>
       </c>
       <c r="P8" s="6">
         <f ca="1"/>
-        <v>0.78166516650716145</v>
+        <v>0.81834565358983058</v>
       </c>
       <c r="Q8" s="6">
         <f ca="1"/>
-        <v>0.46588975472035488</v>
+        <v>0.33525038121296946</v>
       </c>
       <c r="R8" s="6">
         <f ca="1"/>
-        <v>-0.17090341262554043</v>
+        <v>1.5075208401784224E-2</v>
       </c>
       <c r="S8" s="6">
         <f ca="1"/>
-        <v>-0.12302962950461294</v>
+        <v>-1.3172107068574412E-2</v>
       </c>
       <c r="T8" s="6">
         <f ca="1"/>
-        <v>-0.18672434052221387</v>
+        <v>-0.47706038937995587</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -17195,27 +17195,27 @@
       </c>
       <c r="O9" s="6">
         <f ca="1"/>
-        <v>0.77580978548392321</v>
+        <v>7.5787303674548223E-2</v>
       </c>
       <c r="P9" s="6">
         <f ca="1"/>
-        <v>-0.70305231249132394</v>
+        <v>-0.22739811942697408</v>
       </c>
       <c r="Q9" s="6">
         <f ca="1"/>
-        <v>0.65180300221316645</v>
+        <v>-0.31685367660972497</v>
       </c>
       <c r="R9" s="6">
         <f ca="1"/>
-        <v>-0.58543777426034449</v>
+        <v>0.97428801614120464</v>
       </c>
       <c r="S9" s="6">
         <f ca="1"/>
-        <v>-0.85003472328641494</v>
+        <v>0.36482917987107455</v>
       </c>
       <c r="T9" s="6">
         <f ca="1"/>
-        <v>-0.69585937834830247</v>
+        <v>0.21842711166430462</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -17243,27 +17243,27 @@
       </c>
       <c r="O10" s="6">
         <f ca="1"/>
-        <v>-3.8501848305686259E-2</v>
+        <v>0.58981059569864924</v>
       </c>
       <c r="P10" s="6">
         <f ca="1"/>
-        <v>-0.50595137055281048</v>
+        <v>0.60289752471993419</v>
       </c>
       <c r="Q10" s="6">
         <f ca="1"/>
-        <v>-0.67213271869366964</v>
+        <v>0.16564329799225597</v>
       </c>
       <c r="R10" s="6">
         <f ca="1"/>
-        <v>-0.128978606018473</v>
+        <v>-3.1523720984160564E-2</v>
       </c>
       <c r="S10" s="6">
         <f ca="1"/>
-        <v>-0.76069171775445699</v>
+        <v>-0.70927118175462445</v>
       </c>
       <c r="T10" s="6">
         <f ca="1"/>
-        <v>-0.28188911631431846</v>
+        <v>0.66799188204215043</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -17291,27 +17291,27 @@
       </c>
       <c r="O11" s="6">
         <f ca="1"/>
-        <v>-6.8017597655871675E-2</v>
+        <v>4.001773534898212E-2</v>
       </c>
       <c r="P11" s="6">
         <f ca="1"/>
-        <v>0.72239833216156146</v>
+        <v>0.85973795899696248</v>
       </c>
       <c r="Q11" s="6">
         <f ca="1"/>
-        <v>-0.89631353674471526</v>
+        <v>-0.35265410447433676</v>
       </c>
       <c r="R11" s="6">
         <f ca="1"/>
-        <v>-0.86639943570152611</v>
+        <v>0.6005157127125833</v>
       </c>
       <c r="S11" s="6">
         <f ca="1"/>
-        <v>0.52955807712107816</v>
+        <v>-0.35343405589445442</v>
       </c>
       <c r="T11" s="6">
         <f ca="1"/>
-        <v>0.49446564760991962</v>
+        <v>0.40172083842981343</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -17339,27 +17339,27 @@
       </c>
       <c r="O12" s="6">
         <f ca="1"/>
-        <v>-0.48697893701405159</v>
+        <v>0.72823297065110504</v>
       </c>
       <c r="P12" s="6">
         <f ca="1"/>
-        <v>0.71639081356287404</v>
+        <v>0.53482919382739125</v>
       </c>
       <c r="Q12" s="6">
         <f ca="1"/>
-        <v>-0.58947323355436643</v>
+        <v>-0.1330099650827774</v>
       </c>
       <c r="R12" s="6">
         <f ca="1"/>
-        <v>-6.0516359469184877E-2</v>
+        <v>0.64148019103926157</v>
       </c>
       <c r="S12" s="6">
         <f ca="1"/>
-        <v>0.72513817269659508</v>
+        <v>-0.79717696335855148</v>
       </c>
       <c r="T12" s="6">
         <f ca="1"/>
-        <v>-0.80599592252937824</v>
+        <v>0.56647145883304151</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -18186,24 +18186,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="V2" s="80" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="V2" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="83" t="s">
@@ -18229,11 +18229,11 @@
       <c r="M5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="V5" s="79" t="s">
         <v>42</v>
       </c>
@@ -18310,27 +18310,27 @@
       </c>
       <c r="D7" s="56" cm="1">
         <f t="array" aca="1" ref="D7:I12" ca="1">_xlfn.ANCHORARRAY('Input | Output Embedding'!D6)+_xlfn.ANCHORARRAY('+ Positional Embedding'!O7)</f>
-        <v>1.4253328827522449</v>
+        <v>1.0559225899303297</v>
       </c>
       <c r="E7" s="57">
         <f ca="1"/>
-        <v>0.56485035654145355</v>
+        <v>0.88345675839283566</v>
       </c>
       <c r="F7" s="58">
         <f ca="1"/>
-        <v>0.60275088489432926</v>
+        <v>1.8444724019232825</v>
       </c>
       <c r="G7" s="59">
         <f ca="1"/>
-        <v>0.46990585886380276</v>
+        <v>2.1558984231616174E-2</v>
       </c>
       <c r="H7" s="60">
         <f ca="1"/>
-        <v>1.3184068586886333</v>
+        <v>0.51343681614707792</v>
       </c>
       <c r="I7" s="61">
         <f ca="1"/>
-        <v>-0.40167708994817208</v>
+        <v>-0.56103434365067417</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>41</v>
@@ -18341,27 +18341,27 @@
       </c>
       <c r="M7" s="63" cm="1">
         <f t="array" aca="1" ref="M7:R12" ca="1">_xlfn.RANDARRAY(6,6,M35,N35,FALSE)</f>
-        <v>-1.4259363728515405E-2</v>
+        <v>2.5521115212387091E-2</v>
       </c>
       <c r="N7" s="76">
         <f ca="1"/>
-        <v>-1.2848698124331634E-2</v>
+        <v>-2.8470215070770431E-2</v>
       </c>
       <c r="O7" s="76">
         <f ca="1"/>
-        <v>-4.2107696963558719E-3</v>
+        <v>-3.6232144455541321E-2</v>
       </c>
       <c r="P7" s="20">
         <f ca="1"/>
-        <v>-2.7090276409955427E-2</v>
+        <v>-2.310271127787706E-2</v>
       </c>
       <c r="Q7" s="20">
         <f ca="1"/>
-        <v>4.4037521822384434E-2</v>
+        <v>-4.1498348239177182E-2</v>
       </c>
       <c r="R7" s="20">
         <f ca="1"/>
-        <v>4.2657694923003329E-2</v>
+        <v>-1.2714799029654264E-2</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>34</v>
@@ -18371,27 +18371,27 @@
       </c>
       <c r="V7" s="21" cm="1">
         <f t="array" aca="1" ref="V7:AA12" ca="1">MMULT(_xlfn.ANCHORARRAY(D7),_xlfn.ANCHORARRAY(M7))</f>
-        <v>-2.9722640159828596E-2</v>
+        <v>3.26600817427889E-2</v>
       </c>
       <c r="W7" s="20">
         <f ca="1"/>
-        <v>-1.09675150623967E-3</v>
+        <v>-0.10866109862734627</v>
       </c>
       <c r="X7" s="20">
         <f ca="1"/>
-        <v>4.5560863123358577E-3</v>
+        <v>-1.2806475254965219E-2</v>
       </c>
       <c r="Y7" s="20">
         <f ca="1"/>
-        <v>-2.8192939606967449E-2</v>
+        <v>6.1087440053230295E-3</v>
       </c>
       <c r="Z7" s="20">
         <f ca="1"/>
-        <v>7.6874021138578871E-2</v>
+        <v>-0.15004094887709393</v>
       </c>
       <c r="AA7" s="20">
         <f ca="1"/>
-        <v>5.2309054033956318E-2</v>
+        <v>9.5168436049971328E-2</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -18403,27 +18403,27 @@
       </c>
       <c r="D8" s="56">
         <f ca="1"/>
-        <v>-0.2439549192413919</v>
+        <v>0.54595374961595522</v>
       </c>
       <c r="E8" s="57">
         <f ca="1"/>
-        <v>1.3202784249301971</v>
+        <v>1.4569105352180431</v>
       </c>
       <c r="F8" s="58">
         <f ca="1"/>
-        <v>1.2290632215793571</v>
+        <v>0.94761857043962916</v>
       </c>
       <c r="G8" s="59">
         <f ca="1"/>
-        <v>0.5903580128928807</v>
+        <v>0.84535482356751257</v>
       </c>
       <c r="H8" s="60">
         <f ca="1"/>
-        <v>0.37574783902815545</v>
+        <v>0.75358593815402486</v>
       </c>
       <c r="I8" s="61">
         <f ca="1"/>
-        <v>6.5231588422820064E-2</v>
+        <v>-0.15026234572473163</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>41</v>
@@ -18433,27 +18433,27 @@
       </c>
       <c r="M8" s="64">
         <f ca="1"/>
-        <v>-1.4889199258730765E-2</v>
+        <v>-4.3057865656420884E-2</v>
       </c>
       <c r="N8" s="76">
         <f ca="1"/>
-        <v>-2.9739257395867726E-2</v>
+        <v>1.5168123774747251E-2</v>
       </c>
       <c r="O8" s="77">
         <f ca="1"/>
-        <v>3.6201742786658941E-2</v>
+        <v>4.0332748223030533E-2</v>
       </c>
       <c r="P8" s="65">
         <f ca="1"/>
-        <v>-3.129434352870579E-2</v>
+        <v>3.8604467411528932E-2</v>
       </c>
       <c r="Q8" s="65">
         <f ca="1"/>
-        <v>-1.0759769599281994E-2</v>
+        <v>-3.3941384401358049E-2</v>
       </c>
       <c r="R8" s="65">
         <f ca="1"/>
-        <v>2.6770285955031309E-3</v>
+        <v>3.243689985226076E-2</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>35</v>
@@ -18463,27 +18463,27 @@
       </c>
       <c r="V8" s="47">
         <f ca="1"/>
-        <v>1.0887384185903695E-2</v>
+        <v>-2.3751226448287768E-2</v>
       </c>
       <c r="W8" s="65">
         <f ca="1"/>
-        <v>-7.3345445188462602E-2</v>
+        <v>-7.3255425089516601E-2</v>
       </c>
       <c r="X8" s="65">
         <f ca="1"/>
-        <v>9.8632905205879126E-2</v>
+        <v>1.4845136966494622E-2</v>
       </c>
       <c r="Y8" s="65">
         <f ca="1"/>
-        <v>3.3948833510908744E-2</v>
+        <v>3.8741282491982693E-2</v>
       </c>
       <c r="Z8" s="65">
         <f ca="1"/>
-        <v>-1.6712268339266034E-2</v>
+        <v>-0.12034234107869952</v>
       </c>
       <c r="AA8" s="65">
         <f ca="1"/>
-        <v>6.6151238463876992E-3</v>
+        <v>5.5010883582970911E-2</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
@@ -18495,27 +18495,27 @@
       </c>
       <c r="D9" s="6">
         <f ca="1"/>
-        <v>1.0223470605284053</v>
+        <v>1.0151466092626897</v>
       </c>
       <c r="E9" s="6">
         <f ca="1"/>
-        <v>-0.18842525612155048</v>
+        <v>0.42527081321950222</v>
       </c>
       <c r="F9" s="6">
         <f ca="1"/>
-        <v>1.5592094246205319</v>
+        <v>0.22329142823538151</v>
       </c>
       <c r="G9" s="6">
         <f ca="1"/>
-        <v>-0.37449318683443145</v>
+        <v>1.4491497788262222</v>
       </c>
       <c r="H9" s="6">
         <f ca="1"/>
-        <v>-7.7584442453577429E-2</v>
+        <v>1.1379958934369325</v>
       </c>
       <c r="I9" s="6">
         <f ca="1"/>
-        <v>-0.55971383806367236</v>
+        <v>0.73766629011327312</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>2</v>
@@ -18528,27 +18528,27 @@
       </c>
       <c r="M9" s="66">
         <f ca="1"/>
-        <v>2.0174614775506097E-2</v>
+        <v>1.3175448391563579E-2</v>
       </c>
       <c r="N9" s="76">
         <f ca="1"/>
-        <v>-4.2773653574965861E-2</v>
+        <v>-3.9657750801803532E-2</v>
       </c>
       <c r="O9" s="70">
         <f ca="1"/>
-        <v>3.0942015818803154E-2</v>
+        <v>-8.7511017733518034E-3</v>
       </c>
       <c r="P9" s="6">
         <f ca="1"/>
-        <v>4.3657364365833139E-2</v>
+        <v>-3.9580612904038803E-4</v>
       </c>
       <c r="Q9" s="6">
         <f ca="1"/>
-        <v>-1.6876094584231248E-2</v>
+        <v>-2.979793275291967E-2</v>
       </c>
       <c r="R9" s="6">
         <f ca="1"/>
-        <v>1.0277391046422536E-2</v>
+        <v>3.0061973553470178E-2</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>3</v>
@@ -18561,27 +18561,27 @@
       </c>
       <c r="V9" s="6">
         <f ca="1"/>
-        <v>1.9639863447445019E-2</v>
+        <v>8.1227358025012311E-3</v>
       </c>
       <c r="W9" s="6">
         <f ca="1"/>
-        <v>-6.6164387450363946E-2</v>
+        <v>-8.3990338575712517E-2</v>
       </c>
       <c r="X9" s="6">
         <f ca="1"/>
-        <v>7.2896310265501592E-3</v>
+        <v>-7.0223412005294722E-2</v>
       </c>
       <c r="Y9" s="6">
         <f ca="1"/>
-        <v>1.6695779290658127E-2</v>
+        <v>1.0483120428232195E-2</v>
       </c>
       <c r="Z9" s="6">
         <f ca="1"/>
-        <v>-1.4289566297882198E-2</v>
+        <v>-9.2148864021563942E-2</v>
       </c>
       <c r="AA9" s="6">
         <f ca="1"/>
-        <v>6.6320376517074592E-2</v>
+        <v>-4.2789992812092045E-2</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
@@ -18593,27 +18593,27 @@
       </c>
       <c r="D10" s="6">
         <f ca="1"/>
-        <v>0.33395742609966872</v>
+        <v>0.73690064805130828</v>
       </c>
       <c r="E10" s="6">
         <f ca="1"/>
-        <v>-0.25771544754893183</v>
+        <v>1.0462334642677318</v>
       </c>
       <c r="F10" s="6">
         <f ca="1"/>
-        <v>0.16002579892771807</v>
+        <v>0.3688064938210609</v>
       </c>
       <c r="G10" s="6">
         <f ca="1"/>
-        <v>0.72865249711746505</v>
+        <v>0.55708296645412592</v>
       </c>
       <c r="H10" s="6">
         <f ca="1"/>
-        <v>-0.15862246052122519</v>
+        <v>-0.49640177530547946</v>
       </c>
       <c r="I10" s="6">
         <f ca="1"/>
-        <v>0.51009687933036219</v>
+        <v>1.4391125842504666</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>41</v>
@@ -18623,27 +18623,27 @@
       </c>
       <c r="M10" s="67">
         <f ca="1"/>
-        <v>1.6494215826390352E-2</v>
+        <v>-1.5300168386349067E-3</v>
       </c>
       <c r="N10" s="76">
         <f ca="1"/>
-        <v>5.3800057423077641E-3</v>
+        <v>-3.2165670604517228E-2</v>
       </c>
       <c r="O10" s="70">
         <f ca="1"/>
-        <v>2.9197706192257138E-2</v>
+        <v>-1.0588702893040022E-2</v>
       </c>
       <c r="P10" s="6">
         <f ca="1"/>
-        <v>1.5483250004102368E-2</v>
+        <v>-2.5017292113186325E-2</v>
       </c>
       <c r="Q10" s="6">
         <f ca="1"/>
-        <v>2.8855492346465512E-2</v>
+        <v>1.4916843526235311E-2</v>
       </c>
       <c r="R10" s="6">
         <f ca="1"/>
-        <v>2.1149552345107812E-2</v>
+        <v>-4.1981509967263561E-2</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>37</v>
@@ -18653,27 +18653,27 @@
       </c>
       <c r="V10" s="6">
         <f ca="1"/>
-        <v>1.2955460051437389E-2</v>
+        <v>-6.0706038413879809E-2</v>
       </c>
       <c r="W10" s="6">
         <f ca="1"/>
-        <v>-1.7085043540156015E-2</v>
+        <v>-4.6319072718143152E-3</v>
       </c>
       <c r="X10" s="6">
         <f ca="1"/>
-        <v>3.7500616236533224E-2</v>
+        <v>-2.0890914819853286E-2</v>
       </c>
       <c r="Y10" s="6">
         <f ca="1"/>
-        <v>3.702519691266018E-2</v>
+        <v>3.8255186120040918E-2</v>
       </c>
       <c r="Z10" s="6">
         <f ca="1"/>
-        <v>5.2172738500156024E-2</v>
+        <v>-4.9105650524874034E-2</v>
       </c>
       <c r="AA10" s="6">
         <f ca="1"/>
-        <v>2.3013051417376609E-2</v>
+        <v>-3.3031024466218119E-2</v>
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
@@ -18685,27 +18685,27 @@
       </c>
       <c r="D11" s="6">
         <f ca="1"/>
-        <v>0.16896865214032153</v>
+        <v>0.48382335869445248</v>
       </c>
       <c r="E11" s="6">
         <f ca="1"/>
-        <v>1.7123592296691241</v>
+        <v>1.3745936532717702</v>
       </c>
       <c r="F11" s="6">
         <f ca="1"/>
-        <v>-0.18802207687530026</v>
+        <v>-4.2251445996316805E-2</v>
       </c>
       <c r="G11" s="6">
         <f ca="1"/>
-        <v>-0.47145195999633138</v>
+        <v>1.3413658188609026</v>
       </c>
       <c r="H11" s="6">
         <f ca="1"/>
-        <v>1.0934653801309764</v>
+        <v>6.1337064057955581E-2</v>
       </c>
       <c r="I11" s="6">
         <f ca="1"/>
-        <v>1.3859873917235848</v>
+        <v>0.80361758697355712</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>41</v>
@@ -18715,27 +18715,27 @@
       </c>
       <c r="M11" s="68">
         <f ca="1"/>
-        <v>-1.8412532532154309E-2</v>
+        <v>1.4019319813766438E-2</v>
       </c>
       <c r="N11" s="76">
         <f ca="1"/>
-        <v>3.6415599009073554E-2</v>
+        <v>-1.651673113557544E-2</v>
       </c>
       <c r="O11" s="70">
         <f ca="1"/>
-        <v>-2.0887604649822401E-2</v>
+        <v>-1.3876146974380513E-2</v>
       </c>
       <c r="P11" s="6">
         <f ca="1"/>
-        <v>8.4203176759183387E-3</v>
+        <v>2.8015136107083699E-2</v>
       </c>
       <c r="Q11" s="6">
         <f ca="1"/>
-        <v>2.4872556271224186E-2</v>
+        <v>-4.3542659259510827E-2</v>
       </c>
       <c r="R11" s="6">
         <f ca="1"/>
-        <v>-2.6913062909254243E-2</v>
+        <v>2.4178239954896236E-2</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>38</v>
@@ -18745,27 +18745,27 @@
       </c>
       <c r="V11" s="6">
         <f ca="1"/>
-        <v>-7.1257192759129548E-2</v>
+        <v>-6.6184907511051716E-2</v>
       </c>
       <c r="W11" s="6">
         <f ca="1"/>
-        <v>-3.9716048763434354E-2</v>
+        <v>-2.1545694772118283E-2</v>
       </c>
       <c r="X11" s="6">
         <f ca="1"/>
-        <v>6.9657221038783954E-2</v>
+        <v>4.1562750772240337E-3</v>
       </c>
       <c r="Y11" s="6">
         <f ca="1"/>
-        <v>-7.2034749458740749E-3</v>
+        <v>3.4010135993920027E-2</v>
       </c>
       <c r="Z11" s="6">
         <f ca="1"/>
-        <v>6.0976556069903973E-2</v>
+        <v>-4.9225091439164738E-2</v>
       </c>
       <c r="AA11" s="6">
         <f ca="1"/>
-        <v>-6.1784550660653956E-2</v>
+        <v>-3.6256631133410329E-2</v>
       </c>
     </row>
     <row r="12" spans="2:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -18777,27 +18777,27 @@
       </c>
       <c r="D12" s="6">
         <f ca="1"/>
-        <v>-0.19469628265427508</v>
+        <v>1.1493395439014678</v>
       </c>
       <c r="E12" s="6">
         <f ca="1"/>
-        <v>1.6850318521413121</v>
+        <v>0.69260918992037723</v>
       </c>
       <c r="F12" s="6">
         <f ca="1"/>
-        <v>0.24862406548372284</v>
+        <v>-3.1739145005037495E-2</v>
       </c>
       <c r="G12" s="6">
         <f ca="1"/>
-        <v>0.78765486356965675</v>
+        <v>0.90136738675625683</v>
       </c>
       <c r="H12" s="6">
         <f ca="1"/>
-        <v>0.82755726903146276</v>
+        <v>-0.25578785149007488</v>
       </c>
       <c r="I12" s="6">
         <f ca="1"/>
-        <v>-0.48903797079886169</v>
+        <v>1.5609862577260252</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>41</v>
@@ -18807,27 +18807,27 @@
       </c>
       <c r="M12" s="69">
         <f ca="1"/>
-        <v>-8.4049677157139457E-3</v>
+        <v>-2.189655938704254E-2</v>
       </c>
       <c r="N12" s="76">
         <f ca="1"/>
-        <v>-2.3049202039581364E-2</v>
+        <v>1.7249840505064194E-2</v>
       </c>
       <c r="O12" s="70">
         <f ca="1"/>
-        <v>3.6653501668562828E-2</v>
+        <v>-2.3730450398852881E-2</v>
       </c>
       <c r="P12" s="6">
         <f ca="1"/>
-        <v>4.1314893538838056E-2</v>
+        <v>2.9795966137936107E-2</v>
       </c>
       <c r="Q12" s="6">
         <f ca="1"/>
-        <v>3.9822733848947557E-2</v>
+        <v>-1.3548490572440619E-3</v>
       </c>
       <c r="R12" s="6">
         <f ca="1"/>
-        <v>-2.3264657248141037E-2</v>
+        <v>-2.3136339022939781E-2</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>39</v>
@@ -18837,27 +18837,27 @@
       </c>
       <c r="V12" s="6">
         <f ca="1"/>
-        <v>-1.5431962613344613E-2</v>
+        <v>-4.0053331269642709E-2</v>
       </c>
       <c r="W12" s="6">
         <f ca="1"/>
-        <v>-1.2599045507687276E-2</v>
+        <v>-1.8799202289581391E-2</v>
       </c>
       <c r="X12" s="6">
         <f ca="1"/>
-        <v>5.7300912820800222E-2</v>
+        <v>-5.6468320417509016E-2</v>
       </c>
       <c r="Y12" s="6">
         <f ca="1"/>
-        <v>-3.7644117537836738E-2</v>
+        <v>1.6992902793502261E-2</v>
       </c>
       <c r="Z12" s="6">
         <f ca="1"/>
-        <v>-7.0634948617523154E-3</v>
+        <v>-4.778970771598727E-2</v>
       </c>
       <c r="AA12" s="6">
         <f ca="1"/>
-        <v>4.5245382653873248E-3</v>
+        <v>-7.3242438976137997E-2</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
@@ -18869,11 +18869,11 @@
       <c r="M14" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
       <c r="V14" s="79" t="s">
         <v>44</v>
       </c>
@@ -18933,27 +18933,27 @@
       </c>
       <c r="M16" s="63" cm="1">
         <f t="array" aca="1" ref="M16:R21" ca="1">_xlfn.RANDARRAY(6,6,M35,N35,FALSE)</f>
-        <v>-1.0068303204418601E-2</v>
+        <v>2.8615812590850824E-2</v>
       </c>
       <c r="N16" s="76">
         <f ca="1"/>
-        <v>1.0795247915366679E-3</v>
+        <v>-4.1530848472502269E-2</v>
       </c>
       <c r="O16" s="76">
         <f ca="1"/>
-        <v>-1.5784616691520523E-2</v>
+        <v>-4.4023219758778473E-2</v>
       </c>
       <c r="P16" s="20">
         <f ca="1"/>
-        <v>-2.106073910906877E-2</v>
+        <v>2.7542210229977167E-2</v>
       </c>
       <c r="Q16" s="20">
         <f ca="1"/>
-        <v>-2.3463336346263311E-2</v>
+        <v>-3.1561066241570859E-2</v>
       </c>
       <c r="R16" s="20">
         <f ca="1"/>
-        <v>-9.2658967952151949E-3</v>
+        <v>2.9481635719073584E-2</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>48</v>
@@ -18963,27 +18963,27 @@
       </c>
       <c r="V16" s="21" cm="1">
         <f t="array" aca="1" ref="V16:AA21" ca="1">MMULT(_xlfn.ANCHORARRAY(D7),_xlfn.ANCHORARRAY(M16))</f>
-        <v>-3.051832325005871E-2</v>
+        <v>4.8804458195388797E-2</v>
       </c>
       <c r="W16" s="20">
         <f ca="1"/>
-        <v>6.7889089069878032E-3</v>
+        <v>-0.13861750440048765</v>
       </c>
       <c r="X16" s="20">
         <f ca="1"/>
-        <v>-4.0020914569932689E-2</v>
+        <v>4.0521525056020705E-3</v>
       </c>
       <c r="Y16" s="20">
         <f ca="1"/>
-        <v>5.1862663392222121E-3</v>
+        <v>-3.7569412525182311E-2</v>
       </c>
       <c r="Z16" s="20">
         <f ca="1"/>
-        <v>-2.8566228596804733E-2</v>
+        <v>-9.9717672561145151E-2</v>
       </c>
       <c r="AA16" s="20">
         <f ca="1"/>
-        <v>1.802384099153901E-2</v>
+        <v>2.045382203045068E-2</v>
       </c>
     </row>
     <row r="17" spans="10:27" x14ac:dyDescent="0.25">
@@ -18995,27 +18995,27 @@
       </c>
       <c r="M17" s="64">
         <f ca="1"/>
-        <v>-4.0114495320512235E-2</v>
+        <v>2.0277203476080197E-2</v>
       </c>
       <c r="N17" s="76">
         <f ca="1"/>
-        <v>-6.2274537363606608E-3</v>
+        <v>-3.8961384724992457E-2</v>
       </c>
       <c r="O17" s="77">
         <f ca="1"/>
-        <v>-1.3902845425656715E-3</v>
+        <v>4.32067964677239E-2</v>
       </c>
       <c r="P17" s="65">
         <f ca="1"/>
-        <v>2.5957756622053178E-2</v>
+        <v>-3.7844855751262341E-2</v>
       </c>
       <c r="Q17" s="65">
         <f ca="1"/>
-        <v>-1.154129032749094E-2</v>
+        <v>6.9113007662491288E-5</v>
       </c>
       <c r="R17" s="65">
         <f ca="1"/>
-        <v>8.8095811670439728E-3</v>
+        <v>9.4013600911309961E-3</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>49</v>
@@ -19025,27 +19025,27 @@
       </c>
       <c r="V17" s="47">
         <f ca="1"/>
-        <v>-7.7530790974510377E-2</v>
+        <v>6.3299121290323626E-2</v>
       </c>
       <c r="W17" s="65">
         <f ca="1"/>
-        <v>-1.0910540821711176E-2</v>
+        <v>-9.5810069657134636E-2</v>
       </c>
       <c r="X17" s="65">
         <f ca="1"/>
-        <v>-2.9024056310698047E-2</v>
+        <v>2.5090871852924558E-2</v>
       </c>
       <c r="Y17" s="65">
         <f ca="1"/>
-        <v>6.4602622449896938E-2</v>
+        <v>-3.0299833401267948E-2</v>
       </c>
       <c r="Z17" s="65">
         <f ca="1"/>
-        <v>-3.3618157499944207E-2</v>
+        <v>-7.1883942538390463E-2</v>
       </c>
       <c r="AA17" s="65">
         <f ca="1"/>
-        <v>4.0117790253691755E-3</v>
+        <v>-1.0078824981893941E-2</v>
       </c>
     </row>
     <row r="18" spans="10:27" x14ac:dyDescent="0.25">
@@ -19060,27 +19060,27 @@
       </c>
       <c r="M18" s="66">
         <f ca="1"/>
-        <v>-7.7856960845418197E-3</v>
+        <v>1.7808961621407562E-3</v>
       </c>
       <c r="N18" s="76">
         <f ca="1"/>
-        <v>-8.0873778851147868E-3</v>
+        <v>-1.2487409880210312E-2</v>
       </c>
       <c r="O18" s="70">
         <f ca="1"/>
-        <v>-3.4882663979861055E-2</v>
+        <v>2.7705993709839574E-3</v>
       </c>
       <c r="P18" s="6">
         <f ca="1"/>
-        <v>2.7807873199957735E-2</v>
+        <v>-3.2367473340545953E-2</v>
       </c>
       <c r="Q18" s="6">
         <f ca="1"/>
-        <v>-2.7359834096259882E-2</v>
+        <v>-3.9251121380472008E-2</v>
       </c>
       <c r="R18" s="6">
         <f ca="1"/>
-        <v>-2.3884459736453069E-2</v>
+        <v>-1.5999036740295694E-2</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>3</v>
@@ -19093,27 +19093,27 @@
       </c>
       <c r="V18" s="6">
         <f ca="1"/>
-        <v>1.9555953392273336E-2</v>
+        <v>6.1075360977996915E-2</v>
       </c>
       <c r="W18" s="6">
         <f ca="1"/>
-        <v>-3.2119049939851232E-3</v>
+        <v>-2.5538855010696086E-2</v>
       </c>
       <c r="X18" s="6">
         <f ca="1"/>
-        <v>-6.5220372260130971E-2</v>
+        <v>-6.064797313608674E-2</v>
       </c>
       <c r="Y18" s="6">
         <f ca="1"/>
-        <v>2.4594191546465465E-2</v>
+        <v>5.437455651203707E-2</v>
       </c>
       <c r="Z18" s="6">
         <f ca="1"/>
-        <v>-7.1122591748009001E-2</v>
+        <v>-9.3169835801424447E-2</v>
       </c>
       <c r="AA18" s="6">
         <f ca="1"/>
-        <v>-6.4716517803920084E-2</v>
+        <v>-3.3577071034064598E-2</v>
       </c>
     </row>
     <row r="19" spans="10:27" x14ac:dyDescent="0.25">
@@ -19125,27 +19125,27 @@
       </c>
       <c r="M19" s="67">
         <f ca="1"/>
-        <v>-2.8129150029804241E-2</v>
+        <v>3.10927754419364E-2</v>
       </c>
       <c r="N19" s="76">
         <f ca="1"/>
-        <v>1.7356583674804117E-2</v>
+        <v>2.9322636968590998E-2</v>
       </c>
       <c r="O19" s="70">
         <f ca="1"/>
-        <v>3.5022550449513613E-2</v>
+        <v>-2.8906731888220238E-2</v>
       </c>
       <c r="P19" s="6">
         <f ca="1"/>
-        <v>-2.1837949472024644E-2</v>
+        <v>1.3766431900309212E-2</v>
       </c>
       <c r="Q19" s="6">
         <f ca="1"/>
-        <v>9.0472703506705443E-5</v>
+        <v>-1.1860086920877283E-2</v>
       </c>
       <c r="R19" s="6">
         <f ca="1"/>
-        <v>1.0276287662608657E-2</v>
+        <v>-3.113766719954613E-2</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>51</v>
@@ -19155,27 +19155,27 @@
       </c>
       <c r="V19" s="6">
         <f ca="1"/>
-        <v>-3.7754760729709562E-2</v>
+        <v>5.6761553342706023E-2</v>
       </c>
       <c r="W19" s="6">
         <f ca="1"/>
-        <v>1.6204577133451161E-3</v>
+        <v>1.2161964616056745E-2</v>
       </c>
       <c r="X19" s="6">
         <f ca="1"/>
-        <v>2.679826015248821E-3</v>
+        <v>-1.4698616151416488E-2</v>
       </c>
       <c r="Y19" s="6">
         <f ca="1"/>
-        <v>-2.7117694197940939E-2</v>
+        <v>-6.1672471591626844E-2</v>
       </c>
       <c r="Z19" s="6">
         <f ca="1"/>
-        <v>-8.5837980987504472E-3</v>
+        <v>-7.2419173504678774E-2</v>
       </c>
       <c r="AA19" s="6">
         <f ca="1"/>
-        <v>2.2126190114012878E-3</v>
+        <v>-2.2260140669923795E-2</v>
       </c>
     </row>
     <row r="20" spans="10:27" x14ac:dyDescent="0.25">
@@ -19187,27 +19187,27 @@
       </c>
       <c r="M20" s="68">
         <f ca="1"/>
-        <v>5.2784346387719505E-3</v>
+        <v>-1.4542461357106642E-2</v>
       </c>
       <c r="N20" s="76">
         <f ca="1"/>
-        <v>-3.1209587863192251E-3</v>
+        <v>-3.1108940048870271E-2</v>
       </c>
       <c r="O20" s="70">
         <f ca="1"/>
-        <v>-1.834061962584322E-2</v>
+        <v>9.5408624918678631E-3</v>
       </c>
       <c r="P20" s="6">
         <f ca="1"/>
-        <v>1.0491465722180619E-2</v>
+        <v>3.5419403278357846E-2</v>
       </c>
       <c r="Q20" s="6">
         <f ca="1"/>
-        <v>2.3719448030303486E-2</v>
+        <v>-1.492260498215988E-2</v>
       </c>
       <c r="R20" s="6">
         <f ca="1"/>
-        <v>3.2595323257003976E-2</v>
+        <v>-2.2520430939054273E-3</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>52</v>
@@ -19217,27 +19217,27 @@
       </c>
       <c r="V20" s="6">
         <f ca="1"/>
-        <v>-0.11008088624776632</v>
+        <v>7.6461731773429173E-2</v>
       </c>
       <c r="W20" s="6">
         <f ca="1"/>
-        <v>-5.3685083491255725E-2</v>
+        <v>-4.227640547749198E-3</v>
       </c>
       <c r="X20" s="6">
         <f ca="1"/>
-        <v>-7.6500610883132009E-2</v>
+        <v>-4.4828309755699253E-3</v>
       </c>
       <c r="Y20" s="6">
         <f ca="1"/>
-        <v>5.6701026871405304E-2</v>
+        <v>-2.8150242240400643E-2</v>
       </c>
       <c r="Z20" s="6">
         <f ca="1"/>
-        <v>1.9136474971707701E-2</v>
+        <v>-5.0196930490098282E-2</v>
       </c>
       <c r="AA20" s="6">
         <f ca="1"/>
-        <v>7.3484266943671023E-2</v>
+        <v>-3.1739557261055144E-2</v>
       </c>
     </row>
     <row r="21" spans="10:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -19249,27 +19249,27 @@
       </c>
       <c r="M21" s="69">
         <f ca="1"/>
-        <v>-4.3424957456957694E-2</v>
+        <v>-7.4609253916875021E-3</v>
       </c>
       <c r="N21" s="76">
         <f ca="1"/>
-        <v>-2.3902815756998208E-2</v>
+        <v>3.9160620301565294E-2</v>
       </c>
       <c r="O21" s="70">
         <f ca="1"/>
-        <v>-2.9903062191841343E-2</v>
+        <v>-5.3119814418755226E-3</v>
       </c>
       <c r="P21" s="6">
         <f ca="1"/>
-        <v>-5.2560155183605656E-4</v>
+        <v>-1.426104221616388E-2</v>
       </c>
       <c r="Q21" s="6">
         <f ca="1"/>
-        <v>8.5324612768762145E-3</v>
+        <v>-2.4708698134407132E-2</v>
       </c>
       <c r="R21" s="6">
         <f ca="1"/>
-        <v>1.7804532899865604E-2</v>
+        <v>-2.2022113178582353E-2</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>53</v>
@@ -19279,38 +19279,38 @@
       </c>
       <c r="V21" s="6">
         <f ca="1"/>
-        <v>-6.4121054352114973E-2</v>
+        <v>6.6976335030093551E-2</v>
       </c>
       <c r="W21" s="6">
         <f ca="1"/>
-        <v>1.0063255794278692E-2</v>
+        <v>2.1195227888330996E-2</v>
       </c>
       <c r="X21" s="6">
         <f ca="1"/>
-        <v>1.9089364682858774E-2</v>
+        <v>-5.7548091605219509E-2</v>
       </c>
       <c r="Y21" s="6">
         <f ca="1"/>
-        <v>4.6492361545723233E-2</v>
+        <v>-1.2441558849947269E-2</v>
       </c>
       <c r="Z21" s="6">
         <f ca="1"/>
-        <v>-6.1537652842549645E-3</v>
+        <v>-8.0423928863437522E-2</v>
       </c>
       <c r="AA21" s="6">
         <f ca="1"/>
-        <v>3.70717810647073E-2</v>
+        <v>-2.0962974592003598E-2</v>
       </c>
     </row>
     <row r="24" spans="10:27" x14ac:dyDescent="0.25">
       <c r="M24" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
       <c r="V24" s="79" t="s">
         <v>46</v>
       </c>
@@ -19370,27 +19370,27 @@
       </c>
       <c r="M26" s="63" cm="1">
         <f t="array" aca="1" ref="M26:R31" ca="1">_xlfn.RANDARRAY(6,6,M35,N35,FALSE)</f>
-        <v>-1.1275904710194073E-2</v>
+        <v>-2.8299797003775946E-2</v>
       </c>
       <c r="N26" s="76">
         <f ca="1"/>
-        <v>-3.9945314806745104E-2</v>
+        <v>3.8255418071825219E-2</v>
       </c>
       <c r="O26" s="76">
         <f ca="1"/>
-        <v>3.3411602014465046E-2</v>
+        <v>3.4562830574888619E-2</v>
       </c>
       <c r="P26" s="20">
         <f ca="1"/>
-        <v>9.9873215899624543E-3</v>
+        <v>-7.8814499503888913E-4</v>
       </c>
       <c r="Q26" s="20">
         <f ca="1"/>
-        <v>2.4576083542604675E-2</v>
+        <v>7.3820914365423096E-4</v>
       </c>
       <c r="R26" s="20">
         <f ca="1"/>
-        <v>-2.4659913031793525E-2</v>
+        <v>2.9343965598056174E-3</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>54</v>
@@ -19400,27 +19400,27 @@
       </c>
       <c r="V26" s="21" cm="1">
         <f t="array" aca="1" ref="V26:AA31" ca="1">MMULT(_xlfn.ANCHORARRAY(D7),_xlfn.ANCHORARRAY(M26))</f>
-        <v>-1.4564364537754714E-2</v>
+        <v>2.2818355372090399E-2</v>
       </c>
       <c r="W26" s="20">
         <f ca="1"/>
-        <v>2.6899659835702826E-2</v>
+        <v>8.4962213080202534E-2</v>
       </c>
       <c r="X26" s="20">
         <f ca="1"/>
-        <v>2.9815283044380424E-2</v>
+        <v>7.7585579926391104E-2</v>
       </c>
       <c r="Y26" s="20">
         <f ca="1"/>
-        <v>-2.2118399878811545E-2</v>
+        <v>6.2165977455732699E-2</v>
       </c>
       <c r="Z26" s="20">
         <f ca="1"/>
-        <v>5.7170892249891664E-2</v>
+        <v>-9.4688719614692093E-2</v>
       </c>
       <c r="AA26" s="20">
         <f ca="1"/>
-        <v>4.4449948665362102E-2</v>
+        <v>4.1739857810164115E-2</v>
       </c>
     </row>
     <row r="27" spans="10:27" x14ac:dyDescent="0.25">
@@ -19432,27 +19432,27 @@
       </c>
       <c r="M27" s="64">
         <f ca="1"/>
-        <v>7.7493332783002342E-3</v>
+        <v>8.7109673121906275E-3</v>
       </c>
       <c r="N27" s="76">
         <f ca="1"/>
-        <v>2.295467462475316E-2</v>
+        <v>-2.3286823170766788E-2</v>
       </c>
       <c r="O27" s="77">
         <f ca="1"/>
-        <v>-1.7703425348718493E-3</v>
+        <v>2.3291015907861534E-2</v>
       </c>
       <c r="P27" s="65">
         <f ca="1"/>
-        <v>-6.7942366271368029E-3</v>
+        <v>3.4454595117302367E-2</v>
       </c>
       <c r="Q27" s="65">
         <f ca="1"/>
-        <v>-3.4382586158915068E-2</v>
+        <v>-4.2359982238675063E-2</v>
       </c>
       <c r="R27" s="65">
         <f ca="1"/>
-        <v>6.9006894843078315E-3</v>
+        <v>3.3056816508656869E-2</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>55</v>
@@ -19462,27 +19462,27 @@
       </c>
       <c r="V27" s="47">
         <f ca="1"/>
-        <v>5.2869419915028991E-2</v>
+        <v>3.7749704691456172E-2</v>
       </c>
       <c r="W27" s="65">
         <f ca="1"/>
-        <v>7.167353260179235E-2</v>
+        <v>3.0758557479463395E-2</v>
       </c>
       <c r="X27" s="65">
         <f ca="1"/>
-        <v>-9.8608578335686401E-3</v>
+        <v>2.0384098918579906E-2</v>
       </c>
       <c r="Y27" s="65">
         <f ca="1"/>
-        <v>3.8165038740927505E-2</v>
+        <v>0.11496233555428409</v>
       </c>
       <c r="Z27" s="65">
         <f ca="1"/>
-        <v>-5.2450859441306154E-2</v>
+        <v>-0.13148276224527211</v>
       </c>
       <c r="AA27" s="65">
         <f ca="1"/>
-        <v>7.1430155619925106E-2</v>
+        <v>6.2506463636369816E-2</v>
       </c>
     </row>
     <row r="28" spans="10:27" x14ac:dyDescent="0.25">
@@ -19497,27 +19497,27 @@
       </c>
       <c r="M28" s="66">
         <f ca="1"/>
-        <v>3.4794826277771723E-2</v>
+        <v>1.8330642252177183E-2</v>
       </c>
       <c r="N28" s="76">
         <f ca="1"/>
-        <v>1.7354929981252577E-2</v>
+        <v>3.4545605392475746E-2</v>
       </c>
       <c r="O28" s="70">
         <f ca="1"/>
-        <v>1.2311185042203396E-2</v>
+        <v>2.4964254660499896E-2</v>
       </c>
       <c r="P28" s="6">
         <f ca="1"/>
-        <v>3.8165869278420389E-2</v>
+        <v>4.2180147773137125E-3</v>
       </c>
       <c r="Q28" s="6">
         <f ca="1"/>
-        <v>-3.9195048528462492E-3</v>
+        <v>-2.9279085113939715E-2</v>
       </c>
       <c r="R28" s="6">
         <f ca="1"/>
-        <v>3.6852445421249762E-2</v>
+        <v>-1.5478027154954277E-3</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>3</v>
@@ -19530,27 +19530,27 @@
       </c>
       <c r="V28" s="6">
         <f ca="1"/>
-        <v>2.9762438144356643E-2</v>
+        <v>2.1172629707544941E-3</v>
       </c>
       <c r="W28" s="6">
         <f ca="1"/>
-        <v>-8.6754641923352405E-3</v>
+        <v>5.0281266368724049E-2</v>
       </c>
       <c r="X28" s="6">
         <f ca="1"/>
-        <v>6.4672186835155854E-2</v>
+        <v>-2.511569015147537E-2</v>
       </c>
       <c r="Y28" s="6">
         <f ca="1"/>
-        <v>4.6948164398133492E-2</v>
+        <v>0.11025749477697673</v>
       </c>
       <c r="Z28" s="6">
         <f ca="1"/>
-        <v>4.3726652437644828E-2</v>
+        <v>-0.11471079227331828</v>
       </c>
       <c r="AA28" s="6">
         <f ca="1"/>
-        <v>4.8482310175233863E-2</v>
+        <v>4.1909002441282123E-2</v>
       </c>
     </row>
     <row r="29" spans="10:27" x14ac:dyDescent="0.25">
@@ -19562,27 +19562,27 @@
       </c>
       <c r="M29" s="67">
         <f ca="1"/>
-        <v>-1.6648342558079482E-4</v>
+        <v>2.164866513882388E-2</v>
       </c>
       <c r="N29" s="76">
         <f ca="1"/>
-        <v>-8.3675500544922593E-3</v>
+        <v>1.604008237084651E-2</v>
       </c>
       <c r="O29" s="70">
         <f ca="1"/>
-        <v>-1.3313069360026825E-2</v>
+        <v>-3.5887876490984079E-2</v>
       </c>
       <c r="P29" s="6">
         <f ca="1"/>
-        <v>2.880872567922238E-2</v>
+        <v>3.2747207704735125E-2</v>
       </c>
       <c r="Q29" s="6">
         <f ca="1"/>
-        <v>-6.718417284009022E-3</v>
+        <v>-2.5622088536722348E-2</v>
       </c>
       <c r="R29" s="6">
         <f ca="1"/>
-        <v>6.1108430332848587E-3</v>
+        <v>-9.3095775330704275E-3</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>57</v>
@@ -19592,27 +19592,27 @@
       </c>
       <c r="V29" s="6">
         <f ca="1"/>
-        <v>1.2804141692677205E-2</v>
+        <v>-1.7821376997820278E-2</v>
       </c>
       <c r="W29" s="6">
         <f ca="1"/>
-        <v>-3.8296110307940709E-2</v>
+        <v>1.9034360377989577E-2</v>
       </c>
       <c r="X29" s="6">
         <f ca="1"/>
-        <v>2.1345898734752237E-3</v>
+        <v>7.7111350296600767E-2</v>
       </c>
       <c r="Y29" s="6">
         <f ca="1"/>
-        <v>5.4209174457618921E-2</v>
+        <v>2.9570145636818843E-2</v>
       </c>
       <c r="Z29" s="6">
         <f ca="1"/>
-        <v>-8.7543516870242453E-3</v>
+        <v>-8.6315074723688434E-2</v>
       </c>
       <c r="AA29" s="6">
         <f ca="1"/>
-        <v>-2.380160838216698E-2</v>
+        <v>2.3899813840002802E-2</v>
       </c>
     </row>
     <row r="30" spans="10:27" x14ac:dyDescent="0.25">
@@ -19624,27 +19624,27 @@
       </c>
       <c r="M30" s="68">
         <f ca="1"/>
-        <v>-1.1254742065813769E-2</v>
+        <v>3.1886889508618566E-3</v>
       </c>
       <c r="N30" s="76">
         <f ca="1"/>
-        <v>4.3536842421514489E-2</v>
+        <v>-4.5192025362237667E-3</v>
       </c>
       <c r="O30" s="70">
         <f ca="1"/>
-        <v>-1.6212414978232371E-2</v>
+        <v>-3.1012535424417828E-2</v>
       </c>
       <c r="P30" s="6">
         <f ca="1"/>
-        <v>-4.3330694205708523E-2</v>
+        <v>4.3936086770944266E-2</v>
       </c>
       <c r="Q30" s="6">
         <f ca="1"/>
-        <v>2.6055324205912715E-2</v>
+        <v>-3.2190557760667676E-2</v>
       </c>
       <c r="R30" s="6">
         <f ca="1"/>
-        <v>2.6484219955462372E-2</v>
+        <v>3.0409272756383332E-2</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>58</v>
@@ -19654,27 +19654,27 @@
       </c>
       <c r="V30" s="6">
         <f ca="1"/>
-        <v>2.3392173328255869E-2</v>
+        <v>1.3720402257600486E-2</v>
       </c>
       <c r="W30" s="6">
         <f ca="1"/>
-        <v>5.689480876301977E-2</v>
+        <v>1.4127328419140453E-3</v>
       </c>
       <c r="X30" s="6">
         <f ca="1"/>
-        <v>-2.2892218605334469E-2</v>
+        <v>1.0298631613039389E-2</v>
       </c>
       <c r="Y30" s="6">
         <f ca="1"/>
-        <v>-3.6919520488247523E-2</v>
+        <v>9.1252874865750067E-2</v>
       </c>
       <c r="Z30" s="6">
         <f ca="1"/>
-        <v>-6.6255431736969544E-2</v>
+        <v>-0.11165442065888358</v>
       </c>
       <c r="AA30" s="6">
         <f ca="1"/>
-        <v>-2.7371334105560287E-2</v>
+        <v>4.077233087600958E-2</v>
       </c>
     </row>
     <row r="31" spans="10:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -19686,27 +19686,27 @@
       </c>
       <c r="M31" s="69">
         <f ca="1"/>
-        <v>2.2221113225897877E-2</v>
+        <v>-1.620348237315667E-2</v>
       </c>
       <c r="N31" s="76">
         <f ca="1"/>
-        <v>-1.7280209169383942E-2</v>
+        <v>-6.0539174218947334E-3</v>
       </c>
       <c r="O31" s="70">
         <f ca="1"/>
-        <v>-8.4706781680102053E-3</v>
+        <v>1.5749292902905263E-2</v>
       </c>
       <c r="P31" s="6">
         <f ca="1"/>
-        <v>2.9701337466696259E-2</v>
+        <v>-2.6997273435676941E-3</v>
       </c>
       <c r="Q31" s="6">
         <f ca="1"/>
-        <v>-3.1694112361974842E-2</v>
+        <v>-2.3242194620998177E-2</v>
       </c>
       <c r="R31" s="6">
         <f ca="1"/>
-        <v>-3.9084465617406035E-2</v>
+        <v>5.5621577427176008E-3</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>59</v>
@@ -19716,27 +19716,27 @@
       </c>
       <c r="V31" s="6">
         <f ca="1"/>
-        <v>3.592038096026982E-3</v>
+        <v>-3.3670219164453632E-2</v>
       </c>
       <c r="W31" s="6">
         <f ca="1"/>
-        <v>8.8660582795895101E-2</v>
+        <v>3.2907231383637471E-2</v>
       </c>
       <c r="X31" s="6">
         <f ca="1"/>
-        <v>-2.6187663825767225E-2</v>
+        <v>5.5232553637539678E-2</v>
       </c>
       <c r="Y31" s="6">
         <f ca="1"/>
-        <v>-3.1596425804583286E-2</v>
+        <v>3.6888557332896366E-2</v>
       </c>
       <c r="Z31" s="6">
         <f ca="1"/>
-        <v>-3.1925004885803118E-2</v>
+        <v>-7.8702874677339107E-2</v>
       </c>
       <c r="AA31" s="6">
         <f ca="1"/>
-        <v>7.1435711514054048E-2</v>
+        <v>1.8829978525073884E-2</v>
       </c>
     </row>
     <row r="34" spans="13:14" x14ac:dyDescent="0.25">
@@ -19799,13 +19799,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B3" s="83" t="s">
@@ -19820,14 +19820,14 @@
     </row>
     <row r="4" spans="2:49" x14ac:dyDescent="0.25">
       <c r="I4" s="2"/>
-      <c r="Y4" s="80" t="s">
+      <c r="Y4" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
     </row>
     <row r="5" spans="2:49" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
@@ -19842,14 +19842,14 @@
       <c r="AB5" s="83"/>
       <c r="AC5" s="83"/>
       <c r="AD5" s="83"/>
-      <c r="AR5" s="80" t="s">
+      <c r="AR5" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="80"/>
+      <c r="AS5" s="81"/>
+      <c r="AT5" s="81"/>
+      <c r="AU5" s="81"/>
+      <c r="AV5" s="81"/>
+      <c r="AW5" s="81"/>
     </row>
     <row r="6" spans="2:49" x14ac:dyDescent="0.25">
       <c r="E6" s="86" t="s">
@@ -20032,27 +20032,27 @@
       </c>
       <c r="F9" s="7" cm="1">
         <f t="array" aca="1" ref="F9:K14" ca="1">_xlfn.ANCHORARRAY('-&gt; Q, K, V'!V7)</f>
-        <v>-2.9722640159828596E-2</v>
+        <v>3.26600817427889E-2</v>
       </c>
       <c r="G9" s="8">
         <f ca="1"/>
-        <v>-1.09675150623967E-3</v>
+        <v>-0.10866109862734627</v>
       </c>
       <c r="H9" s="9">
         <f ca="1"/>
-        <v>4.5560863123358577E-3</v>
+        <v>-1.2806475254965219E-2</v>
       </c>
       <c r="I9" s="10">
         <f ca="1"/>
-        <v>-2.8192939606967449E-2</v>
+        <v>6.1087440053230295E-3</v>
       </c>
       <c r="J9" s="11">
         <f ca="1"/>
-        <v>7.6874021138578871E-2</v>
+        <v>-0.15004094887709393</v>
       </c>
       <c r="K9" s="12">
         <f ca="1"/>
-        <v>5.2309054033956318E-2</v>
+        <v>9.5168436049971328E-2</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="2"/>
@@ -20061,27 +20061,27 @@
       </c>
       <c r="O9" s="13" cm="1">
         <f t="array" aca="1" ref="O9:T14" ca="1">TRANSPOSE(_xlfn.ANCHORARRAY('-&gt; Q, K, V'!V16))</f>
-        <v>-3.051832325005871E-2</v>
+        <v>4.8804458195388797E-2</v>
       </c>
       <c r="P9" s="75">
         <f ca="1"/>
-        <v>-7.7530790974510377E-2</v>
+        <v>6.3299121290323626E-2</v>
       </c>
       <c r="Q9" s="74">
         <f ca="1"/>
-        <v>1.9555953392273336E-2</v>
+        <v>6.1075360977996915E-2</v>
       </c>
       <c r="R9" s="3">
         <f ca="1"/>
-        <v>-3.7754760729709562E-2</v>
+        <v>5.6761553342706023E-2</v>
       </c>
       <c r="S9" s="3">
         <f ca="1"/>
-        <v>-0.11008088624776632</v>
+        <v>7.6461731773429173E-2</v>
       </c>
       <c r="T9" s="3">
         <f ca="1"/>
-        <v>-6.4121054352114973E-2</v>
+        <v>6.6976335030093551E-2</v>
       </c>
       <c r="U9" s="4"/>
       <c r="W9" s="2" t="s">
@@ -20093,27 +20093,27 @@
       </c>
       <c r="Y9" s="72" cm="1">
         <f t="array" aca="1" ref="Y9:AD14" ca="1">MMULT(_xlfn.ANCHORARRAY(F9),_xlfn.ANCHORARRAY(O9))</f>
-        <v>-6.8210622926760255E-4</v>
+        <v>3.3283184661644871E-2</v>
       </c>
       <c r="Z9" s="76">
         <f ca="1"/>
-        <v>-2.0116985698253962E-3</v>
+        <v>2.1798111285671613E-2</v>
       </c>
       <c r="AA9" s="20">
         <f ca="1"/>
-        <v>-1.04210035544741E-2</v>
+        <v>1.6662466571442595E-2</v>
       </c>
       <c r="AB9" s="20">
         <f ca="1"/>
-        <v>1.3529998924132675E-3</v>
+        <v>9.0911793939972511E-3</v>
       </c>
       <c r="AC9" s="20">
         <f ca="1"/>
-        <v>6.698652025925584E-3</v>
+        <v>7.3530641728604745E-3</v>
       </c>
       <c r="AD9" s="20">
         <f ca="1"/>
-        <v>2.1371517024306678E-3</v>
+        <v>1.0617210834201283E-2</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>54</v>
@@ -20123,27 +20123,27 @@
       </c>
       <c r="AI9" s="21" cm="1">
         <f t="array" aca="1" ref="AI9:AN14" ca="1">_xlfn.ANCHORARRAY('-&gt; Q, K, V'!V26)</f>
-        <v>-1.4564364537754714E-2</v>
+        <v>2.2818355372090399E-2</v>
       </c>
       <c r="AJ9" s="21">
         <f ca="1"/>
-        <v>2.6899659835702826E-2</v>
+        <v>8.4962213080202534E-2</v>
       </c>
       <c r="AK9" s="21">
         <f ca="1"/>
-        <v>2.9815283044380424E-2</v>
+        <v>7.7585579926391104E-2</v>
       </c>
       <c r="AL9" s="21">
         <f ca="1"/>
-        <v>-2.2118399878811545E-2</v>
+        <v>6.2165977455732699E-2</v>
       </c>
       <c r="AM9" s="21">
         <f ca="1"/>
-        <v>5.7170892249891664E-2</v>
+        <v>-9.4688719614692093E-2</v>
       </c>
       <c r="AN9" s="21">
         <f ca="1"/>
-        <v>4.4449948665362102E-2</v>
+        <v>4.1739857810164115E-2</v>
       </c>
       <c r="AP9" s="2" t="s">
         <v>150</v>
@@ -20153,27 +20153,27 @@
       </c>
       <c r="AR9" s="21" cm="1">
         <f t="array" aca="1" ref="AR9:AW14" ca="1">MMULT(Y36:AD41,_xlfn.ANCHORARRAY(AI9))</f>
-        <v>1.7947377906095675E-2</v>
+        <v>4.2841855509167344E-3</v>
       </c>
       <c r="AS9" s="21">
         <f ca="1"/>
-        <v>3.2949750624749544E-2</v>
+        <v>3.6769629177795887E-2</v>
       </c>
       <c r="AT9" s="6">
         <f ca="1"/>
-        <v>6.1368018213093928E-3</v>
+        <v>3.5987535912798005E-2</v>
       </c>
       <c r="AU9" s="6">
         <f ca="1"/>
-        <v>7.9866793369180629E-3</v>
+        <v>7.4251519680726102E-2</v>
       </c>
       <c r="AV9" s="6">
         <f ca="1"/>
-        <v>-9.904770242669142E-3</v>
+        <v>-0.10295901015482214</v>
       </c>
       <c r="AW9" s="6">
         <f ca="1"/>
-        <v>3.0662092276709192E-2</v>
+        <v>3.8340470705880224E-2</v>
       </c>
     </row>
     <row r="10" spans="2:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20185,27 +20185,27 @@
       </c>
       <c r="F10" s="7">
         <f ca="1"/>
-        <v>1.0887384185903695E-2</v>
+        <v>-2.3751226448287768E-2</v>
       </c>
       <c r="G10" s="8">
         <f ca="1"/>
-        <v>-7.3345445188462602E-2</v>
+        <v>-7.3255425089516601E-2</v>
       </c>
       <c r="H10" s="9">
         <f ca="1"/>
-        <v>9.8632905205879126E-2</v>
+        <v>1.4845136966494622E-2</v>
       </c>
       <c r="I10" s="10">
         <f ca="1"/>
-        <v>3.3948833510908744E-2</v>
+        <v>3.8741282491982693E-2</v>
       </c>
       <c r="J10" s="11">
         <f ca="1"/>
-        <v>-1.6712268339266034E-2</v>
+        <v>-0.12034234107869952</v>
       </c>
       <c r="K10" s="12">
         <f ca="1"/>
-        <v>6.6151238463876992E-3</v>
+        <v>5.5010883582970911E-2</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="2"/>
@@ -20214,27 +20214,27 @@
       </c>
       <c r="O10" s="14">
         <f ca="1"/>
-        <v>6.7889089069878032E-3</v>
+        <v>-0.13861750440048765</v>
       </c>
       <c r="P10" s="75">
         <f ca="1"/>
-        <v>-1.0910540821711176E-2</v>
+        <v>-9.5810069657134636E-2</v>
       </c>
       <c r="Q10" s="74">
         <f ca="1"/>
-        <v>-3.2119049939851232E-3</v>
+        <v>-2.5538855010696086E-2</v>
       </c>
       <c r="R10" s="3">
         <f ca="1"/>
-        <v>1.6204577133451161E-3</v>
+        <v>1.2161964616056745E-2</v>
       </c>
       <c r="S10" s="3">
         <f ca="1"/>
-        <v>-5.3685083491255725E-2</v>
+        <v>-4.227640547749198E-3</v>
       </c>
       <c r="T10" s="3">
         <f ca="1"/>
-        <v>1.0063255794278692E-2</v>
+        <v>2.1195227888330996E-2</v>
       </c>
       <c r="U10" s="4"/>
       <c r="W10" s="2" t="s">
@@ -20245,27 +20245,27 @@
       </c>
       <c r="Y10" s="47">
         <f ca="1"/>
-        <v>-4.004875218497953E-3</v>
+        <v>2.0725426992151189E-2</v>
       </c>
       <c r="Z10" s="73">
         <f ca="1"/>
-        <v>-1.2503827031678613E-4</v>
+        <v>1.2810035504156896E-2</v>
       </c>
       <c r="AA10" s="70">
         <f ca="1"/>
-        <v>-4.3889268429921904E-3</v>
+        <v>1.099162934992174E-2</v>
       </c>
       <c r="AB10" s="6">
         <f ca="1"/>
-        <v>-1.02810735151925E-3</v>
+        <v>2.6439828628360656E-3</v>
       </c>
       <c r="AC10" s="6">
         <f ca="1"/>
-        <v>-2.7151867099325933E-3</v>
+        <v>1.6313080134692382E-3</v>
       </c>
       <c r="AD10" s="6">
         <f ca="1"/>
-        <v>2.3730742091127035E-3</v>
+        <v>4.0454653464480766E-3</v>
       </c>
       <c r="AG10" s="2" t="s">
         <v>55</v>
@@ -20275,27 +20275,27 @@
       </c>
       <c r="AI10" s="22">
         <f ca="1"/>
-        <v>5.2869419915028991E-2</v>
+        <v>3.7749704691456172E-2</v>
       </c>
       <c r="AJ10" s="22">
         <f ca="1"/>
-        <v>7.167353260179235E-2</v>
+        <v>3.0758557479463395E-2</v>
       </c>
       <c r="AK10" s="22">
         <f ca="1"/>
-        <v>-9.8608578335686401E-3</v>
+        <v>2.0384098918579906E-2</v>
       </c>
       <c r="AL10" s="22">
         <f ca="1"/>
-        <v>3.8165038740927505E-2</v>
+        <v>0.11496233555428409</v>
       </c>
       <c r="AM10" s="22">
         <f ca="1"/>
-        <v>-5.2450859441306154E-2</v>
+        <v>-0.13148276224527211</v>
       </c>
       <c r="AN10" s="22">
         <f ca="1"/>
-        <v>7.1430155619925106E-2</v>
+        <v>6.2506463636369816E-2</v>
       </c>
       <c r="AP10" s="2" t="s">
         <v>1</v>
@@ -20305,27 +20305,27 @@
       </c>
       <c r="AR10" s="20">
         <f ca="1"/>
-        <v>1.7981071788695371E-2</v>
+        <v>4.2524145227918562E-3</v>
       </c>
       <c r="AS10" s="6">
         <f ca="1"/>
-        <v>3.2916492907886695E-2</v>
+        <v>3.6719956722248218E-2</v>
       </c>
       <c r="AT10" s="6">
         <f ca="1"/>
-        <v>6.2232021864976235E-3</v>
+        <v>3.593977516347354E-2</v>
       </c>
       <c r="AU10" s="6">
         <f ca="1"/>
-        <v>8.1025539499365827E-3</v>
+        <v>7.4254161589743739E-2</v>
       </c>
       <c r="AV10" s="6">
         <f ca="1"/>
-        <v>-9.8142594243858031E-3</v>
+        <v>-0.10295848475374937</v>
       </c>
       <c r="AW10" s="6">
         <f ca="1"/>
-        <v>3.0799748834769464E-2</v>
+        <v>3.8327826318887842E-2</v>
       </c>
     </row>
     <row r="11" spans="2:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20340,27 +20340,27 @@
       </c>
       <c r="F11" s="3">
         <f ca="1"/>
-        <v>1.9639863447445019E-2</v>
+        <v>8.1227358025012311E-3</v>
       </c>
       <c r="G11" s="3">
         <f ca="1"/>
-        <v>-6.6164387450363946E-2</v>
+        <v>-8.3990338575712517E-2</v>
       </c>
       <c r="H11" s="3">
         <f ca="1"/>
-        <v>7.2896310265501592E-3</v>
+        <v>-7.0223412005294722E-2</v>
       </c>
       <c r="I11" s="3">
         <f ca="1"/>
-        <v>1.6695779290658127E-2</v>
+        <v>1.0483120428232195E-2</v>
       </c>
       <c r="J11" s="3">
         <f ca="1"/>
-        <v>-1.4289566297882198E-2</v>
+        <v>-9.2148864021563942E-2</v>
       </c>
       <c r="K11" s="3">
         <f ca="1"/>
-        <v>6.6320376517074592E-2</v>
+        <v>-4.2789992812092045E-2</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>2</v>
@@ -20371,27 +20371,27 @@
       </c>
       <c r="O11" s="15">
         <f ca="1"/>
-        <v>-4.0020914569932689E-2</v>
+        <v>4.0521525056020705E-3</v>
       </c>
       <c r="P11" s="75">
         <f ca="1"/>
-        <v>-2.9024056310698047E-2</v>
+        <v>2.5090871852924558E-2</v>
       </c>
       <c r="Q11" s="74">
         <f ca="1"/>
-        <v>-6.5220372260130971E-2</v>
+        <v>-6.064797313608674E-2</v>
       </c>
       <c r="R11" s="3">
         <f ca="1"/>
-        <v>2.679826015248821E-3</v>
+        <v>-1.4698616151416488E-2</v>
       </c>
       <c r="S11" s="3">
         <f ca="1"/>
-        <v>-7.6500610883132009E-2</v>
+        <v>-4.4828309755699253E-3</v>
       </c>
       <c r="T11" s="3">
         <f ca="1"/>
-        <v>1.9089364682858774E-2</v>
+        <v>-5.7548091605219509E-2</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="2" t="s">
@@ -20405,27 +20405,27 @@
       </c>
       <c r="Y11" s="20">
         <f ca="1"/>
-        <v>3.4983829527627131E-4</v>
+        <v>1.9674207547915039E-2</v>
       </c>
       <c r="Z11" s="65">
         <f ca="1"/>
-        <v>8.1266315300520013E-4</v>
+        <v>1.3536975288869914E-2</v>
       </c>
       <c r="AA11" s="73">
         <f ca="1"/>
-        <v>-2.7439361121835634E-3</v>
+        <v>1.7492295887795554E-2</v>
       </c>
       <c r="AB11" s="70">
         <f ca="1"/>
-        <v>-1.0125305536043204E-3</v>
+        <v>7.4510944378996741E-3</v>
       </c>
       <c r="AC11" s="6">
         <f ca="1"/>
-        <v>6.3791260178651605E-3</v>
+        <v>6.9795822633281568E-3</v>
       </c>
       <c r="AD11" s="6">
         <f ca="1"/>
-        <v>1.5367718405525726E-3</v>
+        <v>1.0982612912140529E-2</v>
       </c>
       <c r="AF11" s="2" t="s">
         <v>2</v>
@@ -20438,27 +20438,27 @@
       </c>
       <c r="AI11" s="23">
         <f ca="1"/>
-        <v>2.9762438144356643E-2</v>
+        <v>2.1172629707544941E-3</v>
       </c>
       <c r="AJ11" s="23">
         <f ca="1"/>
-        <v>-8.6754641923352405E-3</v>
+        <v>5.0281266368724049E-2</v>
       </c>
       <c r="AK11" s="23">
         <f ca="1"/>
-        <v>6.4672186835155854E-2</v>
+        <v>-2.511569015147537E-2</v>
       </c>
       <c r="AL11" s="23">
         <f ca="1"/>
-        <v>4.6948164398133492E-2</v>
+        <v>0.11025749477697673</v>
       </c>
       <c r="AM11" s="23">
         <f ca="1"/>
-        <v>4.3726652437644828E-2</v>
+        <v>-0.11471079227331828</v>
       </c>
       <c r="AN11" s="23">
         <f ca="1"/>
-        <v>4.8482310175233863E-2</v>
+        <v>4.1909002441282123E-2</v>
       </c>
       <c r="AO11" s="2" t="s">
         <v>3</v>
@@ -20471,27 +20471,27 @@
       </c>
       <c r="AR11" s="6">
         <f ca="1"/>
-        <v>1.7976383831431981E-2</v>
+        <v>4.1980800520104713E-3</v>
       </c>
       <c r="AS11" s="6">
         <f ca="1"/>
-        <v>3.2935255364885715E-2</v>
+        <v>3.6675777849592209E-2</v>
       </c>
       <c r="AT11" s="6">
         <f ca="1"/>
-        <v>6.2140588862203564E-3</v>
+        <v>3.589654617237506E-2</v>
       </c>
       <c r="AU11" s="6">
         <f ca="1"/>
-        <v>8.0333314633853018E-3</v>
+        <v>7.4236817599398722E-2</v>
       </c>
       <c r="AV11" s="6">
         <f ca="1"/>
-        <v>-9.8403623759547934E-3</v>
+        <v>-0.10294270934622395</v>
       </c>
       <c r="AW11" s="6">
         <f ca="1"/>
-        <v>3.0726736018811998E-2</v>
+        <v>3.830230342957823E-2</v>
       </c>
     </row>
     <row r="12" spans="2:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20503,27 +20503,27 @@
       </c>
       <c r="F12" s="3">
         <f ca="1"/>
-        <v>1.2955460051437389E-2</v>
+        <v>-6.0706038413879809E-2</v>
       </c>
       <c r="G12" s="3">
         <f ca="1"/>
-        <v>-1.7085043540156015E-2</v>
+        <v>-4.6319072718143152E-3</v>
       </c>
       <c r="H12" s="3">
         <f ca="1"/>
-        <v>3.7500616236533224E-2</v>
+        <v>-2.0890914819853286E-2</v>
       </c>
       <c r="I12" s="3">
         <f ca="1"/>
-        <v>3.702519691266018E-2</v>
+        <v>3.8255186120040918E-2</v>
       </c>
       <c r="J12" s="3">
         <f ca="1"/>
-        <v>5.2172738500156024E-2</v>
+        <v>-4.9105650524874034E-2</v>
       </c>
       <c r="K12" s="3">
         <f ca="1"/>
-        <v>2.3013051417376609E-2</v>
+        <v>-3.3031024466218119E-2</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="2"/>
@@ -20532,27 +20532,27 @@
       </c>
       <c r="O12" s="16">
         <f ca="1"/>
-        <v>5.1862663392222121E-3</v>
+        <v>-3.7569412525182311E-2</v>
       </c>
       <c r="P12" s="75">
         <f ca="1"/>
-        <v>6.4602622449896938E-2</v>
+        <v>-3.0299833401267948E-2</v>
       </c>
       <c r="Q12" s="74">
         <f ca="1"/>
-        <v>2.4594191546465465E-2</v>
+        <v>5.437455651203707E-2</v>
       </c>
       <c r="R12" s="3">
         <f ca="1"/>
-        <v>-2.7117694197940939E-2</v>
+        <v>-6.1672471591626844E-2</v>
       </c>
       <c r="S12" s="3">
         <f ca="1"/>
-        <v>5.6701026871405304E-2</v>
+        <v>-2.8150242240400643E-2</v>
       </c>
       <c r="T12" s="3">
         <f ca="1"/>
-        <v>4.6492361545723233E-2</v>
+        <v>-1.2441558849947269E-2</v>
       </c>
       <c r="U12" s="4"/>
       <c r="W12" s="2" t="s">
@@ -20563,27 +20563,27 @@
       </c>
       <c r="Y12" s="20">
         <f ca="1"/>
-        <v>-2.8957489432798163E-3</v>
+        <v>3.7855055527840069E-4</v>
       </c>
       <c r="Z12" s="6">
         <f ca="1"/>
-        <v>-1.1761632434100435E-3</v>
+        <v>-1.219330887856346E-3</v>
       </c>
       <c r="AA12" s="65">
         <f ca="1"/>
-        <v>-6.426952388902403E-3</v>
+        <v>5.4420012700661744E-3</v>
       </c>
       <c r="AB12" s="73">
         <f ca="1"/>
-        <v>-1.8172798639581544E-3</v>
+        <v>-1.262860594719438E-3</v>
       </c>
       <c r="AC12" s="70">
         <f ca="1"/>
-        <v>1.4111096172269978E-3</v>
+        <v>-2.0920060848971583E-3</v>
       </c>
       <c r="AD12" s="6">
         <f ca="1"/>
-        <v>1.9666788756293259E-3</v>
+        <v>1.2039337042385871E-3</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>57</v>
@@ -20593,27 +20593,27 @@
       </c>
       <c r="AI12" s="78">
         <f ca="1"/>
-        <v>1.2804141692677205E-2</v>
+        <v>-1.7821376997820278E-2</v>
       </c>
       <c r="AJ12" s="24">
         <f ca="1"/>
-        <v>-3.8296110307940709E-2</v>
+        <v>1.9034360377989577E-2</v>
       </c>
       <c r="AK12" s="24">
         <f ca="1"/>
-        <v>2.1345898734752237E-3</v>
+        <v>7.7111350296600767E-2</v>
       </c>
       <c r="AL12" s="24">
         <f ca="1"/>
-        <v>5.4209174457618921E-2</v>
+        <v>2.9570145636818843E-2</v>
       </c>
       <c r="AM12" s="24">
         <f ca="1"/>
-        <v>-8.7543516870242453E-3</v>
+        <v>-8.6315074723688434E-2</v>
       </c>
       <c r="AN12" s="24">
         <f ca="1"/>
-        <v>-2.380160838216698E-2</v>
+        <v>2.3899813840002802E-2</v>
       </c>
       <c r="AP12" s="2" t="s">
         <v>1</v>
@@ -20623,27 +20623,27 @@
       </c>
       <c r="AR12" s="6">
         <f ca="1"/>
-        <v>1.7970347737611945E-2</v>
+        <v>4.138559589873538E-3</v>
       </c>
       <c r="AS12" s="6">
         <f ca="1"/>
-        <v>3.294474132788338E-2</v>
+        <v>3.6591287375359549E-2</v>
       </c>
       <c r="AT12" s="6">
         <f ca="1"/>
-        <v>6.1933003553181843E-3</v>
+        <v>3.5870519173235096E-2</v>
       </c>
       <c r="AU12" s="6">
         <f ca="1"/>
-        <v>8.0442101688966046E-3</v>
+        <v>7.4202608484278371E-2</v>
       </c>
       <c r="AV12" s="6">
         <f ca="1"/>
-        <v>-9.850024910835635E-3</v>
+        <v>-0.10292576288955467</v>
       </c>
       <c r="AW12" s="6">
         <f ca="1"/>
-        <v>3.0753541611637875E-2</v>
+        <v>3.8273094084931993E-2</v>
       </c>
     </row>
     <row r="13" spans="2:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20655,27 +20655,27 @@
       </c>
       <c r="F13" s="3">
         <f ca="1"/>
-        <v>-7.1257192759129548E-2</v>
+        <v>-6.6184907511051716E-2</v>
       </c>
       <c r="G13" s="3">
         <f ca="1"/>
-        <v>-3.9716048763434354E-2</v>
+        <v>-2.1545694772118283E-2</v>
       </c>
       <c r="H13" s="3">
         <f ca="1"/>
-        <v>6.9657221038783954E-2</v>
+        <v>4.1562750772240337E-3</v>
       </c>
       <c r="I13" s="3">
         <f ca="1"/>
-        <v>-7.2034749458740749E-3</v>
+        <v>3.4010135993920027E-2</v>
       </c>
       <c r="J13" s="3">
         <f ca="1"/>
-        <v>6.0976556069903973E-2</v>
+        <v>-4.9225091439164738E-2</v>
       </c>
       <c r="K13" s="3">
         <f ca="1"/>
-        <v>-6.1784550660653956E-2</v>
+        <v>-3.6256631133410329E-2</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="2"/>
@@ -20684,27 +20684,27 @@
       </c>
       <c r="O13" s="17">
         <f ca="1"/>
-        <v>-2.8566228596804733E-2</v>
+        <v>-9.9717672561145151E-2</v>
       </c>
       <c r="P13" s="75">
         <f ca="1"/>
-        <v>-3.3618157499944207E-2</v>
+        <v>-7.1883942538390463E-2</v>
       </c>
       <c r="Q13" s="74">
         <f ca="1"/>
-        <v>-7.1122591748009001E-2</v>
+        <v>-9.3169835801424447E-2</v>
       </c>
       <c r="R13" s="3">
         <f ca="1"/>
-        <v>-8.5837980987504472E-3</v>
+        <v>-7.2419173504678774E-2</v>
       </c>
       <c r="S13" s="3">
         <f ca="1"/>
-        <v>1.9136474971707701E-2</v>
+        <v>-5.0196930490098282E-2</v>
       </c>
       <c r="T13" s="3">
         <f ca="1"/>
-        <v>-6.1537652842549645E-3</v>
+        <v>-8.0423928863437522E-2</v>
       </c>
       <c r="U13" s="4"/>
       <c r="W13" s="2" t="s">
@@ -20715,27 +20715,27 @@
       </c>
       <c r="Y13" s="20">
         <f ca="1"/>
-        <v>-3.7755485832749623E-3</v>
+        <v>2.6626177886684707E-3</v>
       </c>
       <c r="Z13" s="6">
         <f ca="1"/>
-        <v>1.1730661802225081E-3</v>
+        <v>8.5254902366165377E-4</v>
       </c>
       <c r="AA13" s="6">
         <f ca="1"/>
-        <v>-6.3245014251937957E-3</v>
+        <v>3.9088868254302982E-3</v>
       </c>
       <c r="AB13" s="65">
         <f ca="1"/>
-        <v>2.3478348317000036E-3</v>
+        <v>-1.8054586265458994E-3</v>
       </c>
       <c r="AC13" s="73">
         <f ca="1"/>
-        <v>8.6563386124921451E-4</v>
+        <v>-2.32383272493589E-3</v>
       </c>
       <c r="AD13" s="70">
         <f ca="1"/>
-        <v>2.4985203565080238E-3</v>
+        <v>-8.3289116800614902E-4</v>
       </c>
       <c r="AG13" s="2" t="s">
         <v>58</v>
@@ -20745,27 +20745,27 @@
       </c>
       <c r="AI13" s="25">
         <f ca="1"/>
-        <v>2.3392173328255869E-2</v>
+        <v>1.3720402257600486E-2</v>
       </c>
       <c r="AJ13" s="25">
         <f ca="1"/>
-        <v>5.689480876301977E-2</v>
+        <v>1.4127328419140453E-3</v>
       </c>
       <c r="AK13" s="25">
         <f ca="1"/>
-        <v>-2.2892218605334469E-2</v>
+        <v>1.0298631613039389E-2</v>
       </c>
       <c r="AL13" s="25">
         <f ca="1"/>
-        <v>-3.6919520488247523E-2</v>
+        <v>9.1252874865750067E-2</v>
       </c>
       <c r="AM13" s="25">
         <f ca="1"/>
-        <v>-6.6255431736969544E-2</v>
+        <v>-0.11165442065888358</v>
       </c>
       <c r="AN13" s="25">
         <f ca="1"/>
-        <v>-2.7371334105560287E-2</v>
+        <v>4.077233087600958E-2</v>
       </c>
       <c r="AP13" s="2" t="s">
         <v>1</v>
@@ -20775,27 +20775,27 @@
       </c>
       <c r="AR13" s="6">
         <f ca="1"/>
-        <v>1.7983615851678091E-2</v>
+        <v>4.1722414509556558E-3</v>
       </c>
       <c r="AS13" s="6">
         <f ca="1"/>
-        <v>3.2913368098671625E-2</v>
+        <v>3.6608386261319167E-2</v>
       </c>
       <c r="AT13" s="6">
         <f ca="1"/>
-        <v>6.1815005792926533E-3</v>
+        <v>3.5887413827610938E-2</v>
       </c>
       <c r="AU13" s="6">
         <f ca="1"/>
-        <v>8.093724448475427E-3</v>
+        <v>7.4218871238946701E-2</v>
       </c>
       <c r="AV13" s="6">
         <f ca="1"/>
-        <v>-9.8716684706806369E-3</v>
+        <v>-0.10293883878024719</v>
       </c>
       <c r="AW13" s="6">
         <f ca="1"/>
-        <v>3.0738782309085506E-2</v>
+        <v>3.8289645222552501E-2</v>
       </c>
     </row>
     <row r="14" spans="2:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20807,27 +20807,27 @@
       </c>
       <c r="F14" s="3">
         <f ca="1"/>
-        <v>-1.5431962613344613E-2</v>
+        <v>-4.0053331269642709E-2</v>
       </c>
       <c r="G14" s="3">
         <f ca="1"/>
-        <v>-1.2599045507687276E-2</v>
+        <v>-1.8799202289581391E-2</v>
       </c>
       <c r="H14" s="3">
         <f ca="1"/>
-        <v>5.7300912820800222E-2</v>
+        <v>-5.6468320417509016E-2</v>
       </c>
       <c r="I14" s="3">
         <f ca="1"/>
-        <v>-3.7644117537836738E-2</v>
+        <v>1.6992902793502261E-2</v>
       </c>
       <c r="J14" s="3">
         <f ca="1"/>
-        <v>-7.0634948617523154E-3</v>
+        <v>-4.778970771598727E-2</v>
       </c>
       <c r="K14" s="3">
         <f ca="1"/>
-        <v>4.5245382653873248E-3</v>
+        <v>-7.3242438976137997E-2</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="2"/>
@@ -20836,27 +20836,27 @@
       </c>
       <c r="O14" s="18">
         <f ca="1"/>
-        <v>1.802384099153901E-2</v>
+        <v>2.045382203045068E-2</v>
       </c>
       <c r="P14" s="75">
         <f ca="1"/>
-        <v>4.0117790253691755E-3</v>
+        <v>-1.0078824981893941E-2</v>
       </c>
       <c r="Q14" s="74">
         <f ca="1"/>
-        <v>-6.4716517803920084E-2</v>
+        <v>-3.3577071034064598E-2</v>
       </c>
       <c r="R14" s="3">
         <f ca="1"/>
-        <v>2.2126190114012878E-3</v>
+        <v>-2.2260140669923795E-2</v>
       </c>
       <c r="S14" s="3">
         <f ca="1"/>
-        <v>7.3484266943671023E-2</v>
+        <v>-3.1739557261055144E-2</v>
       </c>
       <c r="T14" s="3">
         <f ca="1"/>
-        <v>3.70717810647073E-2</v>
+        <v>-2.0962974592003598E-2</v>
       </c>
       <c r="U14" s="4"/>
       <c r="W14" s="2" t="s">
@@ -20867,27 +20867,27 @@
       </c>
       <c r="Y14" s="20">
         <f ca="1"/>
-        <v>-1.8197165381177783E-3</v>
+        <v>3.0512763673715896E-3</v>
       </c>
       <c r="Z14" s="6">
         <f ca="1"/>
-        <v>-2.5054858346188202E-3</v>
+        <v>1.5076010188221174E-3</v>
       </c>
       <c r="AA14" s="6">
         <f ca="1"/>
-        <v>-4.7147716066132895E-3</v>
+        <v>9.2943349660020401E-3</v>
       </c>
       <c r="AB14" s="6">
         <f ca="1"/>
-        <v>1.8072346733486702E-3</v>
+        <v>2.3711654487088424E-3</v>
       </c>
       <c r="AC14" s="65">
         <f ca="1"/>
-        <v>-3.9455580389499683E-3</v>
+        <v>1.5152920257783934E-3</v>
       </c>
       <c r="AD14" s="73">
         <f ca="1"/>
-        <v>4.1760017609970238E-4</v>
+        <v>5.3359626062776675E-3</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>59</v>
@@ -20897,27 +20897,27 @@
       </c>
       <c r="AI14" s="26">
         <f ca="1"/>
-        <v>3.592038096026982E-3</v>
+        <v>-3.3670219164453632E-2</v>
       </c>
       <c r="AJ14" s="26">
         <f ca="1"/>
-        <v>8.8660582795895101E-2</v>
+        <v>3.2907231383637471E-2</v>
       </c>
       <c r="AK14" s="26">
         <f ca="1"/>
-        <v>-2.6187663825767225E-2</v>
+        <v>5.5232553637539678E-2</v>
       </c>
       <c r="AL14" s="26">
         <f ca="1"/>
-        <v>-3.1596425804583286E-2</v>
+        <v>3.6888557332896366E-2</v>
       </c>
       <c r="AM14" s="26">
         <f ca="1"/>
-        <v>-3.1925004885803118E-2</v>
+        <v>-7.8702874677339107E-2</v>
       </c>
       <c r="AN14" s="26">
         <f ca="1"/>
-        <v>7.1435711514054048E-2</v>
+        <v>1.8829978525073884E-2</v>
       </c>
       <c r="AP14" s="2" t="s">
         <v>149</v>
@@ -20927,27 +20927,27 @@
       </c>
       <c r="AR14" s="6">
         <f ca="1"/>
-        <v>1.7955890851996455E-2</v>
+        <v>4.1272373468017546E-3</v>
       </c>
       <c r="AS14" s="6">
         <f ca="1"/>
-        <v>3.2844312143438525E-2</v>
+        <v>3.6584771106740487E-2</v>
       </c>
       <c r="AT14" s="6">
         <f ca="1"/>
-        <v>6.2496251850331294E-3</v>
+        <v>3.5865666570533701E-2</v>
       </c>
       <c r="AU14" s="6">
         <f ca="1"/>
-        <v>8.1215568869490197E-3</v>
+        <v>7.4196527981687632E-2</v>
       </c>
       <c r="AV14" s="6">
         <f ca="1"/>
-        <v>-9.7565798854008026E-3</v>
+        <v>-0.10292115230787195</v>
       </c>
       <c r="AW14" s="6">
         <f ca="1"/>
-        <v>3.0760395206580003E-2</v>
+        <v>3.8267388188232491E-2</v>
       </c>
     </row>
     <row r="16" spans="2:49" x14ac:dyDescent="0.25">
@@ -21008,27 +21008,27 @@
       </c>
       <c r="AI18" s="21">
         <f ca="1">$Y$36*AI9</f>
-        <v>-2.4268892397715119E-3</v>
+        <v>3.8673948269473202E-3</v>
       </c>
       <c r="AJ18" s="21">
         <f ca="1">$Y$36*AJ9</f>
-        <v>4.4823442066113826E-3</v>
+        <v>1.4399916996396119E-2</v>
       </c>
       <c r="AK18" s="21">
         <f ca="1">$Y$36*AK9</f>
-        <v>4.9681803427521079E-3</v>
+        <v>1.3149679964228935E-2</v>
       </c>
       <c r="AL18" s="21">
         <f t="shared" ref="AL18:AN18" ca="1" si="0">$Y$36*AL9</f>
-        <v>-3.6856332816788003E-3</v>
+        <v>1.0536271159949043E-2</v>
       </c>
       <c r="AM18" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5265003062597279E-3</v>
+        <v>-1.6048424982285561E-2</v>
       </c>
       <c r="AN18" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>7.406783992856149E-3</v>
+        <v>7.0743271169309181E-3</v>
       </c>
     </row>
     <row r="19" spans="11:42" x14ac:dyDescent="0.25">
@@ -21037,27 +21037,27 @@
       </c>
       <c r="AI19" s="22">
         <f ca="1">$Z$36*AI10</f>
-        <v>8.7980317781843412E-3</v>
+        <v>6.3249897643114757E-3</v>
       </c>
       <c r="AJ19" s="22">
         <f t="shared" ref="AJ19:AN19" ca="1" si="1">$Z$36*AJ10</f>
-        <v>1.1927235413189132E-2</v>
+        <v>5.1536180961602009E-3</v>
       </c>
       <c r="AK19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6409512477974636E-3</v>
+        <v>3.415370214641993E-3</v>
       </c>
       <c r="AL19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3510669153921733E-3</v>
+        <v>1.9262020765602426E-2</v>
       </c>
       <c r="AM19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.7283788794987899E-3</v>
+        <v>-2.2030029961346061E-2</v>
       </c>
       <c r="AN19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1886734904123817E-2</v>
+        <v>1.0473002264116415E-2</v>
       </c>
     </row>
     <row r="20" spans="11:42" x14ac:dyDescent="0.25">
@@ -21066,27 +21066,27 @@
       </c>
       <c r="AI20" s="23">
         <f ca="1">$AA$36*AI11</f>
-        <v>4.911310277370593E-3</v>
+        <v>3.5293171655335475E-4</v>
       </c>
       <c r="AJ20" s="23">
         <f t="shared" ref="AJ20:AM20" ca="1" si="2">$AA$36*AJ11</f>
-        <v>-1.4315996640502271E-3</v>
+        <v>8.3815066409376852E-3</v>
       </c>
       <c r="AK20" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0672014648899256E-2</v>
+        <v>-4.1865955056228218E-3</v>
       </c>
       <c r="AL20" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7472484342132998E-3</v>
+        <v>1.8379090095097649E-2</v>
       </c>
       <c r="AM20" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2156439761551384E-3</v>
+        <v>-1.9121421091018526E-2</v>
       </c>
       <c r="AN20" s="23">
         <f ca="1">$AA$36*AN11</f>
-        <v>8.0004086721451647E-3</v>
+        <v>6.9859135945543899E-3</v>
       </c>
     </row>
     <row r="21" spans="11:42" x14ac:dyDescent="0.25">
@@ -21095,27 +21095,27 @@
       </c>
       <c r="AI21" s="78">
         <f ca="1">$AB$36*AI12</f>
-        <v>2.137926263384857E-3</v>
+        <v>-2.9482816914481419E-3</v>
       </c>
       <c r="AJ21" s="78">
         <f t="shared" ref="AJ21:AN21" ca="1" si="3">$AB$36*AJ12</f>
-        <v>-6.3943575428921217E-3</v>
+        <v>3.1489517458564756E-3</v>
       </c>
       <c r="AK21" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5641559282868589E-4</v>
+        <v>1.2756925702773632E-2</v>
       </c>
       <c r="AL21" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0513851354547641E-3</v>
+        <v>4.8919406735602536E-3</v>
       </c>
       <c r="AM21" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4617269036705982E-3</v>
+        <v>-1.4279544983249853E-2</v>
       </c>
       <c r="AN21" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.9741893593803418E-3</v>
+        <v>3.9538686366444916E-3</v>
       </c>
     </row>
     <row r="22" spans="11:42" x14ac:dyDescent="0.25">
@@ -21124,27 +21124,27 @@
       </c>
       <c r="AI22" s="25">
         <f ca="1">$AC$36*AI13</f>
-        <v>3.9267604794929632E-3</v>
+        <v>2.2658946212512441E-3</v>
       </c>
       <c r="AJ22" s="25">
         <f t="shared" ref="AJ22:AN22" ca="1" si="4">$AC$36*AJ13</f>
-        <v>9.5507280748929752E-3</v>
+        <v>2.333097592663329E-4</v>
       </c>
       <c r="AK22" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.842834868137638E-3</v>
+        <v>1.7007966341006581E-3</v>
       </c>
       <c r="AL22" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.1975478695672978E-3</v>
+        <v>1.5070214010487555E-2</v>
       </c>
       <c r="AM22" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.1122062377257281E-2</v>
+        <v>-1.8439484969891392E-2</v>
       </c>
       <c r="AN22" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.5947279685587825E-3</v>
+        <v>6.7334618543453094E-3</v>
       </c>
     </row>
     <row r="23" spans="11:42" x14ac:dyDescent="0.25">
@@ -21153,37 +21153,37 @@
       </c>
       <c r="AI23" s="26">
         <f ca="1">$AD$36*AI14</f>
-        <v>6.0023834743443139E-4</v>
+        <v>-5.5787436866985172E-3</v>
       </c>
       <c r="AJ23" s="26">
         <f t="shared" ref="AJ23:AN23" ca="1" si="5">$AD$36*AJ14</f>
-        <v>1.4815400136998409E-2</v>
+        <v>5.4523259391790722E-3</v>
       </c>
       <c r="AK23" s="26">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.3760226472355553E-3</v>
+        <v>9.1513589026756097E-3</v>
       </c>
       <c r="AL23" s="26">
         <f t="shared" ca="1" si="5"/>
-        <v>-5.2798399968960776E-3</v>
+        <v>6.1119829760291752E-3</v>
       </c>
       <c r="AM23" s="26">
         <f t="shared" ca="1" si="5"/>
-        <v>-5.3347463646573386E-3</v>
+        <v>-1.304010416703074E-2</v>
       </c>
       <c r="AN23" s="26">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1937082035523182E-2</v>
+        <v>3.1198972392887064E-3</v>
       </c>
     </row>
     <row r="26" spans="11:42" x14ac:dyDescent="0.25">
       <c r="AI26" s="6">
         <f ca="1">SUM(AI18:AI23)</f>
-        <v>1.7947377906095675E-2</v>
+        <v>4.2841855509167344E-3</v>
       </c>
       <c r="AJ26" s="6">
         <f ca="1">SUM(AJ18:AJ23)</f>
-        <v>3.2949750624749544E-2</v>
+        <v>3.6769629177795887E-2</v>
       </c>
     </row>
     <row r="27" spans="11:42" x14ac:dyDescent="0.25">
@@ -21212,7 +21212,7 @@
     <row r="28" spans="11:42" x14ac:dyDescent="0.25">
       <c r="W28" s="54">
         <f ca="1">SUM(Y28:AD28)</f>
-        <v>5.9971560476947126</v>
+        <v>6.0998693193086089</v>
       </c>
       <c r="X28" s="54" t="str" cm="1">
         <f t="array" ref="X28:X33">TRANSPOSE(Y27:AD27)</f>
@@ -21220,95 +21220,95 @@
       </c>
       <c r="Y28" s="21" cm="1">
         <f t="array" aca="1" ref="Y28:AD33" ca="1">EXP(_xlfn.ANCHORARRAY(Y9))</f>
-        <v>0.99931812635230166</v>
+        <v>1.0338432663470103</v>
       </c>
       <c r="Z28" s="20">
         <f ca="1"/>
-        <v>0.99799032353955708</v>
+        <v>1.0220374258185037</v>
       </c>
       <c r="AA28" s="20">
         <f ca="1"/>
-        <v>0.98963310697793427</v>
+        <v>1.0168020597118175</v>
       </c>
       <c r="AB28" s="20">
         <f ca="1"/>
-        <v>1.0013539156097095</v>
+        <v>1.0091326296808287</v>
       </c>
       <c r="AC28" s="20">
         <f ca="1"/>
-        <v>1.0067211381763332</v>
+        <v>1.0073801643315732</v>
       </c>
       <c r="AD28" s="20">
         <f ca="1"/>
-        <v>1.0021394370388772</v>
+        <v>1.0106737734188753</v>
       </c>
       <c r="AE28" s="2"/>
     </row>
     <row r="29" spans="11:42" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W29" s="54">
         <f t="shared" ref="W29:W33" ca="1" si="6">SUM(Y29:AD29)</f>
-        <v>5.9901356027910779</v>
+        <v>6.0532201647206847</v>
       </c>
       <c r="X29" s="54" t="str">
         <v>cat</v>
       </c>
       <c r="Y29" s="21">
         <f ca="1"/>
-        <v>0.99600313359925419</v>
+        <v>1.0209416901187431</v>
       </c>
       <c r="Z29" s="6">
         <f ca="1"/>
-        <v>0.9998749695466419</v>
+        <v>1.012892435481926</v>
       </c>
       <c r="AA29" s="6">
         <f ca="1"/>
-        <v>0.99562069042145662</v>
+        <v>1.0110522592446254</v>
       </c>
       <c r="AB29" s="6">
         <f ca="1"/>
-        <v>0.99897242096977135</v>
+        <v>1.0026474812680872</v>
       </c>
       <c r="AC29" s="6">
         <f ca="1"/>
-        <v>0.99728849607559811</v>
+        <v>1.001632639320212</v>
       </c>
       <c r="AD29" s="6">
         <f ca="1"/>
-        <v>1.0023758921783561</v>
+        <v>1.004053659287091</v>
       </c>
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="11:42" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W30" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0053481691265036</v>
+        <v>6.0766702797373977</v>
       </c>
       <c r="X30" s="54" t="str">
         <v xml:space="preserve">is </v>
       </c>
       <c r="Y30" s="20">
         <f ca="1"/>
-        <v>1.0003498994958293</v>
+        <v>1.0198690202671421</v>
       </c>
       <c r="Z30" s="6">
         <f ca="1"/>
-        <v>1.0008129934531735</v>
+        <v>1.0136290149829479</v>
       </c>
       <c r="AA30" s="6">
         <f ca="1"/>
-        <v>0.99725982503960375</v>
+        <v>1.0176461820601903</v>
       </c>
       <c r="AB30" s="6">
         <f ca="1"/>
-        <v>0.99898798188248972</v>
+        <v>1.0074789229166639</v>
       </c>
       <c r="AC30" s="6">
         <f ca="1"/>
-        <v>1.0063995159758869</v>
+        <v>1.007003996314521</v>
       </c>
       <c r="AD30" s="6">
         <f ca="1"/>
-        <v>1.0015379532795208</v>
+        <v>1.0110431431959335</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AP30" s="71"/>
@@ -21316,102 +21316,102 @@
     <row r="31" spans="11:42" x14ac:dyDescent="0.25">
       <c r="W31" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9910917143018469</v>
+        <v>6.0024696461014919</v>
       </c>
       <c r="X31" s="54" t="str">
         <v xml:space="preserve"> a </v>
       </c>
       <c r="Y31" s="20">
         <f ca="1"/>
-        <v>0.99710843969363572</v>
+        <v>1.0003786222145818</v>
       </c>
       <c r="Z31" s="6">
         <f ca="1"/>
-        <v>0.99882452816548106</v>
+        <v>0.99878141219399907</v>
       </c>
       <c r="AA31" s="6">
         <f ca="1"/>
-        <v>0.99359365629562157</v>
+        <v>1.0054568358567162</v>
       </c>
       <c r="AB31" s="6">
         <f ca="1"/>
-        <v>0.99818437038928509</v>
+        <v>0.99873793647815545</v>
       </c>
       <c r="AC31" s="6">
         <f ca="1"/>
-        <v>1.0014121057008756</v>
+        <v>0.99791018063468973</v>
       </c>
       <c r="AD31" s="6">
         <f ca="1"/>
-        <v>1.0019686140569481</v>
+        <v>1.0012046587233498</v>
       </c>
       <c r="AE31" s="2"/>
     </row>
     <row r="32" spans="11:42" x14ac:dyDescent="0.25">
       <c r="W32" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9968190265123882</v>
+        <v>6.0024781058450571</v>
       </c>
       <c r="X32" s="54" t="str">
         <v>lovely</v>
       </c>
       <c r="Y32" s="20">
         <f ca="1"/>
-        <v>0.99623156983881</v>
+        <v>1.0026661657036278</v>
       </c>
       <c r="Z32" s="6">
         <f ca="1"/>
-        <v>1.0011737544914727</v>
+        <v>1.0008529125468804</v>
       </c>
       <c r="AA32" s="6">
         <f ca="1"/>
-        <v>0.99369545613790078</v>
+        <v>1.0039165364875109</v>
       </c>
       <c r="AB32" s="6">
         <f ca="1"/>
-        <v>1.0023505931541712</v>
+        <v>0.99819617023345297</v>
       </c>
       <c r="AC32" s="6">
         <f ca="1"/>
-        <v>1.00086600863037</v>
+        <v>0.99767886528401906</v>
       </c>
       <c r="AD32" s="6">
         <f ca="1"/>
-        <v>1.0025016442596641</v>
+        <v>0.99916745558956566</v>
       </c>
       <c r="AE32" s="2"/>
     </row>
     <row r="33" spans="23:31" x14ac:dyDescent="0.25">
       <c r="W33" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9892646854371661</v>
+        <v>6.0231429794489157</v>
       </c>
       <c r="X33" s="54" t="str">
         <v>cat</v>
       </c>
       <c r="Y33" s="20">
         <f ca="1"/>
-        <v>0.99818193814218659</v>
+        <v>1.0030559362494307</v>
       </c>
       <c r="Z33" s="6">
         <f ca="1"/>
-        <v>0.99749765027530846</v>
+        <v>1.0015087380205479</v>
       </c>
       <c r="AA33" s="6">
         <f ca="1"/>
-        <v>0.99529632548210833</v>
+        <v>1.0093376614234055</v>
       </c>
       <c r="AB33" s="6">
         <f ca="1"/>
-        <v>1.0018088687061428</v>
+        <v>1.0023739788847694</v>
       </c>
       <c r="AC33" s="6">
         <f ca="1"/>
-        <v>0.99606221544822715</v>
+        <v>1.0015164406608392</v>
       </c>
       <c r="AD33" s="6">
         <f ca="1"/>
-        <v>1.000417687383192</v>
+        <v>1.0053502242099233</v>
       </c>
       <c r="AE33" s="2"/>
     </row>
@@ -21445,27 +21445,27 @@
       </c>
       <c r="Y36" s="21">
         <f ca="1">Y28/$W$28</f>
-        <v>0.16663200330370531</v>
+        <v>0.16948613359215234</v>
       </c>
       <c r="Z36" s="22">
         <f t="shared" ref="Z36:AD36" ca="1" si="7">Z28/$W$28</f>
-        <v>0.16641059789050869</v>
+        <v>0.16755070843621725</v>
       </c>
       <c r="AA36" s="23">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16501706794145302</v>
+        <v>0.16669243331053313</v>
       </c>
       <c r="AB36" s="24">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16697146241419328</v>
+        <v>0.16543512276345113</v>
       </c>
       <c r="AC36" s="25">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16786642371317212</v>
+        <v>0.16514782720718268</v>
       </c>
       <c r="AD36" s="26">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16710244473696767</v>
+        <v>0.16568777469046342</v>
       </c>
       <c r="AE36" s="54">
         <f ca="1">SUM(Y36:AD36)</f>
@@ -21478,27 +21478,27 @@
       </c>
       <c r="Y37" s="20">
         <f ca="1">Y29/$W$29</f>
-        <v>0.16627388754524536</v>
+        <v>0.16866092135042188</v>
       </c>
       <c r="Z37" s="20">
         <f t="shared" ref="Z37:AD37" ca="1" si="8">Z29/$W$29</f>
-        <v>0.166920256209351</v>
+        <v>0.16733117380815837</v>
       </c>
       <c r="AA37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16621004204939058</v>
+        <v>0.16702717425300831</v>
       </c>
       <c r="AB37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16676958373101011</v>
+        <v>0.16563869378346865</v>
       </c>
       <c r="AC37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16648846740813611</v>
+        <v>0.16547104054762735</v>
       </c>
       <c r="AD37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16733776305686693</v>
+        <v>0.16587099625731544</v>
       </c>
       <c r="AE37" s="54">
         <f t="shared" ref="AE37:AE41" ca="1" si="9">SUM(Y37:AD37)</f>
@@ -21511,31 +21511,31 @@
       </c>
       <c r="Y38" s="20">
         <f ca="1">Y30/$W$30</f>
-        <v>0.1665765033638896</v>
+        <v>0.16783352943599494</v>
       </c>
       <c r="Z38" s="20">
         <f t="shared" ref="Z38:AD38" ca="1" si="10">Z30/$W$30</f>
-        <v>0.16665361695402664</v>
+        <v>0.16680665040571391</v>
       </c>
       <c r="AA38" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16606194960793727</v>
+        <v>0.16746773071652782</v>
       </c>
       <c r="AB38" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16634971924163983</v>
+        <v>0.16579456783694407</v>
       </c>
       <c r="AC38" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.1675838748450568</v>
+        <v>0.16571641210686824</v>
       </c>
       <c r="AD38" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16677433598744992</v>
+        <v>0.16638110949795115</v>
       </c>
       <c r="AE38" s="54">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="39" spans="23:31" x14ac:dyDescent="0.25">
@@ -21544,31 +21544,31 @@
       </c>
       <c r="Y39" s="20">
         <f ca="1">Y31/$W$31</f>
-        <v>0.1664318436844078</v>
+        <v>0.16666117135041436</v>
       </c>
       <c r="Z39" s="20">
         <f t="shared" ref="Z39:AD39" ca="1" si="11">Z31/$W$31</f>
-        <v>0.16671828371131453</v>
+        <v>0.16639507920588847</v>
       </c>
       <c r="AA39" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16584517541664889</v>
+        <v>0.16750719206214468</v>
       </c>
       <c r="AB39" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16661143210450841</v>
+        <v>0.16638783623451053</v>
       </c>
       <c r="AC39" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16715018788818056</v>
+        <v>0.16624993368901356</v>
       </c>
       <c r="AD39" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16724307719493983</v>
+        <v>0.16679878745802842</v>
       </c>
       <c r="AE39" s="54">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="23:31" x14ac:dyDescent="0.25">
@@ -21577,31 +21577,31 @@
       </c>
       <c r="Y40" s="20">
         <f ca="1">Y32/$W$32</f>
-        <v>0.16612666906144663</v>
+        <v>0.16704203630951314</v>
       </c>
       <c r="Z40" s="20">
         <f t="shared" ref="Z40:AD40" ca="1" si="12">Z32/$W$32</f>
-        <v>0.1669508034284857</v>
+        <v>0.16673995221611485</v>
       </c>
       <c r="AA40" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.16570375923380351</v>
+        <v>0.16725034540482922</v>
       </c>
       <c r="AB40" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.1671470472466659</v>
+        <v>0.16629734463528248</v>
       </c>
       <c r="AC40" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.16689948524467157</v>
+        <v>0.1662111627383539</v>
       </c>
       <c r="AD40" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.16717223578492679</v>
+        <v>0.16645915869590633</v>
       </c>
       <c r="AE40" s="54">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="41" spans="23:31" x14ac:dyDescent="0.25">
@@ -21610,27 +21610,27 @@
       </c>
       <c r="Y41" s="20">
         <f ca="1">Y33/$W$33</f>
-        <v>0.16666185092291136</v>
+        <v>0.16653364193277123</v>
       </c>
       <c r="Z41" s="20">
         <f t="shared" ref="Z41:AD41" ca="1" si="13">Z33/$W$33</f>
-        <v>0.16654759852252204</v>
+        <v>0.16627676637226041</v>
       </c>
       <c r="AA41" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.16618005343830619</v>
+        <v>0.16757657337162438</v>
       </c>
       <c r="AB41" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.16726742285109397</v>
+        <v>0.16642041909097782</v>
       </c>
       <c r="AC41" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.16630793056619153</v>
+        <v>0.16627804521294504</v>
       </c>
       <c r="AD41" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.16703514369897479</v>
+        <v>0.16691455401942115</v>
       </c>
       <c r="AE41" s="54">
         <f t="shared" ca="1" si="9"/>
@@ -21682,11 +21682,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:32" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D3" s="44"/>
@@ -21784,27 +21784,27 @@
       </c>
       <c r="E7" s="6" cm="1">
         <f t="array" aca="1" ref="E7:J12" ca="1">'-&gt; Self - Attention'!AR9:AW14</f>
-        <v>1.7947377906095675E-2</v>
+        <v>4.2841855509167344E-3</v>
       </c>
       <c r="F7" s="6">
         <f ca="1"/>
-        <v>3.2949750624749544E-2</v>
+        <v>3.6769629177795887E-2</v>
       </c>
       <c r="G7" s="6">
         <f ca="1"/>
-        <v>6.1368018213093928E-3</v>
+        <v>3.5987535912798005E-2</v>
       </c>
       <c r="H7" s="6">
         <f ca="1"/>
-        <v>7.9866793369180629E-3</v>
+        <v>7.4251519680726102E-2</v>
       </c>
       <c r="I7" s="6">
         <f ca="1"/>
-        <v>-9.904770242669142E-3</v>
+        <v>-0.10295901015482214</v>
       </c>
       <c r="J7" s="6">
         <f ca="1"/>
-        <v>3.0662092276709192E-2</v>
+        <v>3.8340470705880224E-2</v>
       </c>
       <c r="L7" s="52"/>
       <c r="V7" s="44" t="s">
@@ -21815,35 +21815,35 @@
       </c>
       <c r="X7" s="6">
         <f ca="1">(E7-$AE$7)/$AF$7</f>
-        <v>0.22460478240840406</v>
+        <v>-0.16485391581686509</v>
       </c>
       <c r="Y7" s="6">
         <f t="shared" ref="Y7:AB7" ca="1" si="0">(F7-$AE$7)/$AF$7</f>
-        <v>1.1475171409583802</v>
+        <v>0.36216802764017814</v>
       </c>
       <c r="Z7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50195539808163869</v>
+        <v>0.34947987360977417</v>
       </c>
       <c r="AA7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.38815507776056363</v>
+        <v>0.97024895780034603</v>
       </c>
       <c r="AB7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4887969721486141</v>
+        <v>-1.9046952451381947</v>
       </c>
       <c r="AC7" s="6">
         <f ca="1">(J7-$AE$7)/$AF$7</f>
-        <v>1.0067855246240336</v>
+        <v>0.38765230190476119</v>
       </c>
       <c r="AE7" s="1">
         <f ca="1">AVERAGE(E7:J7)</f>
-        <v>1.4296321953852118E-2</v>
+        <v>1.4445721812215803E-2</v>
       </c>
       <c r="AF7" s="1">
         <f ca="1">STDEV(E7:J7)</f>
-        <v>1.6255468441472264E-2</v>
+        <v>6.1639641442229609E-2</v>
       </c>
     </row>
     <row r="8" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -21855,27 +21855,27 @@
       </c>
       <c r="E8" s="6">
         <f ca="1"/>
-        <v>1.7981071788695371E-2</v>
+        <v>4.2524145227918562E-3</v>
       </c>
       <c r="F8" s="6">
         <f ca="1"/>
-        <v>3.2916492907886695E-2</v>
+        <v>3.6719956722248218E-2</v>
       </c>
       <c r="G8" s="6">
         <f ca="1"/>
-        <v>6.2232021864976235E-3</v>
+        <v>3.593977516347354E-2</v>
       </c>
       <c r="H8" s="6">
         <f ca="1"/>
-        <v>8.1025539499365827E-3</v>
+        <v>7.4254161589743739E-2</v>
       </c>
       <c r="I8" s="6">
         <f ca="1"/>
-        <v>-9.8142594243858031E-3</v>
+        <v>-0.10295848475374937</v>
       </c>
       <c r="J8" s="6">
         <f ca="1"/>
-        <v>3.0799748834769464E-2</v>
+        <v>3.8327826318887842E-2</v>
       </c>
       <c r="L8" s="52"/>
       <c r="V8" s="44" t="s">
@@ -21886,35 +21886,35 @@
       </c>
       <c r="X8" s="6">
         <f ca="1">(E8-$AE$8)/$AF$8</f>
-        <v>0.22257357336039968</v>
+        <v>-0.16501191011463046</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" ref="Y8:AB8" ca="1" si="1">(F8-$AE$8)/$AF$8</f>
-        <v>1.1426644246222009</v>
+        <v>0.36177561165702771</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50176544359643438</v>
+        <v>0.34911712622705438</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38598870385516187</v>
+        <v>0.97076999264065345</v>
       </c>
       <c r="AB8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4897470738348693</v>
+        <v>-1.9045141979639915</v>
       </c>
       <c r="AC8" s="6">
         <f ca="1">(J8-$AE$8)/$AF$8</f>
-        <v>1.0122632233038642</v>
+        <v>0.38786337755388595</v>
       </c>
       <c r="AE8" s="1">
         <f ca="1">AVERAGE(E8:J8)</f>
-        <v>1.4368135040566657E-2</v>
+        <v>1.4422608260565973E-2</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" ref="AF8:AF12" ca="1" si="2">STDEV(E8:J8)</f>
-        <v>1.6232550403809658E-2</v>
+        <v>6.1633088973450996E-2</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -21926,27 +21926,27 @@
       </c>
       <c r="E9" s="6">
         <f ca="1"/>
-        <v>1.7976383831431981E-2</v>
+        <v>4.1980800520104713E-3</v>
       </c>
       <c r="F9" s="6">
         <f ca="1"/>
-        <v>3.2935255364885715E-2</v>
+        <v>3.6675777849592209E-2</v>
       </c>
       <c r="G9" s="6">
         <f ca="1"/>
-        <v>6.2140588862203564E-3</v>
+        <v>3.589654617237506E-2</v>
       </c>
       <c r="H9" s="6">
         <f ca="1"/>
-        <v>8.0333314633853018E-3</v>
+        <v>7.4236817599398722E-2</v>
       </c>
       <c r="I9" s="6">
         <f ca="1"/>
-        <v>-9.8403623759547934E-3</v>
+        <v>-0.10294270934622395</v>
       </c>
       <c r="J9" s="6">
         <f ca="1"/>
-        <v>3.0726736018811998E-2</v>
+        <v>3.830230342957823E-2</v>
       </c>
       <c r="L9" s="52"/>
       <c r="V9" s="44" t="s">
@@ -21957,35 +21957,35 @@
       </c>
       <c r="X9" s="6">
         <f ca="1">(E9-$AE$9)/$AF$9</f>
-        <v>0.22391594986143931</v>
+        <v>-0.16547928731103809</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" ref="Y9:AC9" ca="1" si="3">(F9-$AE$9)/$AF$9</f>
-        <v>1.1452597305624843</v>
+        <v>0.36160791563268058</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.50054678187734891</v>
+        <v>0.34896160530153048</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.38849451439030508</v>
+        <v>0.97119371524121956</v>
       </c>
       <c r="AB9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.489367439209685</v>
+        <v>-1.9042890809443265</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0092330550534154</v>
+        <v>0.3880051320799337</v>
       </c>
       <c r="AE9" s="1">
         <f t="shared" ref="AE9:AE12" ca="1" si="4">AVERAGE(E9:J9)</f>
-        <v>1.4340900531463427E-2</v>
+        <v>1.4394469292788458E-2</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6235928267808591E-2</v>
+        <v>6.1617314205690631E-2</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -21997,27 +21997,27 @@
       </c>
       <c r="E10" s="6">
         <f ca="1"/>
-        <v>1.7970347737611945E-2</v>
+        <v>4.138559589873538E-3</v>
       </c>
       <c r="F10" s="6">
         <f ca="1"/>
-        <v>3.294474132788338E-2</v>
+        <v>3.6591287375359549E-2</v>
       </c>
       <c r="G10" s="6">
         <f ca="1"/>
-        <v>6.1933003553181843E-3</v>
+        <v>3.5870519173235096E-2</v>
       </c>
       <c r="H10" s="6">
         <f ca="1"/>
-        <v>8.0442101688966046E-3</v>
+        <v>7.4202608484278371E-2</v>
       </c>
       <c r="I10" s="6">
         <f ca="1"/>
-        <v>-9.850024910835635E-3</v>
+        <v>-0.10292576288955467</v>
       </c>
       <c r="J10" s="6">
         <f ca="1"/>
-        <v>3.0753541611637875E-2</v>
+        <v>3.8273094084931993E-2</v>
       </c>
       <c r="L10" s="52"/>
       <c r="U10" s="44"/>
@@ -22029,35 +22029,35 @@
       </c>
       <c r="X10" s="6">
         <f ca="1">(E10-$AE$10)/$AF$10</f>
-        <v>0.22327702839773569</v>
+        <v>-0.16591702635906055</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" ref="Y10:AC10" ca="1" si="5">(F10-$AE$10)/$AF$10</f>
-        <v>1.1449280502816084</v>
+        <v>0.36094720493065602</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.50158222478215098</v>
+        <v>0.34924566208160751</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.38766155675538533</v>
+        <v>0.97156027619006591</v>
       </c>
       <c r="AB10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.4890243563668597</v>
+        <v>-1.9040871529055889</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0100630592250515</v>
+        <v>0.38825103606232009</v>
       </c>
       <c r="AE10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4342686048418726E-2</v>
+        <v>1.4358384303020647E-2</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6247357443019462E-2</v>
+        <v>6.1595997333211701E-2</v>
       </c>
     </row>
     <row r="11" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -22069,27 +22069,27 @@
       </c>
       <c r="E11" s="6">
         <f ca="1"/>
-        <v>1.7983615851678091E-2</v>
+        <v>4.1722414509556558E-3</v>
       </c>
       <c r="F11" s="6">
         <f ca="1"/>
-        <v>3.2913368098671625E-2</v>
+        <v>3.6608386261319167E-2</v>
       </c>
       <c r="G11" s="6">
         <f ca="1"/>
-        <v>6.1815005792926533E-3</v>
+        <v>3.5887413827610938E-2</v>
       </c>
       <c r="H11" s="6">
         <f ca="1"/>
-        <v>8.093724448475427E-3</v>
+        <v>7.4218871238946701E-2</v>
       </c>
       <c r="I11" s="6">
         <f ca="1"/>
-        <v>-9.8716684706806369E-3</v>
+        <v>-0.10293883878024719</v>
       </c>
       <c r="J11" s="6">
         <f ca="1"/>
-        <v>3.0738782309085506E-2</v>
+        <v>3.8289645222552501E-2</v>
       </c>
       <c r="L11" s="52"/>
       <c r="V11" s="44" t="s">
@@ -22100,35 +22100,35 @@
       </c>
       <c r="X11" s="6">
         <f ca="1">(E11-$AE$11)/$AF$11</f>
-        <v>0.22434541951885878</v>
+        <v>-0.16557790751118967</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" ref="Y11:AC11" ca="1" si="6">(F11-$AE$11)/$AF$11</f>
-        <v>1.1435745368877521</v>
+        <v>0.36092544987249764</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.50231419448146586</v>
+        <v>0.34922262855548375</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.38457802375334271</v>
+        <v>0.97141867369183321</v>
       </c>
       <c r="AB11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.4907124058283534</v>
+        <v>-1.9042044824148607</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0096846676565516</v>
+        <v>0.38821563780623564</v>
       </c>
       <c r="AE11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4339887136087109E-2</v>
+        <v>1.4372953203522965E-2</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6241600668315335E-2</v>
+        <v>6.1606719796709286E-2</v>
       </c>
     </row>
     <row r="12" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -22140,27 +22140,27 @@
       </c>
       <c r="E12" s="6">
         <f ca="1"/>
-        <v>1.7955890851996455E-2</v>
+        <v>4.1272373468017546E-3</v>
       </c>
       <c r="F12" s="6">
         <f ca="1"/>
-        <v>3.2844312143438525E-2</v>
+        <v>3.6584771106740487E-2</v>
       </c>
       <c r="G12" s="6">
         <f ca="1"/>
-        <v>6.2496251850331294E-3</v>
+        <v>3.5865666570533701E-2</v>
       </c>
       <c r="H12" s="6">
         <f ca="1"/>
-        <v>8.1215568869490197E-3</v>
+        <v>7.4196527981687632E-2</v>
       </c>
       <c r="I12" s="6">
         <f ca="1"/>
-        <v>-9.7565798854008026E-3</v>
+        <v>-0.10292115230787195</v>
       </c>
       <c r="J12" s="6">
         <f ca="1"/>
-        <v>3.0760395206580003E-2</v>
+        <v>3.8267388188232491E-2</v>
       </c>
       <c r="L12" s="52"/>
       <c r="V12" s="44" t="s">
@@ -22171,35 +22171,35 @@
       </c>
       <c r="X12" s="6">
         <f ca="1">(E12-$AE$12)/$AF$12</f>
-        <v>0.22200862426787407</v>
+        <v>-0.16603030719191378</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" ref="Y12:AC12" ca="1" si="7">(F12-$AE$12)/$AF$12</f>
-        <v>1.1418608713213516</v>
+        <v>0.36094457754982417</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.50124030639952344</v>
+        <v>0.34926932110897418</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.38558663509135538</v>
+        <v>0.97160253421113019</v>
       </c>
       <c r="AB12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.4901526573215425</v>
+        <v>-1.9040493821250677</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0131101032231953</v>
+        <v>0.38826325644705295</v>
       </c>
       <c r="AE12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4362533398099389E-2</v>
+        <v>1.4353406481020686E-2</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6185666055753518E-2</v>
+        <v>6.1592183422262435E-2</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -22331,35 +22331,35 @@
       </c>
       <c r="X18" s="6">
         <f ca="1">(E20-$AE$18)/$AF$18</f>
-        <v>-0.9696392950093683</v>
+        <v>0.20707232378287108</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" ref="Y18:AC18" ca="1" si="8">(F20-$AE$18)/$AF$18</f>
-        <v>0.73354969490165522</v>
+        <v>-1.2145202684004153</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.75531842437768371</v>
+        <v>0.39705256616118201</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.57615284255884813</v>
+        <v>1.5128150720762163</v>
       </c>
       <c r="AB18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1724957259905202</v>
+        <v>0.10942405158327696</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1155717077016425</v>
+        <v>-1.0118437452031319</v>
       </c>
       <c r="AE18" s="1">
         <f ca="1">AVERAGE(E20:J20)</f>
-        <v>0.43287087102261451</v>
+        <v>0.39225030264609462</v>
       </c>
       <c r="AF18" s="1">
         <f ca="1">STDEV(E20:J20)</f>
-        <v>0.36646946524221274</v>
+        <v>0.3092719814084916</v>
       </c>
     </row>
     <row r="19" spans="3:32" x14ac:dyDescent="0.25">
@@ -22389,35 +22389,35 @@
       </c>
       <c r="X19" s="6">
         <f ca="1">(E21-$AE$19)/$AF$19</f>
-        <v>-1.1521029984310369</v>
+        <v>0.88771285016788182</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" ref="Y19:AC19" ca="1" si="9">(F21-$AE$19)/$AF$19</f>
-        <v>1.081440624881145</v>
+        <v>-1.2333363060822957</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.94862245544055446</v>
+        <v>1.1922681267416566</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.75853263897292367</v>
+        <v>-0.25841179964061384</v>
       </c>
       <c r="AB19" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.83532030422326919</v>
+        <v>-1.01159763818203</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.57456811420574638</v>
+        <v>0.42336476699540149</v>
       </c>
       <c r="AE19" s="1">
         <f ca="1">AVERAGE(E21:J21)</f>
-        <v>0.60324322313197476</v>
+        <v>0.42612923591243862</v>
       </c>
       <c r="AF19" s="1">
         <f t="shared" ref="AF19:AF23" ca="1" si="10">STDEV(E21:J21)</f>
-        <v>0.21932726346749623</v>
+        <v>0.30139106594990417</v>
       </c>
     </row>
     <row r="20" spans="3:32" x14ac:dyDescent="0.25">
@@ -22429,27 +22429,27 @@
       </c>
       <c r="E20" s="6" cm="1">
         <f t="array" aca="1" ref="E20:J25" ca="1">'-&gt; Feed Forward'!Z14:AE19</f>
-        <v>7.7527677102695147E-2</v>
+        <v>0.45629197051728387</v>
       </c>
       <c r="F20" s="6">
         <f ca="1"/>
-        <v>0.70169443544181243</v>
+        <v>1.663321277712515E-2</v>
       </c>
       <c r="G20" s="6">
         <f ca="1"/>
-        <v>0.70967201009189496</v>
+        <v>0.51504753650608959</v>
       </c>
       <c r="H20" s="6">
         <f ca="1"/>
-        <v>0.22172844691229265</v>
+        <v>0.8601216174917361</v>
       </c>
       <c r="I20" s="6">
         <f ca="1"/>
-        <v>0.86255475272514048</v>
+        <v>0.42609209589299968</v>
       </c>
       <c r="J20" s="6">
         <f ca="1"/>
-        <v>2.4047903861851516E-2</v>
+        <v>7.9315382691333092E-2</v>
       </c>
       <c r="V20" s="44" t="s">
         <v>1</v>
@@ -22459,35 +22459,35 @@
       </c>
       <c r="X20" s="6">
         <f ca="1">(E22-$AE$20)/$AF$20</f>
-        <v>-0.95093322348339493</v>
+        <v>0.5173747632113681</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" ref="Y20:AC20" ca="1" si="11">(F22-$AE$20)/$AF$20</f>
-        <v>0.25622150124831505</v>
+        <v>0.93756088446104024</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.59796328457917303</v>
+        <v>0.32844514380420209</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0287382715829649</v>
+        <v>-0.23619843166722423</v>
       </c>
       <c r="AB20" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2676141586849916</v>
+        <v>0.34282057286784884</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.0036774234537025</v>
+        <v>-1.8900029326772336</v>
       </c>
       <c r="AE20" s="1">
         <f t="shared" ref="AE20:AE23" ca="1" si="12">AVERAGE(E22:J22)</f>
-        <v>0.40314525356525843</v>
+        <v>0.70969663287621521</v>
       </c>
       <c r="AF20" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20317247824251158</v>
+        <v>0.16477589765357073</v>
       </c>
     </row>
     <row r="21" spans="3:32" x14ac:dyDescent="0.25">
@@ -22499,27 +22499,27 @@
       </c>
       <c r="E21" s="6">
         <f ca="1"/>
-        <v>0.35055562525339834</v>
+        <v>0.69367795808196409</v>
       </c>
       <c r="F21" s="6">
         <f ca="1"/>
-        <v>0.84043263598973539</v>
+        <v>5.4412691947578251E-2</v>
       </c>
       <c r="G21" s="6">
         <f ca="1"/>
-        <v>0.39518445591638107</v>
+        <v>0.78546819752920194</v>
       </c>
       <c r="H21" s="6">
         <f ca="1"/>
-        <v>0.76961011108868438</v>
+        <v>0.34824622816472095</v>
       </c>
       <c r="I21" s="6">
         <f ca="1"/>
-        <v>0.78645173957610082</v>
+        <v>0.12124274542835112</v>
       </c>
       <c r="J21" s="6">
         <f ca="1"/>
-        <v>0.47722477096754856</v>
+        <v>0.55372759432281549</v>
       </c>
       <c r="V21" s="44" t="s">
         <v>1</v>
@@ -22529,35 +22529,35 @@
       </c>
       <c r="X21" s="6">
         <f ca="1">(E23-$AE$21)/$AF$21</f>
-        <v>-1.1698795176293881</v>
+        <v>0.44428405745660915</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" ref="Y21:AC21" ca="1" si="13">(F23-$AE$21)/$AF$21</f>
-        <v>0.73131584861999122</v>
+        <v>-0.5850868557529052</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.29609376410084087</v>
+        <v>0.86534844826342316</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3627984864197313</v>
+        <v>0.76648664753883688</v>
       </c>
       <c r="AB21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.0613111009153171</v>
+        <v>0.25757075517032002</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.15901748059585727</v>
+        <v>-1.7486030526762832</v>
       </c>
       <c r="AE21" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.52262767131477961</v>
+        <v>0.73464629898675737</v>
       </c>
       <c r="AF21" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33080115483520101</v>
+        <v>0.2644868977384604</v>
       </c>
     </row>
     <row r="22" spans="3:32" x14ac:dyDescent="0.25">
@@ -22569,27 +22569,27 @@
       </c>
       <c r="E22" s="6">
         <f ca="1"/>
-        <v>0.20994179390699697</v>
+        <v>0.79494752390767198</v>
       </c>
       <c r="F22" s="6">
         <f ca="1"/>
-        <v>0.45520241095289538</v>
+        <v>0.86418406921815882</v>
       </c>
       <c r="G22" s="6">
         <f ca="1"/>
-        <v>0.28165557113927564</v>
+        <v>0.76381647627650873</v>
       </c>
       <c r="H22" s="6">
         <f ca="1"/>
-        <v>0.61215655766568733</v>
+        <v>0.67077682427388274</v>
       </c>
       <c r="I22" s="6">
         <f ca="1"/>
-        <v>0.66068956364058451</v>
+        <v>0.76618520050462635</v>
       </c>
       <c r="J22" s="6">
         <f ca="1"/>
-        <v>0.199225624086111</v>
+        <v>0.39826970307644283</v>
       </c>
       <c r="V22" s="44" t="s">
         <v>1</v>
@@ -22599,35 +22599,35 @@
       </c>
       <c r="X22" s="6">
         <f ca="1">(E24-$AE$22)/$AF$22</f>
-        <v>0.76050264748499208</v>
+        <v>0.55216693413505902</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" ref="Y22:AC22" ca="1" si="14">(F24-$AE$22)/$AF$22</f>
-        <v>-4.0916406528669118E-2</v>
+        <v>-0.87281798224352947</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.6686882576898201</v>
+        <v>0.31023057129256992</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.54840308591150211</v>
+        <v>-0.92643141296723597</v>
       </c>
       <c r="AB22" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.42207659671912612</v>
+        <v>1.5953546348999741</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0754285059258737</v>
+        <v>-0.65850274511683671</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.59452344369979315</v>
+        <v>0.42650260631311232</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.3212406626528122</v>
+        <v>0.32467465645489219</v>
       </c>
     </row>
     <row r="23" spans="3:32" x14ac:dyDescent="0.25">
@@ -22639,27 +22639,27 @@
       </c>
       <c r="E23" s="6">
         <f ca="1"/>
-        <v>0.13563017586493009</v>
+        <v>0.85215361105811183</v>
       </c>
       <c r="F23" s="6">
         <f ca="1"/>
-        <v>0.76454779858755773</v>
+        <v>0.57989849160112139</v>
       </c>
       <c r="G23" s="6">
         <f ca="1"/>
-        <v>0.62057583041883935</v>
+        <v>0.96351962553074078</v>
       </c>
       <c r="H23" s="6">
         <f ca="1"/>
-        <v>0.9734429844300907</v>
+        <v>0.93737197455225707</v>
       </c>
       <c r="I23" s="6">
         <f ca="1"/>
-        <v>0.17154473349257415</v>
+        <v>0.80277038896990782</v>
       </c>
       <c r="J23" s="6">
         <f ca="1"/>
-        <v>0.47002450509468585</v>
+        <v>0.27216370220840558</v>
       </c>
       <c r="V23" s="44" t="s">
         <v>79</v>
@@ -22669,35 +22669,35 @@
       </c>
       <c r="X23" s="6">
         <f ca="1">(E25-$AE$23)/$AF$23</f>
-        <v>0.25969696746048876</v>
+        <v>1.1528267155516019</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" ref="Y23:AC23" ca="1" si="15">(F25-$AE$23)/$AF$23</f>
-        <v>1.6492149131998177</v>
+        <v>-0.75228005000573706</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.98956017300895671</v>
+        <v>-0.69720653110403519</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.33632244311797532</v>
+        <v>-0.48305233995140795</v>
       </c>
       <c r="AB23" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>-1.0352353737154594</v>
+        <v>1.4100652034828982</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.22043877705386777</v>
+        <v>-0.6303529979733199</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.48379009570888604</v>
+        <v>0.48937772924102441</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.2701099835032395</v>
+        <v>0.33670113977851202</v>
       </c>
     </row>
     <row r="24" spans="3:32" x14ac:dyDescent="0.25">
@@ -22709,27 +22709,27 @@
       </c>
       <c r="E24" s="6">
         <f ca="1"/>
-        <v>0.83882781812709006</v>
+        <v>0.60577721595916367</v>
       </c>
       <c r="F24" s="6">
         <f ca="1"/>
-        <v>0.58137943015315163</v>
+        <v>0.14312072778054219</v>
       </c>
       <c r="G24" s="6">
         <f ca="1"/>
-        <v>5.8472922038548703E-2</v>
+        <v>0.52722661046933239</v>
       </c>
       <c r="H24" s="6">
         <f ca="1"/>
-        <v>0.41835407298073513</v>
+        <v>0.12571380557895462</v>
       </c>
       <c r="I24" s="6">
         <f ca="1"/>
-        <v>0.73011160932008901</v>
+        <v>0.94447382432298133</v>
       </c>
       <c r="J24" s="6">
         <f ca="1"/>
-        <v>0.93999480957914461</v>
+        <v>0.21270345376769995</v>
       </c>
     </row>
     <row r="25" spans="3:32" x14ac:dyDescent="0.25">
@@ -22741,31 +22741,33 @@
       </c>
       <c r="E25" s="6">
         <f ca="1"/>
-        <v>0.55393683930547999</v>
+        <v>0.87753579833436723</v>
       </c>
       <c r="F25" s="6">
         <f ca="1"/>
-        <v>0.92925950870658536</v>
+        <v>0.23608417897145673</v>
       </c>
       <c r="G25" s="6">
         <f ca="1"/>
-        <v>0.21650001370197391</v>
+        <v>0.25462749555727315</v>
       </c>
       <c r="H25" s="6">
         <f ca="1"/>
-        <v>0.57463414527125156</v>
+        <v>0.3267334558067081</v>
       </c>
       <c r="I25" s="6">
         <f ca="1"/>
-        <v>0.20416268599263332</v>
+        <v>0.96414829041573569</v>
       </c>
       <c r="J25" s="6">
         <f ca="1"/>
-        <v>0.42424738127539152</v>
+        <v>0.27713715636060554</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
     <mergeCell ref="X4:AC4"/>
     <mergeCell ref="X5:AC5"/>
     <mergeCell ref="X15:AC15"/>
@@ -22773,8 +22775,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22785,7 +22785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5984A43-FAB3-4532-9C9A-5A647756B553}">
   <dimension ref="B2:AE74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AA54" sqref="AA54"/>
     </sheetView>
   </sheetViews>
@@ -22811,36 +22811,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="5" spans="2:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -22848,20 +22848,20 @@
       <c r="C6" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
@@ -22873,28 +22873,28 @@
       <c r="C7" s="31"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="87"/>
+      <c r="G7" s="96"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="87"/>
+      <c r="K7" s="96"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="87"/>
+      <c r="O7" s="96"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="87" t="s">
+      <c r="R7" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="87"/>
+      <c r="S7" s="96"/>
       <c r="T7" s="32"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="G9" s="6" cm="1">
         <f t="array" aca="1" ref="G9:G14" ca="1">TRANSPOSE('-&gt; Add &amp; Norm'!X7:AC7)</f>
-        <v>0.22460478240840406</v>
+        <v>-0.16485391581686509</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="K9" s="6" cm="1">
         <f t="array" aca="1" ref="K9:K14" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.53543769874361913</v>
+        <v>0.84091045004577003</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -22946,7 +22946,7 @@
       </c>
       <c r="O9" s="6" cm="1">
         <f t="array" aca="1" ref="O9:O14" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.8684918115681397</v>
+        <v>0.83028006701218371</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -22955,7 +22955,7 @@
       </c>
       <c r="S9" s="6" cm="1">
         <f t="array" aca="1" ref="S9:S14" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.5927763885281494</v>
+        <v>0.72326126155661252</v>
       </c>
       <c r="T9" s="32"/>
     </row>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="G10" s="6">
         <f ca="1"/>
-        <v>1.1475171409583802</v>
+        <v>0.36216802764017814</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -22978,7 +22978,7 @@
       </c>
       <c r="K10" s="6">
         <f ca="1"/>
-        <v>0.86638146228122404</v>
+        <v>0.65004697962782165</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -22987,7 +22987,7 @@
       </c>
       <c r="O10" s="6">
         <f ca="1"/>
-        <v>0.75117922311761753</v>
+        <v>0.334135459690307</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -22996,7 +22996,7 @@
       </c>
       <c r="S10" s="6">
         <f ca="1"/>
-        <v>0.6928890476706504</v>
+        <v>0.43493975179053912</v>
       </c>
       <c r="T10" s="32"/>
     </row>
@@ -23012,7 +23012,7 @@
       </c>
       <c r="G11" s="6">
         <f ca="1"/>
-        <v>-0.50195539808163869</v>
+        <v>0.34947987360977417</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="K11" s="6">
         <f ca="1"/>
-        <v>0.12915698264153952</v>
+        <v>0.99801583949009398</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -23030,7 +23030,7 @@
       </c>
       <c r="O11" s="6">
         <f ca="1"/>
-        <v>0.20184384655491283</v>
+        <v>0.80491018269500425</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -23039,23 +23039,23 @@
       </c>
       <c r="S11" s="6">
         <f ca="1"/>
-        <v>0.21163275515528901</v>
+        <v>0.39532804925291121</v>
       </c>
       <c r="T11" s="32"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="93"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5">
         <v>4</v>
       </c>
       <c r="G12" s="6">
         <f ca="1"/>
-        <v>-0.38815507776056363</v>
+        <v>0.97024895780034603</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -23064,7 +23064,7 @@
       </c>
       <c r="K12" s="6">
         <f ca="1"/>
-        <v>0.23754884600279569</v>
+        <v>0.54062347952227729</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -23073,7 +23073,7 @@
       </c>
       <c r="O12" s="6">
         <f ca="1"/>
-        <v>0.28481915618416598</v>
+        <v>0.82386017121604493</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -23082,7 +23082,7 @@
       </c>
       <c r="S12" s="6">
         <f ca="1"/>
-        <v>0.12480916245306162</v>
+        <v>0.69989135605747843</v>
       </c>
       <c r="T12" s="32"/>
     </row>
@@ -23096,7 +23096,7 @@
       </c>
       <c r="G13" s="6">
         <f ca="1"/>
-        <v>-1.4887969721486141</v>
+        <v>-1.9046952451381947</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -23105,7 +23105,7 @@
       </c>
       <c r="K13" s="6">
         <f ca="1"/>
-        <v>0.18627258894163412</v>
+        <v>0.61966537407994271</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -23114,7 +23114,7 @@
       </c>
       <c r="O13" s="6">
         <f ca="1"/>
-        <v>0.95825894120619659</v>
+        <v>0.78023047735335549</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -23123,7 +23123,7 @@
       </c>
       <c r="S13" s="6">
         <f ca="1"/>
-        <v>0.24291677677394263</v>
+        <v>0.60151225781330431</v>
       </c>
       <c r="T13" s="32"/>
       <c r="Z13" s="27">
@@ -23155,7 +23155,7 @@
       </c>
       <c r="G14" s="6">
         <f ca="1"/>
-        <v>1.0067855246240336</v>
+        <v>0.38765230190476119</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -23164,7 +23164,7 @@
       </c>
       <c r="K14" s="6">
         <f ca="1"/>
-        <v>3.0872782668097676E-2</v>
+        <v>0.37307334987553831</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="O14" s="6">
         <f ca="1"/>
-        <v>0.71165924434550742</v>
+        <v>0.95465198926988504</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -23182,7 +23182,7 @@
       </c>
       <c r="S14" s="6">
         <f ca="1"/>
-        <v>0.67126779573210671</v>
+        <v>0.3883382717251036</v>
       </c>
       <c r="T14" s="32"/>
       <c r="X14" s="27" t="s">
@@ -23193,27 +23193,27 @@
       </c>
       <c r="Z14" s="6" cm="1">
         <f t="array" aca="1" ref="Z14:AE19" ca="1">_xlfn.RANDARRAY(6,6,0, 1,FALSE)</f>
-        <v>7.7527677102695147E-2</v>
+        <v>0.45629197051728387</v>
       </c>
       <c r="AA14" s="6">
         <f ca="1"/>
-        <v>0.70169443544181243</v>
+        <v>1.663321277712515E-2</v>
       </c>
       <c r="AB14" s="6">
         <f ca="1"/>
-        <v>0.70967201009189496</v>
+        <v>0.51504753650608959</v>
       </c>
       <c r="AC14" s="6">
         <f ca="1"/>
-        <v>0.22172844691229265</v>
+        <v>0.8601216174917361</v>
       </c>
       <c r="AD14" s="6">
         <f ca="1"/>
-        <v>0.86255475272514048</v>
+        <v>0.42609209589299968</v>
       </c>
       <c r="AE14" s="6">
         <f ca="1"/>
-        <v>2.4047903861851516E-2</v>
+        <v>7.9315382691333092E-2</v>
       </c>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
@@ -23244,27 +23244,27 @@
       </c>
       <c r="Z15" s="6">
         <f ca="1"/>
-        <v>0.35055562525339834</v>
+        <v>0.69367795808196409</v>
       </c>
       <c r="AA15" s="6">
         <f ca="1"/>
-        <v>0.84043263598973539</v>
+        <v>5.4412691947578251E-2</v>
       </c>
       <c r="AB15" s="6">
         <f ca="1"/>
-        <v>0.39518445591638107</v>
+        <v>0.78546819752920194</v>
       </c>
       <c r="AC15" s="6">
         <f ca="1"/>
-        <v>0.76961011108868438</v>
+        <v>0.34824622816472095</v>
       </c>
       <c r="AD15" s="6">
         <f ca="1"/>
-        <v>0.78645173957610082</v>
+        <v>0.12124274542835112</v>
       </c>
       <c r="AE15" s="6">
         <f ca="1"/>
-        <v>0.47722477096754856</v>
+        <v>0.55372759432281549</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
@@ -23295,27 +23295,27 @@
       </c>
       <c r="Z16" s="3">
         <f ca="1"/>
-        <v>0.20994179390699697</v>
+        <v>0.79494752390767198</v>
       </c>
       <c r="AA16" s="3">
         <f ca="1"/>
-        <v>0.45520241095289538</v>
+        <v>0.86418406921815882</v>
       </c>
       <c r="AB16" s="3">
         <f ca="1"/>
-        <v>0.28165557113927564</v>
+        <v>0.76381647627650873</v>
       </c>
       <c r="AC16" s="3">
         <f ca="1"/>
-        <v>0.61215655766568733</v>
+        <v>0.67077682427388274</v>
       </c>
       <c r="AD16" s="3">
         <f ca="1"/>
-        <v>0.66068956364058451</v>
+        <v>0.76618520050462635</v>
       </c>
       <c r="AE16" s="3">
         <f ca="1"/>
-        <v>0.199225624086111</v>
+        <v>0.39826970307644283</v>
       </c>
     </row>
     <row r="17" spans="2:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -23338,7 +23338,7 @@
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
       <c r="T17" s="35"/>
-      <c r="V17" s="89" t="s">
+      <c r="V17" s="95" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="27" t="s">
@@ -23349,32 +23349,32 @@
       </c>
       <c r="Z17" s="3">
         <f ca="1"/>
-        <v>0.13563017586493009</v>
+        <v>0.85215361105811183</v>
       </c>
       <c r="AA17" s="3">
         <f ca="1"/>
-        <v>0.76454779858755773</v>
+        <v>0.57989849160112139</v>
       </c>
       <c r="AB17" s="3">
         <f ca="1"/>
-        <v>0.62057583041883935</v>
+        <v>0.96351962553074078</v>
       </c>
       <c r="AC17" s="3">
         <f ca="1"/>
-        <v>0.9734429844300907</v>
+        <v>0.93737197455225707</v>
       </c>
       <c r="AD17" s="3">
         <f ca="1"/>
-        <v>0.17154473349257415</v>
+        <v>0.80277038896990782</v>
       </c>
       <c r="AE17" s="3">
         <f ca="1"/>
-        <v>0.47002450509468585</v>
+        <v>0.27216370220840558</v>
       </c>
     </row>
     <row r="18" spans="2:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="28"/>
-      <c r="V18" s="89"/>
+      <c r="V18" s="95"/>
       <c r="X18" s="27" t="s">
         <v>1</v>
       </c>
@@ -23383,27 +23383,27 @@
       </c>
       <c r="Z18" s="3">
         <f ca="1"/>
-        <v>0.83882781812709006</v>
+        <v>0.60577721595916367</v>
       </c>
       <c r="AA18" s="3">
         <f ca="1"/>
-        <v>0.58137943015315163</v>
+        <v>0.14312072778054219</v>
       </c>
       <c r="AB18" s="3">
         <f ca="1"/>
-        <v>5.8472922038548703E-2</v>
+        <v>0.52722661046933239</v>
       </c>
       <c r="AC18" s="3">
         <f ca="1"/>
-        <v>0.41835407298073513</v>
+        <v>0.12571380557895462</v>
       </c>
       <c r="AD18" s="3">
         <f ca="1"/>
-        <v>0.73011160932008901</v>
+        <v>0.94447382432298133</v>
       </c>
       <c r="AE18" s="3">
         <f ca="1"/>
-        <v>0.93999480957914461</v>
+        <v>0.21270345376769995</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
@@ -23411,20 +23411,20 @@
       <c r="C19" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="88" t="s">
+      <c r="J19" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
       <c r="R19" s="29"/>
@@ -23438,27 +23438,27 @@
       </c>
       <c r="Z19" s="3">
         <f ca="1"/>
-        <v>0.55393683930547999</v>
+        <v>0.87753579833436723</v>
       </c>
       <c r="AA19" s="3">
         <f ca="1"/>
-        <v>0.92925950870658536</v>
+        <v>0.23608417897145673</v>
       </c>
       <c r="AB19" s="3">
         <f ca="1"/>
-        <v>0.21650001370197391</v>
+        <v>0.25462749555727315</v>
       </c>
       <c r="AC19" s="3">
         <f ca="1"/>
-        <v>0.57463414527125156</v>
+        <v>0.3267334558067081</v>
       </c>
       <c r="AD19" s="3">
         <f ca="1"/>
-        <v>0.20416268599263332</v>
+        <v>0.96414829041573569</v>
       </c>
       <c r="AE19" s="3">
         <f ca="1"/>
-        <v>0.42424738127539152</v>
+        <v>0.27713715636060554</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
@@ -23466,28 +23466,28 @@
       <c r="C20" s="31"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="87"/>
+      <c r="G20" s="96"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="87" t="s">
+      <c r="J20" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="87"/>
+      <c r="K20" s="96"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="87" t="s">
+      <c r="N20" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="O20" s="87"/>
+      <c r="O20" s="96"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="87" t="s">
+      <c r="R20" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="S20" s="87"/>
+      <c r="S20" s="96"/>
       <c r="T20" s="32"/>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
@@ -23521,7 +23521,7 @@
       </c>
       <c r="G22" s="6" cm="1">
         <f t="array" aca="1" ref="G22:G27" ca="1">TRANSPOSE('-&gt; Add &amp; Norm'!X12:AC12)</f>
-        <v>0.22200862426787407</v>
+        <v>-0.16603030719191378</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -23530,7 +23530,7 @@
       </c>
       <c r="K22" s="6" cm="1">
         <f t="array" aca="1" ref="K22:K27" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.45677630691720883</v>
+        <v>0.727766208942215</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -23539,7 +23539,7 @@
       </c>
       <c r="O22" s="6" cm="1">
         <f t="array" aca="1" ref="O22:O27" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.81001136295555853</v>
+        <v>0.1354045823124157</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -23548,7 +23548,7 @@
       </c>
       <c r="S22" s="6" cm="1">
         <f t="array" aca="1" ref="S22:S27" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.11881618263559957</v>
+        <v>0.62263369202299335</v>
       </c>
       <c r="T22" s="32"/>
     </row>
@@ -23562,7 +23562,7 @@
       </c>
       <c r="G23" s="6">
         <f ca="1"/>
-        <v>1.1418608713213516</v>
+        <v>0.36094457754982417</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -23571,7 +23571,7 @@
       </c>
       <c r="K23" s="6">
         <f ca="1"/>
-        <v>0.98181925175873452</v>
+        <v>0.74780215388538984</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -23580,7 +23580,7 @@
       </c>
       <c r="O23" s="6">
         <f ca="1"/>
-        <v>0.50305641531679934</v>
+        <v>8.6233061790883969E-2</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -23589,7 +23589,7 @@
       </c>
       <c r="S23" s="6">
         <f ca="1"/>
-        <v>0.68507265914970228</v>
+        <v>0.16603275630762249</v>
       </c>
       <c r="T23" s="32"/>
     </row>
@@ -23605,7 +23605,7 @@
       </c>
       <c r="G24" s="6">
         <f ca="1"/>
-        <v>-0.50124030639952344</v>
+        <v>0.34926932110897418</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -23614,7 +23614,7 @@
       </c>
       <c r="K24" s="6">
         <f ca="1"/>
-        <v>0.93320293440347069</v>
+        <v>0.48831232771269928</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -23623,7 +23623,7 @@
       </c>
       <c r="O24" s="6">
         <f ca="1"/>
-        <v>0.19741958043365293</v>
+        <v>0.45013154675776601</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -23632,23 +23632,23 @@
       </c>
       <c r="S24" s="6">
         <f ca="1"/>
-        <v>0.79701655890662559</v>
+        <v>0.45565965594938684</v>
       </c>
       <c r="T24" s="32"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="93"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5">
         <v>4</v>
       </c>
       <c r="G25" s="6">
         <f ca="1"/>
-        <v>-0.38558663509135538</v>
+        <v>0.97160253421113019</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -23657,7 +23657,7 @@
       </c>
       <c r="K25" s="6">
         <f ca="1"/>
-        <v>9.0994621644326479E-2</v>
+        <v>0.53430758344602336</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="O25" s="6">
         <f ca="1"/>
-        <v>0.37680088561302449</v>
+        <v>3.7748579068095811E-2</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -23675,7 +23675,7 @@
       </c>
       <c r="S25" s="6">
         <f ca="1"/>
-        <v>4.3029874825650793E-2</v>
+        <v>0.55041200629210763</v>
       </c>
       <c r="T25" s="32"/>
     </row>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="G26" s="6">
         <f ca="1"/>
-        <v>-1.4901526573215425</v>
+        <v>-1.9040493821250677</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -23698,7 +23698,7 @@
       </c>
       <c r="K26" s="6">
         <f ca="1"/>
-        <v>0.28854195046716424</v>
+        <v>0.34433782361194765</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -23707,7 +23707,7 @@
       </c>
       <c r="O26" s="6">
         <f ca="1"/>
-        <v>0.99628401472731709</v>
+        <v>0.54118367047365723</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -23716,7 +23716,7 @@
       </c>
       <c r="S26" s="6">
         <f ca="1"/>
-        <v>0.51492295671272381</v>
+        <v>0.55789372852532892</v>
       </c>
       <c r="T26" s="32"/>
     </row>
@@ -23730,7 +23730,7 @@
       </c>
       <c r="G27" s="6">
         <f ca="1"/>
-        <v>1.0131101032231953</v>
+        <v>0.38826325644705295</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -23739,7 +23739,7 @@
       </c>
       <c r="K27" s="6">
         <f ca="1"/>
-        <v>0.66831505113345546</v>
+        <v>0.39642984836455541</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="O27" s="6">
         <f ca="1"/>
-        <v>0.39969154243545235</v>
+        <v>0.95516189089068115</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -23757,7 +23757,7 @@
       </c>
       <c r="S27" s="6">
         <f ca="1"/>
-        <v>0.99292904753213107</v>
+        <v>0.80163068592803688</v>
       </c>
       <c r="T27" s="32"/>
     </row>
@@ -23847,16 +23847,16 @@
       </c>
       <c r="D47" s="6">
         <f ca="1"/>
-        <v>0.22460478240840406</v>
+        <v>-0.16485391581686509</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="F47" s="81" t="str">
+      <c r="F47" s="80" t="str">
         <f>"b"&amp;ROW()-46</f>
         <v>b1</v>
       </c>
-      <c r="G47" s="81"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="50" t="s">
         <v>3</v>
       </c>
@@ -23869,7 +23869,7 @@
       </c>
       <c r="K47" s="55">
         <f ca="1"/>
-        <v>0.53543769874361913</v>
+        <v>0.84091045004577003</v>
       </c>
     </row>
     <row r="48" spans="3:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -23879,16 +23879,16 @@
       </c>
       <c r="D48" s="6">
         <f ca="1"/>
-        <v>1.1475171409583802</v>
+        <v>0.36216802764017814</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="F48" s="81" t="str">
+      <c r="F48" s="80" t="str">
         <f>"b"&amp;ROW()-46</f>
         <v>b2</v>
       </c>
-      <c r="G48" s="81"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="50" t="s">
         <v>3</v>
       </c>
@@ -23901,7 +23901,7 @@
       </c>
       <c r="K48" s="55">
         <f ca="1"/>
-        <v>0.86638146228122404</v>
+        <v>0.65004697962782165</v>
       </c>
       <c r="AA48"/>
     </row>
@@ -23912,16 +23912,16 @@
       </c>
       <c r="D49" s="6">
         <f ca="1"/>
-        <v>-0.50195539808163869</v>
+        <v>0.34947987360977417</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="F49" s="81" t="str">
+      <c r="F49" s="80" t="str">
         <f>"b"&amp;ROW()-46</f>
         <v>b3</v>
       </c>
-      <c r="G49" s="81"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="50" t="s">
         <v>3</v>
       </c>
@@ -23934,7 +23934,7 @@
       </c>
       <c r="K49" s="55">
         <f ca="1"/>
-        <v>0.12915698264153952</v>
+        <v>0.99801583949009398</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
@@ -23944,16 +23944,16 @@
       </c>
       <c r="D50" s="6">
         <f ca="1"/>
-        <v>-0.38815507776056363</v>
+        <v>0.97024895780034603</v>
       </c>
       <c r="E50" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="F50" s="81" t="str">
+      <c r="F50" s="80" t="str">
         <f>"b"&amp;ROW()-46</f>
         <v>b4</v>
       </c>
-      <c r="G50" s="81"/>
+      <c r="G50" s="80"/>
       <c r="H50" s="50" t="s">
         <v>3</v>
       </c>
@@ -23966,7 +23966,7 @@
       </c>
       <c r="K50" s="55">
         <f ca="1"/>
-        <v>0.23754884600279569</v>
+        <v>0.54062347952227729</v>
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
@@ -23976,16 +23976,16 @@
       </c>
       <c r="D51" s="6">
         <f ca="1"/>
-        <v>-1.4887969721486141</v>
+        <v>-1.9046952451381947</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="F51" s="81" t="str">
+      <c r="F51" s="80" t="str">
         <f>"b"&amp;ROW()-46</f>
         <v>b5</v>
       </c>
-      <c r="G51" s="81"/>
+      <c r="G51" s="80"/>
       <c r="H51" s="50" t="s">
         <v>3</v>
       </c>
@@ -23998,7 +23998,7 @@
       </c>
       <c r="K51" s="55">
         <f ca="1"/>
-        <v>0.18627258894163412</v>
+        <v>0.61966537407994271</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
@@ -24008,15 +24008,15 @@
       </c>
       <c r="D52" s="6">
         <f ca="1"/>
-        <v>1.0067855246240336</v>
+        <v>0.38765230190476119</v>
       </c>
       <c r="E52" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="81" t="s">
+      <c r="F52" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="G52" s="81"/>
+      <c r="G52" s="80"/>
       <c r="H52" s="50" t="s">
         <v>3</v>
       </c>
@@ -24029,7 +24029,7 @@
       </c>
       <c r="K52" s="55">
         <f ca="1"/>
-        <v>3.0872782668097676E-2</v>
+        <v>0.37307334987553831</v>
       </c>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.25">
@@ -24041,18 +24041,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C19:F19"/>
     <mergeCell ref="E74:G74"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="R7:S7"/>
@@ -24069,6 +24057,18 @@
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24080,7 +24080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37ACE04C-40BC-47FD-873A-575F29AC0CCB}">
   <dimension ref="B3:AB22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
@@ -24092,11 +24092,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C14" s="83" t="s">
@@ -24227,27 +24227,27 @@
       </c>
       <c r="E17" s="6" cm="1">
         <f t="array" aca="1" ref="E17:J22" ca="1">_xlfn.ANCHORARRAY('-&gt; Add &amp; Norm'!E20)</f>
-        <v>7.7527677102695147E-2</v>
+        <v>0.45629197051728387</v>
       </c>
       <c r="F17" s="6">
         <f ca="1"/>
-        <v>0.70169443544181243</v>
+        <v>1.663321277712515E-2</v>
       </c>
       <c r="G17" s="6">
         <f ca="1"/>
-        <v>0.70967201009189496</v>
+        <v>0.51504753650608959</v>
       </c>
       <c r="H17" s="6">
         <f ca="1"/>
-        <v>0.22172844691229265</v>
+        <v>0.8601216174917361</v>
       </c>
       <c r="I17" s="6">
         <f ca="1"/>
-        <v>0.86255475272514048</v>
+        <v>0.42609209589299968</v>
       </c>
       <c r="J17" s="6">
         <f ca="1"/>
-        <v>2.4047903861851516E-2</v>
+        <v>7.9315382691333092E-2</v>
       </c>
       <c r="L17" s="38" t="s">
         <v>150</v>
@@ -24257,27 +24257,27 @@
       </c>
       <c r="N17" s="6" cm="1">
         <f t="array" aca="1" ref="N17:S17" ca="1">'Input | Output Embedding'!D14:I14</f>
-        <v>0.54492086315065724</v>
+        <v>0.7596399639103828</v>
       </c>
       <c r="O17" s="6">
         <f ca="1"/>
-        <v>0.4663825150707579</v>
+        <v>0.22179895091021606</v>
       </c>
       <c r="P17" s="6">
         <f ca="1"/>
-        <v>0.33527569492011766</v>
+        <v>0.85501393132000159</v>
       </c>
       <c r="Q17" s="6">
         <f ca="1"/>
-        <v>0.32826000768207053</v>
+        <v>0.89895163345946072</v>
       </c>
       <c r="R17" s="6">
         <f ca="1"/>
-        <v>0.86353095278553904</v>
+        <v>0.55137703133629756</v>
       </c>
       <c r="S17" s="6">
         <f ca="1"/>
-        <v>0.78719070478634179</v>
+        <v>0.17268136980347037</v>
       </c>
       <c r="U17" s="38" t="s">
         <v>121</v>
@@ -24287,27 +24287,27 @@
       </c>
       <c r="W17" s="6" cm="1">
         <f t="array" aca="1" ref="W17:AB17" ca="1">E17:J17+_xlfn.ANCHORARRAY(N17)</f>
-        <v>0.62244854025335239</v>
+        <v>1.2159319344276667</v>
       </c>
       <c r="X17" s="6">
         <f ca="1"/>
-        <v>1.1680769505125703</v>
+        <v>0.23843216368734121</v>
       </c>
       <c r="Y17" s="6">
         <f ca="1"/>
-        <v>1.0449477050120126</v>
+        <v>1.3700614678260912</v>
       </c>
       <c r="Z17" s="6">
         <f ca="1"/>
-        <v>0.54998845459436319</v>
+        <v>1.7590732509511968</v>
       </c>
       <c r="AA17" s="6">
         <f ca="1"/>
-        <v>1.7260857055106795</v>
+        <v>0.97746912722929724</v>
       </c>
       <c r="AB17" s="6">
         <f ca="1"/>
-        <v>0.8112386086481933</v>
+        <v>0.25199675249480347</v>
       </c>
     </row>
     <row r="18" spans="3:28" x14ac:dyDescent="0.25">
@@ -24319,27 +24319,27 @@
       </c>
       <c r="E18" s="6">
         <f ca="1"/>
-        <v>0.35055562525339834</v>
+        <v>0.69367795808196409</v>
       </c>
       <c r="F18" s="6">
         <f ca="1"/>
-        <v>0.84043263598973539</v>
+        <v>5.4412691947578251E-2</v>
       </c>
       <c r="G18" s="6">
         <f ca="1"/>
-        <v>0.39518445591638107</v>
+        <v>0.78546819752920194</v>
       </c>
       <c r="H18" s="6">
         <f ca="1"/>
-        <v>0.76961011108868438</v>
+        <v>0.34824622816472095</v>
       </c>
       <c r="I18" s="6">
         <f ca="1"/>
-        <v>0.78645173957610082</v>
+        <v>0.12124274542835112</v>
       </c>
       <c r="J18" s="6">
         <f ca="1"/>
-        <v>0.47722477096754856</v>
+        <v>0.55372759432281549</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -24359,27 +24359,27 @@
       </c>
       <c r="E19" s="6">
         <f ca="1"/>
-        <v>0.20994179390699697</v>
+        <v>0.79494752390767198</v>
       </c>
       <c r="F19" s="6">
         <f ca="1"/>
-        <v>0.45520241095289538</v>
+        <v>0.86418406921815882</v>
       </c>
       <c r="G19" s="6">
         <f ca="1"/>
-        <v>0.28165557113927564</v>
+        <v>0.76381647627650873</v>
       </c>
       <c r="H19" s="6">
         <f ca="1"/>
-        <v>0.61215655766568733</v>
+        <v>0.67077682427388274</v>
       </c>
       <c r="I19" s="6">
         <f ca="1"/>
-        <v>0.66068956364058451</v>
+        <v>0.76618520050462635</v>
       </c>
       <c r="J19" s="6">
         <f ca="1"/>
-        <v>0.199225624086111</v>
+        <v>0.39826970307644283</v>
       </c>
       <c r="K19" s="38" t="s">
         <v>118</v>
@@ -24405,27 +24405,27 @@
       </c>
       <c r="E20" s="6">
         <f ca="1"/>
-        <v>0.13563017586493009</v>
+        <v>0.85215361105811183</v>
       </c>
       <c r="F20" s="6">
         <f ca="1"/>
-        <v>0.76454779858755773</v>
+        <v>0.57989849160112139</v>
       </c>
       <c r="G20" s="6">
         <f ca="1"/>
-        <v>0.62057583041883935</v>
+        <v>0.96351962553074078</v>
       </c>
       <c r="H20" s="6">
         <f ca="1"/>
-        <v>0.9734429844300907</v>
+        <v>0.93737197455225707</v>
       </c>
       <c r="I20" s="6">
         <f ca="1"/>
-        <v>0.17154473349257415</v>
+        <v>0.80277038896990782</v>
       </c>
       <c r="J20" s="6">
         <f ca="1"/>
-        <v>0.47002450509468585</v>
+        <v>0.27216370220840558</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
@@ -24445,27 +24445,27 @@
       </c>
       <c r="E21" s="6">
         <f ca="1"/>
-        <v>0.83882781812709006</v>
+        <v>0.60577721595916367</v>
       </c>
       <c r="F21" s="6">
         <f ca="1"/>
-        <v>0.58137943015315163</v>
+        <v>0.14312072778054219</v>
       </c>
       <c r="G21" s="6">
         <f ca="1"/>
-        <v>5.8472922038548703E-2</v>
+        <v>0.52722661046933239</v>
       </c>
       <c r="H21" s="6">
         <f ca="1"/>
-        <v>0.41835407298073513</v>
+        <v>0.12571380557895462</v>
       </c>
       <c r="I21" s="6">
         <f ca="1"/>
-        <v>0.73011160932008901</v>
+        <v>0.94447382432298133</v>
       </c>
       <c r="J21" s="6">
         <f ca="1"/>
-        <v>0.93999480957914461</v>
+        <v>0.21270345376769995</v>
       </c>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
@@ -24485,27 +24485,27 @@
       </c>
       <c r="E22" s="6">
         <f ca="1"/>
-        <v>0.55393683930547999</v>
+        <v>0.87753579833436723</v>
       </c>
       <c r="F22" s="6">
         <f ca="1"/>
-        <v>0.92925950870658536</v>
+        <v>0.23608417897145673</v>
       </c>
       <c r="G22" s="6">
         <f ca="1"/>
-        <v>0.21650001370197391</v>
+        <v>0.25462749555727315</v>
       </c>
       <c r="H22" s="6">
         <f ca="1"/>
-        <v>0.57463414527125156</v>
+        <v>0.3267334558067081</v>
       </c>
       <c r="I22" s="6">
         <f ca="1"/>
-        <v>0.20416268599263332</v>
+        <v>0.96414829041573569</v>
       </c>
       <c r="J22" s="6">
         <f ca="1"/>
-        <v>0.42424738127539152</v>
+        <v>0.27713715636060554</v>
       </c>
       <c r="U22" s="38"/>
       <c r="V22" s="38"/>

--- a/Transformers Appendix.xlsx
+++ b/Transformers Appendix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgonzales21\Downloads\IE things\IE things\Major Projects\Building-a-Transformer-from-scratch-using-Pytorch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B2BF7C-421A-4F9E-8163-7072FDC0D8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EE79B5-4303-4D43-8CE1-DC8761F42974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="863" activeTab="10" xr2:uid="{B6E777E1-0DF3-4A26-B79D-D8B12E8CCB74}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="863" activeTab="6" xr2:uid="{B6E777E1-0DF3-4A26-B79D-D8B12E8CCB74}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Architecture" sheetId="13" r:id="rId1"/>
@@ -708,9 +708,6 @@
   </si>
   <si>
     <t>Layer 1</t>
-  </si>
-  <si>
-    <t>Layer 2</t>
   </si>
   <si>
     <t>Hidden Layers</t>
@@ -1415,6 +1412,9 @@
   <si>
     <t>w512</t>
   </si>
+  <si>
+    <t>Layer n</t>
+  </si>
 </sst>
 </file>
 
@@ -2014,10 +2014,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2035,14 +2035,14 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2050,19 +2050,19 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -12628,16 +12628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>727234</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>125729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>163115</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>16193</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69533</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12656,8 +12656,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2821781" y="1983104"/>
-          <a:ext cx="2091928" cy="3950495"/>
+          <a:off x="2501265" y="1983104"/>
+          <a:ext cx="2412444" cy="3479960"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12685,16 +12685,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>20003</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>280034</xdr:colOff>
+      <xdr:colOff>287654</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12709,8 +12709,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1214437" y="5937409"/>
-          <a:ext cx="3208972" cy="1366837"/>
+          <a:off x="571500" y="5463064"/>
+          <a:ext cx="3859529" cy="1899285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12749,13 +12749,13 @@
             <a:rPr lang="en-PH" sz="1000" b="1" baseline="0">
               <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Each value in the input layer</a:t>
+            <a:t>Each value in the 512-embedding</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-PH" sz="1000" baseline="0">
               <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> is multiplied to a weight, summed, added a bias, then subjected to linear transformation (sigmoid, reLu, etc.). We then compute for the </a:t>
+            <a:t> is multiplied to a weight. all these 512 weight x value are summed to a single value, then added a bias, then subjected to a non-linear transformation (sigmoid, reLu, etc.). This will be the value of a single neuron. Thus, each 2048 neurons has its own set of 512 weights and 2048 biases. We then compute for the </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-PH" sz="1000" b="1" baseline="0">
@@ -12944,7 +12944,7 @@
             <a:rPr lang="en-PH" sz="1000">
               <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>linearly</a:t>
+            <a:t>non-linearly</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-PH" sz="1000" baseline="0">
@@ -13124,6 +13124,124 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>137156</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F17F03-73F4-AC64-B7E4-28BF2C30E40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8388187" y="169068"/>
+          <a:ext cx="6149344" cy="499587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1000">
+              <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>In the paper, there are </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1000" b="1">
+              <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>6 layers </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1000">
+              <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>in the neural network.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1000" baseline="0">
+              <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Each layer has sublayers: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Multihead Attention Layer </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1000" baseline="0">
+              <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(w/ Layer Normalization), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Position-Wise Fully Connected Feed-Forward Network </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1000" baseline="0">
+              <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(w/ Layer Normalization)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="1000">
+            <a:latin typeface="Bierstadt" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14636,7 +14754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8FFDF9-96BB-4D2E-9819-CDD679E8AB7B}">
   <dimension ref="B2:W56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
@@ -14656,37 +14774,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="79"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G5" s="79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I6" s="83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" s="83"/>
       <c r="K6" s="83"/>
@@ -14696,17 +14814,17 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="79"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="I7" s="83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="83"/>
@@ -14715,53 +14833,53 @@
       <c r="N7" s="83"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="81"/>
       <c r="F8" s="38"/>
       <c r="I8" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>107</v>
-      </c>
       <c r="L8" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M8" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O8" s="36" t="s">
         <v>26</v>
       </c>
       <c r="Q8" s="79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R8" s="79"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="80"/>
+      <c r="B9" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="81"/>
       <c r="F9" s="38"/>
       <c r="H9" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9" s="21">
         <v>1</v>
@@ -14784,24 +14902,24 @@
       <c r="O9" s="36">
         <v>1</v>
       </c>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="80"/>
+      <c r="B10" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="81"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="6">
         <v>0.11</v>
@@ -14823,23 +14941,23 @@
         <v>0.32</v>
       </c>
       <c r="O10" s="36"/>
-      <c r="Q10" s="80" t="s">
+      <c r="Q10" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="81"/>
+      <c r="S10" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="80"/>
-      <c r="S10" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="38"/>
       <c r="H11" s="36"/>
       <c r="I11" s="20"/>
@@ -14849,18 +14967,18 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="36"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="80"/>
+      <c r="B12" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="81"/>
       <c r="F12" s="38"/>
       <c r="H12" s="36"/>
       <c r="I12" s="20"/>
@@ -14870,8 +14988,8 @@
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="38"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
       <c r="S12" s="38"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -14881,7 +14999,7 @@
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="H13" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -14890,8 +15008,8 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="38"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
       <c r="S13" s="38"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -14914,13 +15032,13 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G15" s="79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15" s="79"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I16" s="83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
@@ -14930,7 +15048,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I17" s="83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J17" s="83"/>
       <c r="K17" s="83"/>
@@ -14940,35 +15058,35 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I18" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>107</v>
-      </c>
       <c r="L18" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M18" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O18" s="38" t="s">
         <v>26</v>
       </c>
       <c r="Q18" s="79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R18" s="79"/>
       <c r="S18" s="38"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H19" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I19" s="21">
         <v>1</v>
@@ -14991,15 +15109,15 @@
       <c r="O19" s="38">
         <v>1</v>
       </c>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G20" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="6">
         <v>0.11</v>
@@ -15023,20 +15141,20 @@
       <c r="O20" s="38">
         <v>1</v>
       </c>
-      <c r="Q20" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="R20" s="80"/>
+      <c r="Q20" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" s="81"/>
       <c r="S20" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G21" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I21" s="6">
         <v>0.1</v>
@@ -15059,12 +15177,12 @@
       <c r="O21" s="38">
         <v>1</v>
       </c>
-      <c r="Q21" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="R21" s="80"/>
+      <c r="Q21" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="81"/>
       <c r="S21" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -15076,13 +15194,13 @@
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="38"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
       <c r="S22" s="38"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H23" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="20"/>
@@ -15091,8 +15209,8 @@
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="38"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
       <c r="S23" s="38"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
@@ -15117,11 +15235,11 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G26" s="79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" s="79"/>
       <c r="I26" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J26" s="98"/>
       <c r="K26" s="98"/>
@@ -15131,7 +15249,7 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I29" s="83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J29" s="83"/>
       <c r="K29" s="83"/>
@@ -15146,7 +15264,7 @@
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
       <c r="I30" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J30" s="83"/>
       <c r="K30" s="83"/>
@@ -15161,28 +15279,28 @@
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
       <c r="I31" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="L31" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M31" s="36" t="s">
         <v>1</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O31" s="36" t="s">
         <v>26</v>
       </c>
       <c r="Q31" s="79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R31" s="79"/>
     </row>
@@ -15193,7 +15311,7 @@
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="H32" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" s="21">
         <v>1</v>
@@ -15216,8 +15334,8 @@
       <c r="O32" s="38">
         <v>1</v>
       </c>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="80"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="41"/>
@@ -15226,7 +15344,7 @@
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="H33" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I33" s="6">
         <v>0</v>
@@ -15249,12 +15367,12 @@
       <c r="O33" s="38">
         <v>1</v>
       </c>
-      <c r="Q33" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="R33" s="80"/>
+      <c r="Q33" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="R33" s="81"/>
       <c r="S33" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
@@ -15264,7 +15382,7 @@
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="H34" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I34" s="6">
         <v>0</v>
@@ -15287,12 +15405,12 @@
       <c r="O34" s="38">
         <v>1</v>
       </c>
-      <c r="Q34" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="R34" s="80"/>
+      <c r="Q34" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="R34" s="81"/>
       <c r="S34" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
@@ -15302,7 +15420,7 @@
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
       <c r="H35" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I35" s="6">
         <v>0</v>
@@ -15325,17 +15443,17 @@
       <c r="O35" s="38">
         <v>1</v>
       </c>
-      <c r="Q35" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="R35" s="80"/>
+      <c r="Q35" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="R35" s="81"/>
       <c r="S35" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H36" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="6">
         <v>0</v>
@@ -15358,12 +15476,12 @@
       <c r="O36" s="38">
         <v>1</v>
       </c>
-      <c r="Q36" s="80"/>
-      <c r="R36" s="80"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="39"/>
@@ -15372,7 +15490,7 @@
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I39" s="83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J39" s="83"/>
       <c r="K39" s="83"/>
@@ -15380,7 +15498,7 @@
       <c r="M39" s="83"/>
       <c r="N39" s="83"/>
       <c r="R39" s="83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S39" s="83"/>
       <c r="T39" s="83"/>
@@ -15390,7 +15508,7 @@
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I40" s="83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J40" s="83"/>
       <c r="K40" s="83"/>
@@ -15398,7 +15516,7 @@
       <c r="M40" s="83"/>
       <c r="N40" s="83"/>
       <c r="R40" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S40" s="83"/>
       <c r="T40" s="83"/>
@@ -15408,45 +15526,45 @@
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I41" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J41" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41" s="38" t="s">
-        <v>107</v>
-      </c>
       <c r="L41" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M41" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N41" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="R41" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="S41" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="T41" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="U41" s="38" t="s">
         <v>84</v>
-      </c>
-      <c r="R41" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="S41" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="T41" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="U41" s="38" t="s">
-        <v>85</v>
       </c>
       <c r="V41" s="38" t="s">
         <v>1</v>
       </c>
       <c r="W41" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H42" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I42" s="21">
         <v>1</v>
@@ -15467,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R42" s="21">
         <v>1</v>
@@ -15490,7 +15608,7 @@
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H43" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I43" s="6">
         <v>0.11</v>
@@ -15512,7 +15630,7 @@
         <v>0.32</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R43" s="6">
         <v>0</v>
@@ -15535,7 +15653,7 @@
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H44" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I44" s="6">
         <v>0.1</v>
@@ -15556,7 +15674,7 @@
         <v>0.1</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R44" s="6">
         <v>0</v>
@@ -15579,7 +15697,7 @@
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H45" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I45" s="6">
         <v>0.1</v>
@@ -15600,7 +15718,7 @@
         <v>0.1</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R45" s="6">
         <v>0</v>
@@ -15623,7 +15741,7 @@
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H46" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I46" s="6">
         <v>0</v>
@@ -15643,12 +15761,12 @@
       <c r="N46" s="6">
         <v>0</v>
       </c>
-      <c r="O46" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="P46" s="80"/>
+      <c r="O46" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="P46" s="81"/>
       <c r="Q46" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R46" s="6">
         <v>0</v>
@@ -15671,10 +15789,10 @@
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" s="51" t="s">
         <v>135</v>
-      </c>
-      <c r="I50" s="51" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.25">
@@ -15729,23 +15847,22 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="R39:W39"/>
-    <mergeCell ref="R40:W40"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="I30:N30"/>
     <mergeCell ref="I7:N7"/>
     <mergeCell ref="Q23:R23"/>
@@ -15762,22 +15879,23 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="R39:W39"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15804,20 +15922,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
+      <c r="B2" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="83"/>
       <c r="D3" s="83"/>
@@ -15829,7 +15947,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="79"/>
       <c r="D5" s="40">
@@ -15852,188 +15970,188 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="21" cm="1">
         <f t="array" aca="1" ref="D6:I11" ca="1">M19:R24</f>
-        <v>0.90872111650614062</v>
+        <v>0.64514925270755108</v>
       </c>
       <c r="E6" s="21">
         <f ca="1"/>
-        <v>0.41950105446173236</v>
+        <v>0.86674816494207296</v>
       </c>
       <c r="F6" s="21">
         <f ca="1"/>
-        <v>0.98532794396176171</v>
+        <v>0.52090202049857659</v>
       </c>
       <c r="G6" s="21">
         <f ca="1"/>
-        <v>0.75965925776753918</v>
+        <v>0.18455290094345345</v>
       </c>
       <c r="H6" s="21">
         <f ca="1"/>
-        <v>0.44670157327956894</v>
+        <v>0.33696776864117428</v>
       </c>
       <c r="I6" s="21">
         <f ca="1"/>
-        <v>0.11564453181711887</v>
+        <v>0.87500129415535355</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="21">
         <f ca="1"/>
-        <v>0.68934114829880566</v>
+        <v>0.40956696936064807</v>
       </c>
       <c r="E7" s="21">
         <f ca="1"/>
-        <v>0.63856488162821257</v>
+        <v>0.5172048509106455</v>
       </c>
       <c r="F7" s="21">
         <f ca="1"/>
-        <v>0.6123681892266597</v>
+        <v>0.70198651970790937</v>
       </c>
       <c r="G7" s="21">
         <f ca="1"/>
-        <v>0.83027961516572835</v>
+        <v>0.96294126296852989</v>
       </c>
       <c r="H7" s="21">
         <f ca="1"/>
-        <v>0.76675804522259927</v>
+        <v>0.66151225686328319</v>
       </c>
       <c r="I7" s="21">
         <f ca="1"/>
-        <v>0.32679804365522425</v>
+        <v>0.23949506560726941</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="47">
         <f ca="1"/>
-        <v>0.93935930558814151</v>
+        <v>0.51189562918089959</v>
       </c>
       <c r="E8" s="47">
         <f ca="1"/>
-        <v>0.6526689326464763</v>
+        <v>0.14631238698015481</v>
       </c>
       <c r="F8" s="47">
         <f ca="1"/>
-        <v>0.54014510484510647</v>
+        <v>0.1064318137084459</v>
       </c>
       <c r="G8" s="47">
         <f ca="1"/>
-        <v>0.47486176268501756</v>
+        <v>0.72505880361872488</v>
       </c>
       <c r="H8" s="47">
         <f ca="1"/>
-        <v>0.77316671356585798</v>
+        <v>0.11793777468517797</v>
       </c>
       <c r="I8" s="47">
         <f ca="1"/>
-        <v>0.5192391784489685</v>
+        <v>0.42618523308597744</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="80"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="21">
         <f ca="1"/>
-        <v>0.14709005235265904</v>
+        <v>0.66705581474789732</v>
       </c>
       <c r="E9" s="21">
         <f ca="1"/>
-        <v>0.4433359395477976</v>
+        <v>0.51828420488275673</v>
       </c>
       <c r="F9" s="21">
         <f ca="1"/>
-        <v>0.20316319582880493</v>
+        <v>0.23006559188227205</v>
       </c>
       <c r="G9" s="21">
         <f ca="1"/>
-        <v>0.58860668743828648</v>
+        <v>0.35309632256657064</v>
       </c>
       <c r="H9" s="21">
         <f ca="1"/>
-        <v>0.21286940644914498</v>
+        <v>0.11556309485171901</v>
       </c>
       <c r="I9" s="21">
         <f ca="1"/>
-        <v>0.77112070220831619</v>
+        <v>0.19844669485280186</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="21">
         <f ca="1"/>
-        <v>0.44380562334547036</v>
+        <v>0.9262370280474943</v>
       </c>
       <c r="E10" s="21">
         <f ca="1"/>
-        <v>0.51485569427480771</v>
+        <v>0.81536034351041287</v>
       </c>
       <c r="F10" s="21">
         <f ca="1"/>
-        <v>0.31040265847801995</v>
+        <v>0.56581276174414064</v>
       </c>
       <c r="G10" s="21">
         <f ca="1"/>
-        <v>0.74085010614831925</v>
+        <v>0.22241592204446348</v>
       </c>
       <c r="H10" s="21">
         <f ca="1"/>
-        <v>0.41477111995241001</v>
+        <v>0.35157912441251149</v>
       </c>
       <c r="I10" s="21">
         <f ca="1"/>
-        <v>0.40189674854374369</v>
+        <v>0.92662048623709303</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="80"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="21">
         <f ca="1"/>
-        <v>0.42110657325036271</v>
+        <v>0.46941316899764707</v>
       </c>
       <c r="E11" s="21">
         <f ca="1"/>
-        <v>0.15777999609298599</v>
+        <v>0.79358790151406722</v>
       </c>
       <c r="F11" s="21">
         <f ca="1"/>
-        <v>0.10127082007773991</v>
+        <v>0.385917234902726</v>
       </c>
       <c r="G11" s="21">
         <f ca="1"/>
-        <v>0.25988719571699526</v>
+        <v>0.15348684268728419</v>
       </c>
       <c r="H11" s="21">
         <f ca="1"/>
-        <v>0.5413891118684766</v>
+        <v>0.41482730860971984</v>
       </c>
       <c r="I11" s="21">
         <f ca="1"/>
-        <v>0.99451479889298366</v>
+        <v>0.73913718291780173</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40">
@@ -16056,100 +16174,100 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="80"/>
+      <c r="B14" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="81"/>
       <c r="D14" s="22" cm="1">
         <f t="array" aca="1" ref="D14:I16" ca="1">V19:AA21</f>
-        <v>0.7596399639103828</v>
+        <v>0.54320940982524868</v>
       </c>
       <c r="E14" s="22">
         <f ca="1"/>
-        <v>0.22179895091021606</v>
+        <v>0.53624664930602139</v>
       </c>
       <c r="F14" s="22">
         <f ca="1"/>
-        <v>0.85501393132000159</v>
+        <v>0.33498850358295429</v>
       </c>
       <c r="G14" s="22">
         <f ca="1"/>
-        <v>0.89895163345946072</v>
+        <v>0.83549258846299446</v>
       </c>
       <c r="H14" s="22">
         <f ca="1"/>
-        <v>0.55137703133629756</v>
+        <v>0.94540161505829912</v>
       </c>
       <c r="I14" s="22">
         <f ca="1"/>
-        <v>0.17268136980347037</v>
+        <v>0.97219468279040933</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="80"/>
+      <c r="B15" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="81"/>
       <c r="D15" s="22">
         <f ca="1"/>
-        <v>0.97866170133938279</v>
+        <v>0.66280967158076409</v>
       </c>
       <c r="E15" s="22">
         <f ca="1"/>
-        <v>0.65804253698211257</v>
+        <v>0.1812177889047446</v>
       </c>
       <c r="F15" s="22">
         <f ca="1"/>
-        <v>0.64760281159828836</v>
+        <v>0.6156285639417145</v>
       </c>
       <c r="G15" s="22">
         <f ca="1"/>
-        <v>0.76597509104431283</v>
+        <v>0.26924451799260929</v>
       </c>
       <c r="H15" s="22">
         <f ca="1"/>
-        <v>0.73353878529468153</v>
+        <v>0.12326728918644747</v>
       </c>
       <c r="I15" s="22">
         <f ca="1"/>
-        <v>0.85519032153264929</v>
+        <v>0.14703248382782719</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="80"/>
+      <c r="B16" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="81"/>
       <c r="D16" s="49">
         <f ca="1"/>
-        <v>0.38876975562431726</v>
+        <v>0.42336864600758073</v>
       </c>
       <c r="E16" s="49">
         <f ca="1"/>
-        <v>0.9215029365824805</v>
+        <v>0.15625984741611254</v>
       </c>
       <c r="F16" s="49">
         <f ca="1"/>
-        <v>0.90245356915997821</v>
+        <v>0.84265826481719008</v>
       </c>
       <c r="G16" s="49">
         <f ca="1"/>
-        <v>0.83340120130683371</v>
+        <v>0.72921715166088541</v>
       </c>
       <c r="H16" s="49">
         <f ca="1"/>
-        <v>0.84966739627125487</v>
+        <v>0.21955180499909654</v>
       </c>
       <c r="I16" s="49">
         <f ca="1"/>
-        <v>0.32575922393905743</v>
+        <v>0.64458497891914068</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="80"/>
+      <c r="B17" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="81"/>
       <c r="D17" s="6">
         <v>0</v>
       </c>
@@ -16170,10 +16288,10 @@
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="80"/>
+      <c r="B18" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="81"/>
       <c r="D18" s="6">
         <v>0</v>
       </c>
@@ -16193,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L18" s="79"/>
       <c r="M18" s="40">
@@ -16215,7 +16333,7 @@
         <v>512</v>
       </c>
       <c r="T18" s="79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U18" s="79"/>
       <c r="V18" s="40">
@@ -16238,10 +16356,10 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="80"/>
+      <c r="B19" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="81"/>
       <c r="D19" s="6">
         <v>0</v>
       </c>
@@ -16265,54 +16383,54 @@
       </c>
       <c r="M19" s="21" cm="1">
         <f t="array" aca="1" ref="M19:R27" ca="1">_xlfn.RANDARRAY(9, 6, 0.1,1,FALSE)</f>
-        <v>0.90872111650614062</v>
+        <v>0.64514925270755108</v>
       </c>
       <c r="N19" s="21">
         <f ca="1"/>
-        <v>0.41950105446173236</v>
+        <v>0.86674816494207296</v>
       </c>
       <c r="O19" s="21">
         <f ca="1"/>
-        <v>0.98532794396176171</v>
+        <v>0.52090202049857659</v>
       </c>
       <c r="P19" s="21">
         <f ca="1"/>
-        <v>0.75965925776753918</v>
+        <v>0.18455290094345345</v>
       </c>
       <c r="Q19" s="21">
         <f ca="1"/>
-        <v>0.44670157327956894</v>
+        <v>0.33696776864117428</v>
       </c>
       <c r="R19" s="21">
         <f ca="1"/>
-        <v>0.11564453181711887</v>
+        <v>0.87500129415535355</v>
       </c>
       <c r="U19" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V19" s="22" cm="1">
         <f t="array" aca="1" ref="V19:AA27" ca="1">_xlfn.RANDARRAY(9, 6, 0.1,1,FALSE)</f>
-        <v>0.7596399639103828</v>
+        <v>0.54320940982524868</v>
       </c>
       <c r="W19" s="22">
         <f ca="1"/>
-        <v>0.22179895091021606</v>
+        <v>0.53624664930602139</v>
       </c>
       <c r="X19" s="22">
         <f ca="1"/>
-        <v>0.85501393132000159</v>
+        <v>0.33498850358295429</v>
       </c>
       <c r="Y19" s="22">
         <f ca="1"/>
-        <v>0.89895163345946072</v>
+        <v>0.83549258846299446</v>
       </c>
       <c r="Z19" s="22">
         <f ca="1"/>
-        <v>0.55137703133629756</v>
+        <v>0.94540161505829912</v>
       </c>
       <c r="AA19" s="22">
         <f ca="1"/>
-        <v>0.17268136980347037</v>
+        <v>0.97219468279040933</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -16321,54 +16439,54 @@
       </c>
       <c r="M20" s="21">
         <f ca="1"/>
-        <v>0.68934114829880566</v>
+        <v>0.40956696936064807</v>
       </c>
       <c r="N20" s="21">
         <f ca="1"/>
-        <v>0.63856488162821257</v>
+        <v>0.5172048509106455</v>
       </c>
       <c r="O20" s="21">
         <f ca="1"/>
-        <v>0.6123681892266597</v>
+        <v>0.70198651970790937</v>
       </c>
       <c r="P20" s="21">
         <f ca="1"/>
-        <v>0.83027961516572835</v>
+        <v>0.96294126296852989</v>
       </c>
       <c r="Q20" s="21">
         <f ca="1"/>
-        <v>0.76675804522259927</v>
+        <v>0.66151225686328319</v>
       </c>
       <c r="R20" s="21">
         <f ca="1"/>
-        <v>0.32679804365522425</v>
+        <v>0.23949506560726941</v>
       </c>
       <c r="U20" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V20" s="22">
         <f ca="1"/>
-        <v>0.97866170133938279</v>
+        <v>0.66280967158076409</v>
       </c>
       <c r="W20" s="22">
         <f ca="1"/>
-        <v>0.65804253698211257</v>
+        <v>0.1812177889047446</v>
       </c>
       <c r="X20" s="22">
         <f ca="1"/>
-        <v>0.64760281159828836</v>
+        <v>0.6156285639417145</v>
       </c>
       <c r="Y20" s="22">
         <f ca="1"/>
-        <v>0.76597509104431283</v>
+        <v>0.26924451799260929</v>
       </c>
       <c r="Z20" s="22">
         <f ca="1"/>
-        <v>0.73353878529468153</v>
+        <v>0.12326728918644747</v>
       </c>
       <c r="AA20" s="22">
         <f ca="1"/>
-        <v>0.85519032153264929</v>
+        <v>0.14703248382782719</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -16377,59 +16495,59 @@
       </c>
       <c r="M21" s="21">
         <f ca="1"/>
-        <v>0.93935930558814151</v>
+        <v>0.51189562918089959</v>
       </c>
       <c r="N21" s="21">
         <f ca="1"/>
-        <v>0.6526689326464763</v>
+        <v>0.14631238698015481</v>
       </c>
       <c r="O21" s="21">
         <f ca="1"/>
-        <v>0.54014510484510647</v>
+        <v>0.1064318137084459</v>
       </c>
       <c r="P21" s="21">
         <f ca="1"/>
-        <v>0.47486176268501756</v>
+        <v>0.72505880361872488</v>
       </c>
       <c r="Q21" s="21">
         <f ca="1"/>
-        <v>0.77316671356585798</v>
+        <v>0.11793777468517797</v>
       </c>
       <c r="R21" s="21">
         <f ca="1"/>
-        <v>0.5192391784489685</v>
+        <v>0.42618523308597744</v>
       </c>
       <c r="U21" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V21" s="22">
         <f ca="1"/>
-        <v>0.38876975562431726</v>
+        <v>0.42336864600758073</v>
       </c>
       <c r="W21" s="22">
         <f ca="1"/>
-        <v>0.9215029365824805</v>
+        <v>0.15625984741611254</v>
       </c>
       <c r="X21" s="22">
         <f ca="1"/>
-        <v>0.90245356915997821</v>
+        <v>0.84265826481719008</v>
       </c>
       <c r="Y21" s="22">
         <f ca="1"/>
-        <v>0.83340120130683371</v>
+        <v>0.72921715166088541</v>
       </c>
       <c r="Z21" s="22">
         <f ca="1"/>
-        <v>0.84966739627125487</v>
+        <v>0.21955180499909654</v>
       </c>
       <c r="AA21" s="22">
         <f ca="1"/>
-        <v>0.32575922393905743</v>
+        <v>0.64458497891914068</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="82"/>
       <c r="D22" s="82"/>
@@ -16443,54 +16561,54 @@
       </c>
       <c r="M22" s="21">
         <f ca="1"/>
-        <v>0.14709005235265904</v>
+        <v>0.66705581474789732</v>
       </c>
       <c r="N22" s="21">
         <f ca="1"/>
-        <v>0.4433359395477976</v>
+        <v>0.51828420488275673</v>
       </c>
       <c r="O22" s="21">
         <f ca="1"/>
-        <v>0.20316319582880493</v>
+        <v>0.23006559188227205</v>
       </c>
       <c r="P22" s="21">
         <f ca="1"/>
-        <v>0.58860668743828648</v>
+        <v>0.35309632256657064</v>
       </c>
       <c r="Q22" s="21">
         <f ca="1"/>
-        <v>0.21286940644914498</v>
+        <v>0.11556309485171901</v>
       </c>
       <c r="R22" s="21">
         <f ca="1"/>
-        <v>0.77112070220831619</v>
+        <v>0.19844669485280186</v>
       </c>
       <c r="U22" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V22" s="6">
         <f ca="1"/>
-        <v>0.57052675758072824</v>
+        <v>0.96443235857247189</v>
       </c>
       <c r="W22" s="6">
         <f ca="1"/>
-        <v>0.27234881896957952</v>
+        <v>0.38020277308970662</v>
       </c>
       <c r="X22" s="6">
         <f ca="1"/>
-        <v>0.44768755038393193</v>
+        <v>0.66818558305416031</v>
       </c>
       <c r="Y22" s="6">
         <f ca="1"/>
-        <v>0.94016873547276525</v>
+        <v>0.79997607333354659</v>
       </c>
       <c r="Z22" s="6">
         <f ca="1"/>
-        <v>0.39307183339089224</v>
+        <v>0.50793788573212884</v>
       </c>
       <c r="AA22" s="6">
         <f ca="1"/>
-        <v>0.64482184987685209</v>
+        <v>0.54606060006661972</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -16499,59 +16617,59 @@
       </c>
       <c r="M23" s="21">
         <f ca="1"/>
-        <v>0.44380562334547036</v>
+        <v>0.9262370280474943</v>
       </c>
       <c r="N23" s="21">
         <f ca="1"/>
-        <v>0.51485569427480771</v>
+        <v>0.81536034351041287</v>
       </c>
       <c r="O23" s="21">
         <f ca="1"/>
-        <v>0.31040265847801995</v>
+        <v>0.56581276174414064</v>
       </c>
       <c r="P23" s="21">
         <f ca="1"/>
-        <v>0.74085010614831925</v>
+        <v>0.22241592204446348</v>
       </c>
       <c r="Q23" s="21">
         <f ca="1"/>
-        <v>0.41477111995241001</v>
+        <v>0.35157912441251149</v>
       </c>
       <c r="R23" s="21">
         <f ca="1"/>
-        <v>0.40189674854374369</v>
+        <v>0.92662048623709303</v>
       </c>
       <c r="U23" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V23" s="6">
         <f ca="1"/>
-        <v>0.88016573990737035</v>
+        <v>0.15035819177461818</v>
       </c>
       <c r="W23" s="6">
         <f ca="1"/>
-        <v>0.15609465872035</v>
+        <v>0.92636524536266762</v>
       </c>
       <c r="X23" s="6">
         <f ca="1"/>
-        <v>0.22829097769241891</v>
+        <v>0.3541035717058505</v>
       </c>
       <c r="Y23" s="6">
         <f ca="1"/>
-        <v>0.57034219816301213</v>
+        <v>0.64689937190708613</v>
       </c>
       <c r="Z23" s="6">
         <f ca="1"/>
-        <v>0.90517684179968794</v>
+        <v>0.89875438636669647</v>
       </c>
       <c r="AA23" s="6">
         <f ca="1"/>
-        <v>0.55660884601488281</v>
+        <v>0.3624430919993531</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="79"/>
@@ -16562,110 +16680,110 @@
       </c>
       <c r="M24" s="21">
         <f ca="1"/>
-        <v>0.42110657325036271</v>
+        <v>0.46941316899764707</v>
       </c>
       <c r="N24" s="21">
         <f ca="1"/>
-        <v>0.15777999609298599</v>
+        <v>0.79358790151406722</v>
       </c>
       <c r="O24" s="21">
         <f ca="1"/>
-        <v>0.10127082007773991</v>
+        <v>0.385917234902726</v>
       </c>
       <c r="P24" s="21">
         <f ca="1"/>
-        <v>0.25988719571699526</v>
+        <v>0.15348684268728419</v>
       </c>
       <c r="Q24" s="21">
         <f ca="1"/>
-        <v>0.5413891118684766</v>
+        <v>0.41482730860971984</v>
       </c>
       <c r="R24" s="21">
         <f ca="1"/>
-        <v>0.99451479889298366</v>
+        <v>0.73913718291780173</v>
       </c>
       <c r="U24" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V24" s="6">
         <f ca="1"/>
-        <v>0.80723928661933919</v>
+        <v>0.35343095875658026</v>
       </c>
       <c r="W24" s="6">
         <f ca="1"/>
-        <v>0.615856878464899</v>
+        <v>0.41219290750369808</v>
       </c>
       <c r="X24" s="6">
         <f ca="1"/>
-        <v>0.40341680027936633</v>
+        <v>0.32615243081445455</v>
       </c>
       <c r="Y24" s="6">
         <f ca="1"/>
-        <v>0.44026169824601014</v>
+        <v>0.39883282804587328</v>
       </c>
       <c r="Z24" s="6">
         <f ca="1"/>
-        <v>0.24076959893718763</v>
+        <v>0.52659151335452159</v>
       </c>
       <c r="AA24" s="6">
         <f ca="1"/>
-        <v>0.17327040378993508</v>
+        <v>0.44767317743967672</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="L25" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M25" s="6">
         <f ca="1"/>
-        <v>0.45013119595524698</v>
+        <v>0.97475764211899896</v>
       </c>
       <c r="N25" s="6">
         <f ca="1"/>
-        <v>0.88394571071490446</v>
+        <v>0.78931158142311242</v>
       </c>
       <c r="O25" s="6">
         <f ca="1"/>
-        <v>0.67068921961378281</v>
+        <v>0.42683576399290679</v>
       </c>
       <c r="P25" s="6">
         <f ca="1"/>
-        <v>0.45886380190161336</v>
+        <v>0.15791561532220677</v>
       </c>
       <c r="Q25" s="6">
         <f ca="1"/>
-        <v>0.94149561602976184</v>
+        <v>0.91998363133760575</v>
       </c>
       <c r="R25" s="6">
         <f ca="1"/>
-        <v>0.51296694153587996</v>
+        <v>0.64623915519910891</v>
       </c>
       <c r="U25" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V25" s="6">
         <f ca="1"/>
-        <v>0.20352740439865502</v>
+        <v>0.54451744270642255</v>
       </c>
       <c r="W25" s="6">
         <f ca="1"/>
-        <v>0.46351290905296127</v>
+        <v>0.62842265220378746</v>
       </c>
       <c r="X25" s="6">
         <f ca="1"/>
-        <v>0.26322953405460803</v>
+        <v>0.89903541959467681</v>
       </c>
       <c r="Y25" s="6">
         <f ca="1"/>
-        <v>0.44188897966051943</v>
+        <v>0.61638118114789897</v>
       </c>
       <c r="Z25" s="6">
         <f ca="1"/>
-        <v>0.67717427006581765</v>
+        <v>0.27138338718269206</v>
       </c>
       <c r="AA25" s="6">
         <f ca="1"/>
-        <v>0.98777958953326084</v>
+        <v>0.95899737022357678</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
@@ -16689,63 +16807,63 @@
         <v>cat</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M26" s="6">
         <f ca="1"/>
-        <v>0.48971475822075683</v>
+        <v>0.37938968032102927</v>
       </c>
       <c r="N26" s="6">
         <f ca="1"/>
-        <v>0.56208901554620416</v>
+        <v>0.46805144901929352</v>
       </c>
       <c r="O26" s="6">
         <f ca="1"/>
-        <v>0.37326968028585772</v>
+        <v>0.9392583015087681</v>
       </c>
       <c r="P26" s="6">
         <f ca="1"/>
-        <v>0.19771199476233248</v>
+        <v>0.50785414608597601</v>
       </c>
       <c r="Q26" s="6">
         <f ca="1"/>
-        <v>0.50395575506786505</v>
+        <v>0.96367982331445323</v>
       </c>
       <c r="R26" s="6">
         <f ca="1"/>
-        <v>0.4444955294645081</v>
+        <v>0.82425628837421017</v>
       </c>
       <c r="U26" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V26" s="6">
         <f ca="1"/>
-        <v>0.11583240298400588</v>
+        <v>0.13563680894283903</v>
       </c>
       <c r="W26" s="6">
         <f ca="1"/>
-        <v>0.85158995803835946</v>
+        <v>0.11347111975638136</v>
       </c>
       <c r="X26" s="6">
         <f ca="1"/>
-        <v>0.90811740311650158</v>
+        <v>0.69039584785745434</v>
       </c>
       <c r="Y26" s="6">
         <f ca="1"/>
-        <v>0.25891595549392887</v>
+        <v>0.68736109865143447</v>
       </c>
       <c r="Z26" s="6">
         <f ca="1"/>
-        <v>0.70765813460416149</v>
+        <v>0.47487392112771265</v>
       </c>
       <c r="AA26" s="6">
         <f ca="1"/>
-        <v>0.83934687194195279</v>
+        <v>0.43457438809730875</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C27" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="6">
         <v>0</v>
@@ -16766,63 +16884,63 @@
         <v>0</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M27" s="6">
         <f ca="1"/>
-        <v>0.87871930758807326</v>
+        <v>0.34746179063792626</v>
       </c>
       <c r="N27" s="6">
         <f ca="1"/>
-        <v>0.96494778641590018</v>
+        <v>0.63145193867256899</v>
       </c>
       <c r="O27" s="6">
         <f ca="1"/>
-        <v>0.91259613062272238</v>
+        <v>0.85917045034456119</v>
       </c>
       <c r="P27" s="6">
         <f ca="1"/>
-        <v>0.79027479367726006</v>
+        <v>0.17430158782988436</v>
       </c>
       <c r="Q27" s="6">
         <f ca="1"/>
-        <v>0.37581668502600629</v>
+        <v>0.35096933030065669</v>
       </c>
       <c r="R27" s="6">
         <f ca="1"/>
-        <v>0.57641465490268473</v>
+        <v>0.99804853813970729</v>
       </c>
       <c r="U27" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V27" s="6">
         <f ca="1"/>
-        <v>0.10068950328049531</v>
+        <v>0.40391459134181029</v>
       </c>
       <c r="W27" s="6">
         <f ca="1"/>
-        <v>0.94061060586596001</v>
+        <v>0.61456164860685325</v>
       </c>
       <c r="X27" s="6">
         <f ca="1"/>
-        <v>0.21938432518759376</v>
+        <v>0.46646631257270155</v>
       </c>
       <c r="Y27" s="6">
         <f ca="1"/>
-        <v>0.10275684552994924</v>
+        <v>0.56812375509668356</v>
       </c>
       <c r="Z27" s="6">
         <f ca="1"/>
-        <v>0.12951329799187339</v>
+        <v>0.83803215746478199</v>
       </c>
       <c r="AA27" s="6">
         <f ca="1"/>
-        <v>0.30712037620771127</v>
+        <v>0.82065892188424439</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="79"/>
@@ -16852,7 +16970,7 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C32" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -16875,6 +16993,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B19:C19"/>
@@ -16890,12 +17014,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16944,13 +17062,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
@@ -16969,7 +17087,7 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
       <c r="B3" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="83"/>
       <c r="D3" s="83"/>
@@ -17037,7 +17155,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="79"/>
       <c r="D6" s="54">
@@ -17105,27 +17223,27 @@
       </c>
       <c r="O7" s="6" cm="1">
         <f t="array" aca="1" ref="O7:T12" ca="1">_xlfn.RANDARRAY(6, 6, -1, 1, FALSE)</f>
-        <v>0.1472014734241891</v>
+        <v>-0.49587728830265365</v>
       </c>
       <c r="P7" s="6">
         <f ca="1"/>
-        <v>0.4639557039311033</v>
+        <v>0.85804342295267366</v>
       </c>
       <c r="Q7" s="6">
         <f ca="1"/>
-        <v>0.85914445796152084</v>
+        <v>0.75476610207605055</v>
       </c>
       <c r="R7" s="6">
         <f ca="1"/>
-        <v>-0.738100273535923</v>
+        <v>0.29070666595405159</v>
       </c>
       <c r="S7" s="6">
         <f ca="1"/>
-        <v>6.6735242867508981E-2</v>
+        <v>-0.27477659837340429</v>
       </c>
       <c r="T7" s="6">
         <f ca="1"/>
-        <v>-0.67667887546779304</v>
+        <v>0.35580953248276126</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -17147,27 +17265,27 @@
       </c>
       <c r="O8" s="6">
         <f ca="1"/>
-        <v>-0.14338739868285044</v>
+        <v>-0.33429922297345827</v>
       </c>
       <c r="P8" s="6">
         <f ca="1"/>
-        <v>0.81834565358983058</v>
+        <v>0.35896054043205261</v>
       </c>
       <c r="Q8" s="6">
         <f ca="1"/>
-        <v>0.33525038121296946</v>
+        <v>-0.27951290769400727</v>
       </c>
       <c r="R8" s="6">
         <f ca="1"/>
-        <v>1.5075208401784224E-2</v>
+        <v>-0.8760798117186106</v>
       </c>
       <c r="S8" s="6">
         <f ca="1"/>
-        <v>-1.3172107068574412E-2</v>
+        <v>0.56955285519395571</v>
       </c>
       <c r="T8" s="6">
         <f ca="1"/>
-        <v>-0.47706038937995587</v>
+        <v>-0.661554679713795</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -17195,27 +17313,27 @@
       </c>
       <c r="O9" s="6">
         <f ca="1"/>
-        <v>7.5787303674548223E-2</v>
+        <v>0.75338561644695035</v>
       </c>
       <c r="P9" s="6">
         <f ca="1"/>
-        <v>-0.22739811942697408</v>
+        <v>-0.71100999859538105</v>
       </c>
       <c r="Q9" s="6">
         <f ca="1"/>
-        <v>-0.31685367660972497</v>
+        <v>-0.14110922598049536</v>
       </c>
       <c r="R9" s="6">
         <f ca="1"/>
-        <v>0.97428801614120464</v>
+        <v>-0.6588225791526805</v>
       </c>
       <c r="S9" s="6">
         <f ca="1"/>
-        <v>0.36482917987107455</v>
+        <v>0.27704444790218163</v>
       </c>
       <c r="T9" s="6">
         <f ca="1"/>
-        <v>0.21842711166430462</v>
+        <v>-0.38435520224699515</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -17243,27 +17361,27 @@
       </c>
       <c r="O10" s="6">
         <f ca="1"/>
-        <v>0.58981059569864924</v>
+        <v>-7.1573748027002226E-2</v>
       </c>
       <c r="P10" s="6">
         <f ca="1"/>
-        <v>0.60289752471993419</v>
+        <v>-0.18727844482792189</v>
       </c>
       <c r="Q10" s="6">
         <f ca="1"/>
-        <v>0.16564329799225597</v>
+        <v>-0.15674257614470455</v>
       </c>
       <c r="R10" s="6">
         <f ca="1"/>
-        <v>-3.1523720984160564E-2</v>
+        <v>7.6846768736897442E-2</v>
       </c>
       <c r="S10" s="6">
         <f ca="1"/>
-        <v>-0.70927118175462445</v>
+        <v>-0.23659827121709265</v>
       </c>
       <c r="T10" s="6">
         <f ca="1"/>
-        <v>0.66799188204215043</v>
+        <v>-0.41530414720032094</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -17291,27 +17409,27 @@
       </c>
       <c r="O11" s="6">
         <f ca="1"/>
-        <v>4.001773534898212E-2</v>
+        <v>-0.8604619553472721</v>
       </c>
       <c r="P11" s="6">
         <f ca="1"/>
-        <v>0.85973795899696248</v>
+        <v>9.6678329130119867E-3</v>
       </c>
       <c r="Q11" s="6">
         <f ca="1"/>
-        <v>-0.35265410447433676</v>
+        <v>0.46044246259964439</v>
       </c>
       <c r="R11" s="6">
         <f ca="1"/>
-        <v>0.6005157127125833</v>
+        <v>0.25413247920504567</v>
       </c>
       <c r="S11" s="6">
         <f ca="1"/>
-        <v>-0.35343405589445442</v>
+        <v>3.6948085113355233E-3</v>
       </c>
       <c r="T11" s="6">
         <f ca="1"/>
-        <v>0.40172083842981343</v>
+        <v>-0.97285493094234998</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -17339,27 +17457,27 @@
       </c>
       <c r="O12" s="6">
         <f ca="1"/>
-        <v>0.72823297065110504</v>
+        <v>-0.34198947197677443</v>
       </c>
       <c r="P12" s="6">
         <f ca="1"/>
-        <v>0.53482919382739125</v>
+        <v>-0.41767557282119405</v>
       </c>
       <c r="Q12" s="6">
         <f ca="1"/>
-        <v>-0.1330099650827774</v>
+        <v>-0.94455330837110529</v>
       </c>
       <c r="R12" s="6">
         <f ca="1"/>
-        <v>0.64148019103926157</v>
+        <v>5.5518498554251616E-2</v>
       </c>
       <c r="S12" s="6">
         <f ca="1"/>
-        <v>-0.79717696335855148</v>
+        <v>-0.75877535849940858</v>
       </c>
       <c r="T12" s="6">
         <f ca="1"/>
-        <v>0.56647145883304151</v>
+        <v>-9.7047058118573393E-3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -17443,7 +17561,7 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
       <c r="B16" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="54">
@@ -17683,7 +17801,7 @@
       <c r="L24" s="54"/>
       <c r="M24" s="54"/>
       <c r="N24" s="79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O24" s="79"/>
       <c r="P24" s="79"/>
@@ -18186,24 +18304,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="V2" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
+      <c r="B2" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="V2" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="83" t="s">
@@ -18217,7 +18335,7 @@
       <c r="H3" s="83"/>
       <c r="I3" s="83"/>
       <c r="V3" s="83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W3" s="83"/>
       <c r="X3" s="83"/>
@@ -18229,11 +18347,11 @@
       <c r="M5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
       <c r="V5" s="79" t="s">
         <v>42</v>
       </c>
@@ -18310,27 +18428,27 @@
       </c>
       <c r="D7" s="56" cm="1">
         <f t="array" aca="1" ref="D7:I12" ca="1">_xlfn.ANCHORARRAY('Input | Output Embedding'!D6)+_xlfn.ANCHORARRAY('+ Positional Embedding'!O7)</f>
-        <v>1.0559225899303297</v>
+        <v>0.14927196440489743</v>
       </c>
       <c r="E7" s="57">
         <f ca="1"/>
-        <v>0.88345675839283566</v>
+        <v>1.7247915878947466</v>
       </c>
       <c r="F7" s="58">
         <f ca="1"/>
-        <v>1.8444724019232825</v>
+        <v>1.2756681225746271</v>
       </c>
       <c r="G7" s="59">
         <f ca="1"/>
-        <v>2.1558984231616174E-2</v>
+        <v>0.47525956689750504</v>
       </c>
       <c r="H7" s="60">
         <f ca="1"/>
-        <v>0.51343681614707792</v>
+        <v>6.2191170267769991E-2</v>
       </c>
       <c r="I7" s="61">
         <f ca="1"/>
-        <v>-0.56103434365067417</v>
+        <v>1.2308108266381148</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>41</v>
@@ -18341,27 +18459,27 @@
       </c>
       <c r="M7" s="63" cm="1">
         <f t="array" aca="1" ref="M7:R12" ca="1">_xlfn.RANDARRAY(6,6,M35,N35,FALSE)</f>
-        <v>2.5521115212387091E-2</v>
+        <v>3.7189987282823397E-2</v>
       </c>
       <c r="N7" s="76">
         <f ca="1"/>
-        <v>-2.8470215070770431E-2</v>
+        <v>1.360242671184056E-2</v>
       </c>
       <c r="O7" s="76">
         <f ca="1"/>
-        <v>-3.6232144455541321E-2</v>
+        <v>-4.6686901643699028E-3</v>
       </c>
       <c r="P7" s="20">
         <f ca="1"/>
-        <v>-2.310271127787706E-2</v>
+        <v>3.1594251746304883E-2</v>
       </c>
       <c r="Q7" s="20">
         <f ca="1"/>
-        <v>-4.1498348239177182E-2</v>
+        <v>-3.8065095040592412E-2</v>
       </c>
       <c r="R7" s="20">
         <f ca="1"/>
-        <v>-1.2714799029654264E-2</v>
+        <v>-1.5949870271045226E-2</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>34</v>
@@ -18371,27 +18489,27 @@
       </c>
       <c r="V7" s="21" cm="1">
         <f t="array" aca="1" ref="V7:AA12" ca="1">MMULT(_xlfn.ANCHORARRAY(D7),_xlfn.ANCHORARRAY(M7))</f>
-        <v>3.26600817427889E-2</v>
+        <v>-2.3276848931278144E-2</v>
       </c>
       <c r="W7" s="20">
         <f ca="1"/>
-        <v>-0.10866109862734627</v>
+        <v>8.5973740258541556E-2</v>
       </c>
       <c r="X7" s="20">
         <f ca="1"/>
-        <v>-1.2806475254965219E-2</v>
+        <v>6.4376504797747078E-2</v>
       </c>
       <c r="Y7" s="20">
         <f ca="1"/>
-        <v>6.1087440053230295E-3</v>
+        <v>5.4085273828318181E-2</v>
       </c>
       <c r="Z7" s="20">
         <f ca="1"/>
-        <v>-0.15004094887709393</v>
+        <v>-9.6920167243014735E-2</v>
       </c>
       <c r="AA7" s="20">
         <f ca="1"/>
-        <v>9.5168436049971328E-2</v>
+        <v>1.9400627475856802E-2</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -18403,27 +18521,27 @@
       </c>
       <c r="D8" s="56">
         <f ca="1"/>
-        <v>0.54595374961595522</v>
+        <v>7.5267746387189804E-2</v>
       </c>
       <c r="E8" s="57">
         <f ca="1"/>
-        <v>1.4569105352180431</v>
+        <v>0.87616539134269811</v>
       </c>
       <c r="F8" s="58">
         <f ca="1"/>
-        <v>0.94761857043962916</v>
+        <v>0.4224736120139021</v>
       </c>
       <c r="G8" s="59">
         <f ca="1"/>
-        <v>0.84535482356751257</v>
+        <v>8.6861451249919286E-2</v>
       </c>
       <c r="H8" s="60">
         <f ca="1"/>
-        <v>0.75358593815402486</v>
+        <v>1.2310651120572389</v>
       </c>
       <c r="I8" s="61">
         <f ca="1"/>
-        <v>-0.15026234572473163</v>
+        <v>-0.42205961410652559</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>41</v>
@@ -18433,27 +18551,27 @@
       </c>
       <c r="M8" s="64">
         <f ca="1"/>
-        <v>-4.3057865656420884E-2</v>
+        <v>4.5158241646176614E-3</v>
       </c>
       <c r="N8" s="76">
         <f ca="1"/>
-        <v>1.5168123774747251E-2</v>
+        <v>1.9606261033336736E-2</v>
       </c>
       <c r="O8" s="77">
         <f ca="1"/>
-        <v>4.0332748223030533E-2</v>
+        <v>3.4678553309682995E-2</v>
       </c>
       <c r="P8" s="65">
         <f ca="1"/>
-        <v>3.8604467411528932E-2</v>
+        <v>-3.6236680893733726E-2</v>
       </c>
       <c r="Q8" s="65">
         <f ca="1"/>
-        <v>-3.3941384401358049E-2</v>
+        <v>-4.4054038384424052E-2</v>
       </c>
       <c r="R8" s="65">
         <f ca="1"/>
-        <v>3.243689985226076E-2</v>
+        <v>1.0936069667113857E-2</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>35</v>
@@ -18463,27 +18581,27 @@
       </c>
       <c r="V8" s="47">
         <f ca="1"/>
-        <v>-2.3751226448287768E-2</v>
+        <v>-2.1865213674184321E-2</v>
       </c>
       <c r="W8" s="65">
         <f ca="1"/>
-        <v>-7.3255425089516601E-2</v>
+        <v>9.5869920271719616E-2</v>
       </c>
       <c r="X8" s="65">
         <f ca="1"/>
-        <v>1.4845136966494622E-2</v>
+        <v>9.9271740102261932E-2</v>
       </c>
       <c r="Y8" s="65">
         <f ca="1"/>
-        <v>3.8741282491982693E-2</v>
+        <v>-1.760399072097376E-2</v>
       </c>
       <c r="Z8" s="65">
         <f ca="1"/>
-        <v>-0.12034234107869952</v>
+        <v>-7.0793298612025005E-2</v>
       </c>
       <c r="AA8" s="65">
         <f ca="1"/>
-        <v>5.5010883582970911E-2</v>
+        <v>-6.0702922927261649E-2</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
@@ -18495,27 +18613,27 @@
       </c>
       <c r="D9" s="6">
         <f ca="1"/>
-        <v>1.0151466092626897</v>
+        <v>1.2652812456278499</v>
       </c>
       <c r="E9" s="6">
         <f ca="1"/>
-        <v>0.42527081321950222</v>
+        <v>-0.56469761161522625</v>
       </c>
       <c r="F9" s="6">
         <f ca="1"/>
-        <v>0.22329142823538151</v>
+        <v>-3.4677412272049457E-2</v>
       </c>
       <c r="G9" s="6">
         <f ca="1"/>
-        <v>1.4491497788262222</v>
+        <v>6.623622446604438E-2</v>
       </c>
       <c r="H9" s="6">
         <f ca="1"/>
-        <v>1.1379958934369325</v>
+        <v>0.3949822225873596</v>
       </c>
       <c r="I9" s="6">
         <f ca="1"/>
-        <v>0.73766629011327312</v>
+        <v>4.1830030838982291E-2</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>2</v>
@@ -18528,27 +18646,27 @@
       </c>
       <c r="M9" s="66">
         <f ca="1"/>
-        <v>1.3175448391563579E-2</v>
+        <v>1.8462122952110034E-2</v>
       </c>
       <c r="N9" s="76">
         <f ca="1"/>
-        <v>-3.9657750801803532E-2</v>
+        <v>4.1823689286273863E-2</v>
       </c>
       <c r="O9" s="70">
         <f ca="1"/>
-        <v>-8.7511017733518034E-3</v>
+        <v>2.4741795633509853E-2</v>
       </c>
       <c r="P9" s="6">
         <f ca="1"/>
-        <v>-3.9580612904038803E-4</v>
+        <v>4.1501592901256094E-2</v>
       </c>
       <c r="Q9" s="6">
         <f ca="1"/>
-        <v>-2.979793275291967E-2</v>
+        <v>2.1731462357208464E-2</v>
       </c>
       <c r="R9" s="6">
         <f ca="1"/>
-        <v>3.0061973553470178E-2</v>
+        <v>-2.4434430765436714E-2</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>3</v>
@@ -18561,27 +18679,27 @@
       </c>
       <c r="V9" s="6">
         <f ca="1"/>
-        <v>8.1227358025012311E-3</v>
+        <v>2.4892360315250574E-2</v>
       </c>
       <c r="W9" s="6">
         <f ca="1"/>
-        <v>-8.3990338575712517E-2</v>
+        <v>2.2237710272901643E-2</v>
       </c>
       <c r="X9" s="6">
         <f ca="1"/>
-        <v>-7.0223412005294722E-2</v>
+        <v>-1.2656848023397796E-2</v>
       </c>
       <c r="Y9" s="6">
         <f ca="1"/>
-        <v>1.0483120428232195E-2</v>
+        <v>6.4672664185586703E-2</v>
       </c>
       <c r="Z9" s="6">
         <f ca="1"/>
-        <v>-9.2148864021563942E-2</v>
+        <v>-4.1983594929929639E-2</v>
       </c>
       <c r="AA9" s="6">
         <f ca="1"/>
-        <v>-4.2789992812092045E-2</v>
+        <v>-3.8349634317892678E-2</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
@@ -18593,27 +18711,27 @@
       </c>
       <c r="D10" s="6">
         <f ca="1"/>
-        <v>0.73690064805130828</v>
+        <v>0.5954820667208951</v>
       </c>
       <c r="E10" s="6">
         <f ca="1"/>
-        <v>1.0462334642677318</v>
+        <v>0.33100576005483484</v>
       </c>
       <c r="F10" s="6">
         <f ca="1"/>
-        <v>0.3688064938210609</v>
+        <v>7.3323015737567498E-2</v>
       </c>
       <c r="G10" s="6">
         <f ca="1"/>
-        <v>0.55708296645412592</v>
+        <v>0.42994309130346808</v>
       </c>
       <c r="H10" s="6">
         <f ca="1"/>
-        <v>-0.49640177530547946</v>
+        <v>-0.12103517636537364</v>
       </c>
       <c r="I10" s="6">
         <f ca="1"/>
-        <v>1.4391125842504666</v>
+        <v>-0.21685745234751908</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>41</v>
@@ -18623,27 +18741,27 @@
       </c>
       <c r="M10" s="67">
         <f ca="1"/>
-        <v>-1.5300168386349067E-3</v>
+        <v>-3.4258226278118836E-2</v>
       </c>
       <c r="N10" s="76">
         <f ca="1"/>
-        <v>-3.2165670604517228E-2</v>
+        <v>2.8835305620886209E-2</v>
       </c>
       <c r="O10" s="70">
         <f ca="1"/>
-        <v>-1.0588702893040022E-2</v>
+        <v>3.6287782617156941E-2</v>
       </c>
       <c r="P10" s="6">
         <f ca="1"/>
-        <v>-2.5017292113186325E-2</v>
+        <v>3.0377545499749289E-2</v>
       </c>
       <c r="Q10" s="6">
         <f ca="1"/>
-        <v>1.4916843526235311E-2</v>
+        <v>-7.7744418083482356E-3</v>
       </c>
       <c r="R10" s="6">
         <f ca="1"/>
-        <v>-4.1981509967263561E-2</v>
+        <v>-2.7124660924298299E-2</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>37</v>
@@ -18653,27 +18771,27 @@
       </c>
       <c r="V10" s="6">
         <f ca="1"/>
-        <v>-6.0706038413879809E-2</v>
+        <v>2.2260222352677411E-2</v>
       </c>
       <c r="W10" s="6">
         <f ca="1"/>
-        <v>-4.6319072718143152E-3</v>
+        <v>2.8493966004365885E-2</v>
       </c>
       <c r="X10" s="6">
         <f ca="1"/>
-        <v>-2.0890914819853286E-2</v>
+        <v>3.0209937798731816E-2</v>
       </c>
       <c r="Y10" s="6">
         <f ca="1"/>
-        <v>3.8255186120040918E-2</v>
+        <v>1.4481889019490827E-2</v>
       </c>
       <c r="Z10" s="6">
         <f ca="1"/>
-        <v>-4.9105650524874034E-2</v>
+        <v>-2.7567937376632826E-2</v>
       </c>
       <c r="AA10" s="6">
         <f ca="1"/>
-        <v>-3.3031024466218119E-2</v>
+        <v>-2.4067468027241936E-2</v>
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
@@ -18685,27 +18803,27 @@
       </c>
       <c r="D11" s="6">
         <f ca="1"/>
-        <v>0.48382335869445248</v>
+        <v>6.5775072700222204E-2</v>
       </c>
       <c r="E11" s="6">
         <f ca="1"/>
-        <v>1.3745936532717702</v>
+        <v>0.82502817642342485</v>
       </c>
       <c r="F11" s="6">
         <f ca="1"/>
-        <v>-4.2251445996316805E-2</v>
+        <v>1.026255224343785</v>
       </c>
       <c r="G11" s="6">
         <f ca="1"/>
-        <v>1.3413658188609026</v>
+        <v>0.47654840124950915</v>
       </c>
       <c r="H11" s="6">
         <f ca="1"/>
-        <v>6.1337064057955581E-2</v>
+        <v>0.35527393292384701</v>
       </c>
       <c r="I11" s="6">
         <f ca="1"/>
-        <v>0.80361758697355712</v>
+        <v>-4.623444470525695E-2</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>41</v>
@@ -18715,27 +18833,27 @@
       </c>
       <c r="M11" s="68">
         <f ca="1"/>
-        <v>1.4019319813766438E-2</v>
+        <v>-3.8721513311429187E-2</v>
       </c>
       <c r="N11" s="76">
         <f ca="1"/>
-        <v>-1.651673113557544E-2</v>
+        <v>4.1271371706685087E-2</v>
       </c>
       <c r="O11" s="70">
         <f ca="1"/>
-        <v>-1.3876146974380513E-2</v>
+        <v>3.2498630772053554E-2</v>
       </c>
       <c r="P11" s="6">
         <f ca="1"/>
-        <v>2.8015136107083699E-2</v>
+        <v>5.4708308067898254E-3</v>
       </c>
       <c r="Q11" s="6">
         <f ca="1"/>
-        <v>-4.3542659259510827E-2</v>
+        <v>-4.0965879305908129E-2</v>
       </c>
       <c r="R11" s="6">
         <f ca="1"/>
-        <v>2.4178239954896236E-2</v>
+        <v>-3.2174488712665442E-2</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>38</v>
@@ -18745,27 +18863,27 @@
       </c>
       <c r="V11" s="6">
         <f ca="1"/>
-        <v>-6.6184907511051716E-2</v>
+        <v>-3.4056153650361617E-3</v>
       </c>
       <c r="W11" s="6">
         <f ca="1"/>
-        <v>-2.1545694772118283E-2</v>
+        <v>8.9128669621382994E-2</v>
       </c>
       <c r="X11" s="6">
         <f ca="1"/>
-        <v>4.1562750772240337E-3</v>
+        <v>8.4245678351139899E-2</v>
       </c>
       <c r="Y11" s="6">
         <f ca="1"/>
-        <v>3.4010135993920027E-2</v>
+        <v>2.9534606698064098E-2</v>
       </c>
       <c r="Z11" s="6">
         <f ca="1"/>
-        <v>-4.9225091439164738E-2</v>
+        <v>-3.3426667742691575E-2</v>
       </c>
       <c r="AA11" s="6">
         <f ca="1"/>
-        <v>-3.6256631133410329E-2</v>
+        <v>-4.3299423232336244E-2</v>
       </c>
     </row>
     <row r="12" spans="2:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -18777,27 +18895,27 @@
       </c>
       <c r="D12" s="6">
         <f ca="1"/>
-        <v>1.1493395439014678</v>
+        <v>0.12742369702087264</v>
       </c>
       <c r="E12" s="6">
         <f ca="1"/>
-        <v>0.69260918992037723</v>
+        <v>0.37591232869287317</v>
       </c>
       <c r="F12" s="6">
         <f ca="1"/>
-        <v>-3.1739145005037495E-2</v>
+        <v>-0.55863607346837929</v>
       </c>
       <c r="G12" s="6">
         <f ca="1"/>
-        <v>0.90136738675625683</v>
+        <v>0.2090053412415358</v>
       </c>
       <c r="H12" s="6">
         <f ca="1"/>
-        <v>-0.25578785149007488</v>
+        <v>-0.34394804988968875</v>
       </c>
       <c r="I12" s="6">
         <f ca="1"/>
-        <v>1.5609862577260252</v>
+        <v>0.72943247710594439</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>41</v>
@@ -18807,27 +18925,27 @@
       </c>
       <c r="M12" s="69">
         <f ca="1"/>
-        <v>-2.189655938704254E-2</v>
+        <v>-3.370053442582064E-2</v>
       </c>
       <c r="N12" s="76">
         <f ca="1"/>
-        <v>1.7249840505064194E-2</v>
+        <v>-1.5841225420264352E-2</v>
       </c>
       <c r="O12" s="70">
         <f ca="1"/>
-        <v>-2.3730450398852881E-2</v>
+        <v>-3.702391172381065E-2</v>
       </c>
       <c r="P12" s="6">
         <f ca="1"/>
-        <v>2.9795966137936107E-2</v>
+        <v>3.5870780173052987E-2</v>
       </c>
       <c r="Q12" s="6">
         <f ca="1"/>
-        <v>-1.3548490572440619E-3</v>
+        <v>-2.9845058299794433E-2</v>
       </c>
       <c r="R12" s="6">
         <f ca="1"/>
-        <v>-2.3136339022939781E-2</v>
+        <v>3.9796126298462936E-2</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>39</v>
@@ -18837,27 +18955,27 @@
       </c>
       <c r="V12" s="6">
         <f ca="1"/>
-        <v>-4.0053331269642709E-2</v>
+        <v>-2.230139581179641E-2</v>
       </c>
       <c r="W12" s="6">
         <f ca="1"/>
-        <v>-1.8799202289581391E-2</v>
+        <v>-3.3984294041151997E-2</v>
       </c>
       <c r="X12" s="6">
         <f ca="1"/>
-        <v>-5.6468320417509016E-2</v>
+        <v>-3.1980409524093471E-2</v>
       </c>
       <c r="Y12" s="6">
         <f ca="1"/>
-        <v>1.6992902793502261E-2</v>
+        <v>-2.1475459244461037E-3</v>
       </c>
       <c r="Z12" s="6">
         <f ca="1"/>
-        <v>-4.778970771598727E-2</v>
+        <v>-4.2855550465717276E-2</v>
       </c>
       <c r="AA12" s="6">
         <f ca="1"/>
-        <v>-7.3242438976137997E-2</v>
+        <v>5.0154307060094903E-2</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
@@ -18869,11 +18987,11 @@
       <c r="M14" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
       <c r="V14" s="79" t="s">
         <v>44</v>
       </c>
@@ -18933,27 +19051,27 @@
       </c>
       <c r="M16" s="63" cm="1">
         <f t="array" aca="1" ref="M16:R21" ca="1">_xlfn.RANDARRAY(6,6,M35,N35,FALSE)</f>
-        <v>2.8615812590850824E-2</v>
+        <v>-7.7679415800075563E-3</v>
       </c>
       <c r="N16" s="76">
         <f ca="1"/>
-        <v>-4.1530848472502269E-2</v>
+        <v>-5.6336452158001482E-3</v>
       </c>
       <c r="O16" s="76">
         <f ca="1"/>
-        <v>-4.4023219758778473E-2</v>
+        <v>-3.5615192833172021E-3</v>
       </c>
       <c r="P16" s="20">
         <f ca="1"/>
-        <v>2.7542210229977167E-2</v>
+        <v>3.4691490549761062E-2</v>
       </c>
       <c r="Q16" s="20">
         <f ca="1"/>
-        <v>-3.1561066241570859E-2</v>
+        <v>-2.102743257847782E-3</v>
       </c>
       <c r="R16" s="20">
         <f ca="1"/>
-        <v>2.9481635719073584E-2</v>
+        <v>3.5715032027472421E-2</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>48</v>
@@ -18963,27 +19081,27 @@
       </c>
       <c r="V16" s="21" cm="1">
         <f t="array" aca="1" ref="V16:AA21" ca="1">MMULT(_xlfn.ANCHORARRAY(D7),_xlfn.ANCHORARRAY(M16))</f>
-        <v>4.8804458195388797E-2</v>
+        <v>-3.8045482928504314E-2</v>
       </c>
       <c r="W16" s="20">
         <f ca="1"/>
-        <v>-0.13861750440048765</v>
+        <v>5.1117756213410609E-2</v>
       </c>
       <c r="X16" s="20">
         <f ca="1"/>
-        <v>4.0521525056020705E-3</v>
+        <v>6.7100390339903865E-2</v>
       </c>
       <c r="Y16" s="20">
         <f ca="1"/>
-        <v>-3.7569412525182311E-2</v>
+        <v>-1.9711474138194993E-2</v>
       </c>
       <c r="Z16" s="20">
         <f ca="1"/>
-        <v>-9.9717672561145151E-2</v>
+        <v>3.7991311307392465E-3</v>
       </c>
       <c r="AA16" s="20">
         <f ca="1"/>
-        <v>2.045382203045068E-2</v>
+        <v>-4.2230867945081081E-2</v>
       </c>
     </row>
     <row r="17" spans="10:27" x14ac:dyDescent="0.25">
@@ -18995,27 +19113,27 @@
       </c>
       <c r="M17" s="64">
         <f ca="1"/>
-        <v>2.0277203476080197E-2</v>
+        <v>-3.8896101863404212E-2</v>
       </c>
       <c r="N17" s="76">
         <f ca="1"/>
-        <v>-3.8961384724992457E-2</v>
+        <v>4.007352128322083E-2</v>
       </c>
       <c r="O17" s="77">
         <f ca="1"/>
-        <v>4.32067964677239E-2</v>
+        <v>1.321817494726913E-2</v>
       </c>
       <c r="P17" s="65">
         <f ca="1"/>
-        <v>-3.7844855751262341E-2</v>
+        <v>-3.3340629132149233E-2</v>
       </c>
       <c r="Q17" s="65">
         <f ca="1"/>
-        <v>6.9113007662491288E-5</v>
+        <v>1.0894963653101594E-3</v>
       </c>
       <c r="R17" s="65">
         <f ca="1"/>
-        <v>9.4013600911309961E-3</v>
+        <v>-1.767846157527226E-2</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>49</v>
@@ -19025,27 +19143,27 @@
       </c>
       <c r="V17" s="47">
         <f ca="1"/>
-        <v>6.3299121290323626E-2</v>
+        <v>-7.837179448025168E-2</v>
       </c>
       <c r="W17" s="65">
         <f ca="1"/>
-        <v>-9.5810069657134636E-2</v>
+        <v>9.9574319435609487E-2</v>
       </c>
       <c r="X17" s="65">
         <f ca="1"/>
-        <v>2.5090871852924558E-2</v>
+        <v>-3.0607782191302075E-2</v>
       </c>
       <c r="Y17" s="65">
         <f ca="1"/>
-        <v>-3.0299833401267948E-2</v>
+        <v>-2.0099841693041368E-2</v>
       </c>
       <c r="Z17" s="65">
         <f ca="1"/>
-        <v>-7.1883942538390463E-2</v>
+        <v>3.6464814496045321E-2</v>
       </c>
       <c r="AA17" s="65">
         <f ca="1"/>
-        <v>-1.0078824981893941E-2</v>
+        <v>-2.3863838638642811E-2</v>
       </c>
     </row>
     <row r="18" spans="10:27" x14ac:dyDescent="0.25">
@@ -19060,27 +19178,27 @@
       </c>
       <c r="M18" s="66">
         <f ca="1"/>
-        <v>1.7808961621407562E-3</v>
+        <v>-1.7779024547406486E-2</v>
       </c>
       <c r="N18" s="76">
         <f ca="1"/>
-        <v>-1.2487409880210312E-2</v>
+        <v>1.5125301751536188E-3</v>
       </c>
       <c r="O18" s="70">
         <f ca="1"/>
-        <v>2.7705993709839574E-3</v>
+        <v>2.025236745530621E-2</v>
       </c>
       <c r="P18" s="6">
         <f ca="1"/>
-        <v>-3.2367473340545953E-2</v>
+        <v>2.7669397338557014E-2</v>
       </c>
       <c r="Q18" s="6">
         <f ca="1"/>
-        <v>-3.9251121380472008E-2</v>
+        <v>3.3320261898140337E-2</v>
       </c>
       <c r="R18" s="6">
         <f ca="1"/>
-        <v>-1.5999036740295694E-2</v>
+        <v>-1.6418372929012041E-2</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>3</v>
@@ -19093,27 +19211,27 @@
       </c>
       <c r="V18" s="6">
         <f ca="1"/>
-        <v>6.1075360977996915E-2</v>
+        <v>8.197736188660357E-3</v>
       </c>
       <c r="W18" s="6">
         <f ca="1"/>
-        <v>-2.5538855010696086E-2</v>
+        <v>-1.3277629269503101E-2</v>
       </c>
       <c r="X18" s="6">
         <f ca="1"/>
-        <v>-6.064797313608674E-2</v>
+        <v>-2.687738923526908E-2</v>
       </c>
       <c r="Y18" s="6">
         <f ca="1"/>
-        <v>5.437455651203707E-2</v>
+        <v>6.0279823788423489E-2</v>
       </c>
       <c r="Z18" s="6">
         <f ca="1"/>
-        <v>-9.3169835801424447E-2</v>
+        <v>-2.1632983143801228E-3</v>
       </c>
       <c r="AA18" s="6">
         <f ca="1"/>
-        <v>-3.3577071034064598E-2</v>
+        <v>5.4016686504134673E-2</v>
       </c>
     </row>
     <row r="19" spans="10:27" x14ac:dyDescent="0.25">
@@ -19125,27 +19243,27 @@
       </c>
       <c r="M19" s="67">
         <f ca="1"/>
-        <v>3.10927754419364E-2</v>
+        <v>2.4242260314229318E-2</v>
       </c>
       <c r="N19" s="76">
         <f ca="1"/>
-        <v>2.9322636968590998E-2</v>
+        <v>3.2515825825915043E-2</v>
       </c>
       <c r="O19" s="70">
         <f ca="1"/>
-        <v>-2.8906731888220238E-2</v>
+        <v>3.7450490954262151E-2</v>
       </c>
       <c r="P19" s="6">
         <f ca="1"/>
-        <v>1.3766431900309212E-2</v>
+        <v>-1.854789926421762E-2</v>
       </c>
       <c r="Q19" s="6">
         <f ca="1"/>
-        <v>-1.1860086920877283E-2</v>
+        <v>-4.2261973444267145E-2</v>
       </c>
       <c r="R19" s="6">
         <f ca="1"/>
-        <v>-3.113766719954613E-2</v>
+        <v>3.4614026632854095E-2</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>51</v>
@@ -19155,27 +19273,27 @@
       </c>
       <c r="V19" s="6">
         <f ca="1"/>
-        <v>5.6761553342706023E-2</v>
+        <v>-1.35487208537495E-2</v>
       </c>
       <c r="W19" s="6">
         <f ca="1"/>
-        <v>1.2161964616056745E-2</v>
+        <v>2.5729113438636923E-2</v>
       </c>
       <c r="X19" s="6">
         <f ca="1"/>
-        <v>-1.4698616151416488E-2</v>
+        <v>2.4316092409922233E-2</v>
       </c>
       <c r="Y19" s="6">
         <f ca="1"/>
-        <v>-6.1672471591626844E-2</v>
+        <v>2.7253409612621516E-3</v>
       </c>
       <c r="Z19" s="6">
         <f ca="1"/>
-        <v>-7.2419173504678774E-2</v>
+        <v>-1.4673982472705613E-2</v>
       </c>
       <c r="AA19" s="6">
         <f ca="1"/>
-        <v>-2.2260140669923795E-2</v>
+        <v>3.2316119955165555E-2</v>
       </c>
     </row>
     <row r="20" spans="10:27" x14ac:dyDescent="0.25">
@@ -19187,27 +19305,27 @@
       </c>
       <c r="M20" s="68">
         <f ca="1"/>
-        <v>-1.4542461357106642E-2</v>
+        <v>-1.9258557164045453E-2</v>
       </c>
       <c r="N20" s="76">
         <f ca="1"/>
-        <v>-3.1108940048870271E-2</v>
+        <v>3.9587340353459594E-2</v>
       </c>
       <c r="O20" s="70">
         <f ca="1"/>
-        <v>9.5408624918678631E-3</v>
+        <v>-4.257361432262937E-2</v>
       </c>
       <c r="P20" s="6">
         <f ca="1"/>
-        <v>3.5419403278357846E-2</v>
+        <v>-1.1771312281065455E-3</v>
       </c>
       <c r="Q20" s="6">
         <f ca="1"/>
-        <v>-1.492260498215988E-2</v>
+        <v>1.4644287709940675E-2</v>
       </c>
       <c r="R20" s="6">
         <f ca="1"/>
-        <v>-2.2520430939054273E-3</v>
+        <v>-9.1391340236418941E-3</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>52</v>
@@ -19217,27 +19335,27 @@
       </c>
       <c r="V20" s="6">
         <f ca="1"/>
-        <v>7.6461731773429173E-2</v>
+        <v>-4.7735252259494237E-2</v>
       </c>
       <c r="W20" s="6">
         <f ca="1"/>
-        <v>-4.227640547749198E-3</v>
+        <v>6.5193240160164326E-2</v>
       </c>
       <c r="X20" s="6">
         <f ca="1"/>
-        <v>-4.4828309755699253E-3</v>
+        <v>3.4032367345633321E-2</v>
       </c>
       <c r="Y20" s="6">
         <f ca="1"/>
-        <v>-2.8150242240400643E-2</v>
+        <v>-6.3195964867895802E-3</v>
       </c>
       <c r="Z20" s="6">
         <f ca="1"/>
-        <v>-5.0196930490098282E-2</v>
+        <v>2.0811002926394935E-2</v>
       </c>
       <c r="AA20" s="6">
         <f ca="1"/>
-        <v>-3.1739557261055144E-2</v>
+        <v>-1.538606430386868E-2</v>
       </c>
     </row>
     <row r="21" spans="10:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -19249,27 +19367,27 @@
       </c>
       <c r="M21" s="69">
         <f ca="1"/>
-        <v>-7.4609253916875021E-3</v>
+        <v>3.4577371502661866E-2</v>
       </c>
       <c r="N21" s="76">
         <f ca="1"/>
-        <v>3.9160620301565294E-2</v>
+        <v>-3.0065300821855843E-2</v>
       </c>
       <c r="O21" s="70">
         <f ca="1"/>
-        <v>-5.3119814418755226E-3</v>
+        <v>3.1256855211107964E-3</v>
       </c>
       <c r="P21" s="6">
         <f ca="1"/>
-        <v>-1.426104221616388E-2</v>
+        <v>5.0430180100614688E-3</v>
       </c>
       <c r="Q21" s="6">
         <f ca="1"/>
-        <v>-2.4708698134407132E-2</v>
+        <v>-1.7140795397807274E-2</v>
       </c>
       <c r="R21" s="6">
         <f ca="1"/>
-        <v>-2.2022113178582353E-2</v>
+        <v>-9.7564449049554122E-3</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>53</v>
@@ -19279,38 +19397,38 @@
       </c>
       <c r="V21" s="6">
         <f ca="1"/>
-        <v>6.6976335030093551E-2</v>
+        <v>3.1233223217050191E-2</v>
       </c>
       <c r="W21" s="6">
         <f ca="1"/>
-        <v>2.1195227888330996E-2</v>
+        <v>-1.5249297210470292E-2</v>
       </c>
       <c r="X21" s="6">
         <f ca="1"/>
-        <v>-5.7548091605219509E-2</v>
+        <v>1.7951790734636014E-2</v>
       </c>
       <c r="Y21" s="6">
         <f ca="1"/>
-        <v>-1.2441558849947269E-2</v>
+        <v>-2.3362955946075264E-2</v>
       </c>
       <c r="Z21" s="6">
         <f ca="1"/>
-        <v>-8.0423928863437522E-2</v>
+        <v>-4.4845189705435815E-2</v>
       </c>
       <c r="AA21" s="6">
         <f ca="1"/>
-        <v>-2.0962974592003598E-2</v>
+        <v>1.0338521145980269E-2</v>
       </c>
     </row>
     <row r="24" spans="10:27" x14ac:dyDescent="0.25">
       <c r="M24" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
       <c r="V24" s="79" t="s">
         <v>46</v>
       </c>
@@ -19370,27 +19488,27 @@
       </c>
       <c r="M26" s="63" cm="1">
         <f t="array" aca="1" ref="M26:R31" ca="1">_xlfn.RANDARRAY(6,6,M35,N35,FALSE)</f>
-        <v>-2.8299797003775946E-2</v>
+        <v>4.3226983624727322E-3</v>
       </c>
       <c r="N26" s="76">
         <f ca="1"/>
-        <v>3.8255418071825219E-2</v>
+        <v>1.5296475065701837E-2</v>
       </c>
       <c r="O26" s="76">
         <f ca="1"/>
-        <v>3.4562830574888619E-2</v>
+        <v>-1.1919717768635846E-2</v>
       </c>
       <c r="P26" s="20">
         <f ca="1"/>
-        <v>-7.8814499503888913E-4</v>
+        <v>3.9027404317618211E-2</v>
       </c>
       <c r="Q26" s="20">
         <f ca="1"/>
-        <v>7.3820914365423096E-4</v>
+        <v>-2.2139674410178875E-2</v>
       </c>
       <c r="R26" s="20">
         <f ca="1"/>
-        <v>2.9343965598056174E-3</v>
+        <v>-1.4677125488521556E-2</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>54</v>
@@ -19400,27 +19518,27 @@
       </c>
       <c r="V26" s="21" cm="1">
         <f t="array" aca="1" ref="V26:AA31" ca="1">MMULT(_xlfn.ANCHORARRAY(D7),_xlfn.ANCHORARRAY(M26))</f>
-        <v>2.2818355372090399E-2</v>
+        <v>-0.10938527678115562</v>
       </c>
       <c r="W26" s="20">
         <f ca="1"/>
-        <v>8.4962213080202534E-2</v>
+        <v>2.1156888111827334E-2</v>
       </c>
       <c r="X26" s="20">
         <f ca="1"/>
-        <v>7.7585579926391104E-2</v>
+        <v>-8.525581122400297E-2</v>
       </c>
       <c r="Y26" s="20">
         <f ca="1"/>
-        <v>6.2165977455732699E-2</v>
+        <v>7.5648033047392663E-2</v>
       </c>
       <c r="Z26" s="20">
         <f ca="1"/>
-        <v>-9.4688719614692093E-2</v>
+        <v>-4.2946611069160152E-2</v>
       </c>
       <c r="AA26" s="20">
         <f ca="1"/>
-        <v>4.1739857810164115E-2</v>
+        <v>-2.7905323237862042E-2</v>
       </c>
     </row>
     <row r="27" spans="10:27" x14ac:dyDescent="0.25">
@@ -19432,27 +19550,27 @@
       </c>
       <c r="M27" s="64">
         <f ca="1"/>
-        <v>8.7109673121906275E-3</v>
+        <v>-4.3510049468183071E-2</v>
       </c>
       <c r="N27" s="76">
         <f ca="1"/>
-        <v>-2.3286823170766788E-2</v>
+        <v>8.2024290954689147E-3</v>
       </c>
       <c r="O27" s="77">
         <f ca="1"/>
-        <v>2.3291015907861534E-2</v>
+        <v>-1.4724916699648032E-2</v>
       </c>
       <c r="P27" s="65">
         <f ca="1"/>
-        <v>3.4454595117302367E-2</v>
+        <v>2.2559825146935886E-2</v>
       </c>
       <c r="Q27" s="65">
         <f ca="1"/>
-        <v>-4.2359982238675063E-2</v>
+        <v>-2.123776438707127E-3</v>
       </c>
       <c r="R27" s="65">
         <f ca="1"/>
-        <v>3.3056816508656869E-2</v>
+        <v>2.0923951158244608E-2</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>55</v>
@@ -19462,27 +19580,27 @@
       </c>
       <c r="V27" s="47">
         <f ca="1"/>
-        <v>3.7749704691456172E-2</v>
+        <v>-2.4996623079897268E-2</v>
       </c>
       <c r="W27" s="65">
         <f ca="1"/>
-        <v>3.0758557479463395E-2</v>
+        <v>-9.3733307283233626E-3</v>
       </c>
       <c r="X27" s="65">
         <f ca="1"/>
-        <v>2.0384098918579906E-2</v>
+        <v>-7.8011541586577894E-4</v>
       </c>
       <c r="Y27" s="65">
         <f ca="1"/>
-        <v>0.11496233555428409</v>
+        <v>2.2202089725689256E-2</v>
       </c>
       <c r="Z27" s="65">
         <f ca="1"/>
-        <v>-0.13148276224527211</v>
+        <v>-1.8988105343127212E-2</v>
       </c>
       <c r="AA27" s="65">
         <f ca="1"/>
-        <v>6.2506463636369816E-2</v>
+        <v>6.4473257873825024E-3</v>
       </c>
     </row>
     <row r="28" spans="10:27" x14ac:dyDescent="0.25">
@@ -19497,27 +19615,27 @@
       </c>
       <c r="M28" s="66">
         <f ca="1"/>
-        <v>1.8330642252177183E-2</v>
+        <v>-1.3289685622733076E-2</v>
       </c>
       <c r="N28" s="76">
         <f ca="1"/>
-        <v>3.4545605392475746E-2</v>
+        <v>3.6628925768834912E-2</v>
       </c>
       <c r="O28" s="70">
         <f ca="1"/>
-        <v>2.4964254660499896E-2</v>
+        <v>-4.0140013001943149E-2</v>
       </c>
       <c r="P28" s="6">
         <f ca="1"/>
-        <v>4.2180147773137125E-3</v>
+        <v>3.2951614289693155E-2</v>
       </c>
       <c r="Q28" s="6">
         <f ca="1"/>
-        <v>-2.9279085113939715E-2</v>
+        <v>-2.8165414569235603E-2</v>
       </c>
       <c r="R28" s="6">
         <f ca="1"/>
-        <v>-1.5478027154954277E-3</v>
+        <v>-1.5424779800517922E-2</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>3</v>
@@ -19530,27 +19648,27 @@
       </c>
       <c r="V28" s="6">
         <f ca="1"/>
-        <v>2.1172629707544941E-3</v>
+        <v>3.4265882292658367E-2</v>
       </c>
       <c r="W28" s="6">
         <f ca="1"/>
-        <v>5.0281266368724049E-2</v>
+        <v>-1.7352074318706841E-3</v>
       </c>
       <c r="X28" s="6">
         <f ca="1"/>
-        <v>-2.511569015147537E-2</v>
+        <v>2.3402794289416047E-3</v>
       </c>
       <c r="Y28" s="6">
         <f ca="1"/>
-        <v>0.11025749477697673</v>
+        <v>2.8798381316822365E-2</v>
       </c>
       <c r="Z28" s="6">
         <f ca="1"/>
-        <v>-0.11471079227331828</v>
+        <v>-2.7245699375409854E-2</v>
       </c>
       <c r="AA28" s="6">
         <f ca="1"/>
-        <v>4.1909002441282123E-2</v>
+        <v>-3.6136488079068912E-2</v>
       </c>
     </row>
     <row r="29" spans="10:27" x14ac:dyDescent="0.25">
@@ -19562,27 +19680,27 @@
       </c>
       <c r="M29" s="67">
         <f ca="1"/>
-        <v>2.164866513882388E-2</v>
+        <v>-1.9142530270418248E-2</v>
       </c>
       <c r="N29" s="76">
         <f ca="1"/>
-        <v>1.604008237084651E-2</v>
+        <v>-4.1298088644953011E-2</v>
       </c>
       <c r="O29" s="70">
         <f ca="1"/>
-        <v>-3.5887876490984079E-2</v>
+        <v>2.5293615929410568E-2</v>
       </c>
       <c r="P29" s="6">
         <f ca="1"/>
-        <v>3.2747207704735125E-2</v>
+        <v>2.1250021812257651E-2</v>
       </c>
       <c r="Q29" s="6">
         <f ca="1"/>
-        <v>-2.5622088536722348E-2</v>
+        <v>1.0058721952575671E-2</v>
       </c>
       <c r="R29" s="6">
         <f ca="1"/>
-        <v>-9.3095775330704275E-3</v>
+        <v>-3.5916838923125791E-2</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>57</v>
@@ -19592,27 +19710,27 @@
       </c>
       <c r="V29" s="6">
         <f ca="1"/>
-        <v>-1.7821376997820278E-2</v>
+        <v>-2.0953970250843109E-2</v>
       </c>
       <c r="W29" s="6">
         <f ca="1"/>
-        <v>1.9034360377989577E-2</v>
+        <v>3.971536417660548E-3</v>
       </c>
       <c r="X29" s="6">
         <f ca="1"/>
-        <v>7.7111350296600767E-2</v>
+        <v>-2.5834602699305567E-3</v>
       </c>
       <c r="Y29" s="6">
         <f ca="1"/>
-        <v>2.9570145636818843E-2</v>
+        <v>4.8068879561813563E-2</v>
       </c>
       <c r="Z29" s="6">
         <f ca="1"/>
-        <v>-8.6315074723688434E-2</v>
+        <v>-1.024093175502397E-2</v>
       </c>
       <c r="AA29" s="6">
         <f ca="1"/>
-        <v>2.3899813840002802E-2</v>
+        <v>-1.3116552313592806E-2</v>
       </c>
     </row>
     <row r="30" spans="10:27" x14ac:dyDescent="0.25">
@@ -19624,27 +19742,27 @@
       </c>
       <c r="M30" s="68">
         <f ca="1"/>
-        <v>3.1886889508618566E-3</v>
+        <v>1.3585033864365839E-2</v>
       </c>
       <c r="N30" s="76">
         <f ca="1"/>
-        <v>-4.5192025362237667E-3</v>
+        <v>-2.9759746866160001E-2</v>
       </c>
       <c r="O30" s="70">
         <f ca="1"/>
-        <v>-3.1012535424417828E-2</v>
+        <v>1.7007718316360783E-2</v>
       </c>
       <c r="P30" s="6">
         <f ca="1"/>
-        <v>4.3936086770944266E-2</v>
+        <v>-1.8801039107083035E-2</v>
       </c>
       <c r="Q30" s="6">
         <f ca="1"/>
-        <v>-3.2190557760667676E-2</v>
+        <v>-4.8639612471299554E-3</v>
       </c>
       <c r="R30" s="6">
         <f ca="1"/>
-        <v>3.0409272756383332E-2</v>
+        <v>-7.7746094062556767E-3</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>58</v>
@@ -19654,27 +19772,27 @@
       </c>
       <c r="V30" s="6">
         <f ca="1"/>
-        <v>1.3720402257600486E-2</v>
+        <v>-5.3179903446839524E-2</v>
       </c>
       <c r="W30" s="6">
         <f ca="1"/>
-        <v>1.4127328419140453E-3</v>
+        <v>1.5881487319625246E-2</v>
       </c>
       <c r="X30" s="6">
         <f ca="1"/>
-        <v>1.0298631613039389E-2</v>
+        <v>-3.5280856517156775E-2</v>
       </c>
       <c r="Y30" s="6">
         <f ca="1"/>
-        <v>9.1252874865750067E-2</v>
+        <v>5.9196745780034525E-2</v>
       </c>
       <c r="Z30" s="6">
         <f ca="1"/>
-        <v>-0.11165442065888358</v>
+        <v>-2.8877835754755138E-2</v>
       </c>
       <c r="AA30" s="6">
         <f ca="1"/>
-        <v>4.077233087600958E-2</v>
+        <v>-1.8487438460208738E-2</v>
       </c>
     </row>
     <row r="31" spans="10:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -19686,27 +19804,27 @@
       </c>
       <c r="M31" s="69">
         <f ca="1"/>
-        <v>-1.620348237315667E-2</v>
+        <v>-7.9449555809540939E-3</v>
       </c>
       <c r="N31" s="76">
         <f ca="1"/>
-        <v>-6.0539174218947334E-3</v>
+        <v>-1.66737038621965E-2</v>
       </c>
       <c r="O31" s="70">
         <f ca="1"/>
-        <v>1.5749292902905263E-2</v>
+        <v>-1.621089649274108E-2</v>
       </c>
       <c r="P31" s="6">
         <f ca="1"/>
-        <v>-2.6997273435676941E-3</v>
+        <v>-1.6293326269141366E-2</v>
       </c>
       <c r="Q31" s="6">
         <f ca="1"/>
-        <v>-2.3242194620998177E-2</v>
+        <v>-3.6780579242519512E-3</v>
       </c>
       <c r="R31" s="6">
         <f ca="1"/>
-        <v>5.5621577427176008E-3</v>
+        <v>-1.99654252613456E-2</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>59</v>
@@ -19716,35 +19834,35 @@
       </c>
       <c r="V31" s="6">
         <f ca="1"/>
-        <v>-3.3670219164453632E-2</v>
+        <v>-2.2849797623402928E-2</v>
       </c>
       <c r="W31" s="6">
         <f ca="1"/>
-        <v>3.2907231383637471E-2</v>
+        <v>-2.5987766961159488E-2</v>
       </c>
       <c r="X31" s="6">
         <f ca="1"/>
-        <v>5.5232553637539678E-2</v>
+        <v>2.981501916242156E-3</v>
       </c>
       <c r="Y31" s="6">
         <f ca="1"/>
-        <v>3.6888557332896366E-2</v>
+        <v>-5.9313604158239023E-3</v>
       </c>
       <c r="Z31" s="6">
         <f ca="1"/>
-        <v>-7.8702874677339107E-2</v>
+        <v>1.3207125388900929E-2</v>
       </c>
       <c r="AA31" s="6">
         <f ca="1"/>
-        <v>1.8829978525073884E-2</v>
+        <v>-4.7839830005257516E-3</v>
       </c>
     </row>
     <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M34" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="N34" s="53" t="s">
         <v>168</v>
-      </c>
-      <c r="N34" s="53" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="35" spans="13:14" x14ac:dyDescent="0.25">
@@ -19799,17 +19917,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B3" s="83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="83"/>
       <c r="D3" s="83"/>
@@ -19820,14 +19938,14 @@
     </row>
     <row r="4" spans="2:49" x14ac:dyDescent="0.25">
       <c r="I4" s="2"/>
-      <c r="Y4" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
+      <c r="Y4" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
     </row>
     <row r="5" spans="2:49" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
@@ -19835,21 +19953,21 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="Y5" s="83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z5" s="83"/>
       <c r="AA5" s="83"/>
       <c r="AB5" s="83"/>
       <c r="AC5" s="83"/>
       <c r="AD5" s="83"/>
-      <c r="AR5" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS5" s="81"/>
-      <c r="AT5" s="81"/>
-      <c r="AU5" s="81"/>
-      <c r="AV5" s="81"/>
-      <c r="AW5" s="81"/>
+      <c r="AR5" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="80"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="80"/>
     </row>
     <row r="6" spans="2:49" x14ac:dyDescent="0.25">
       <c r="E6" s="86" t="s">
@@ -19871,7 +19989,7 @@
       <c r="S6" s="86"/>
       <c r="T6" s="86"/>
       <c r="Y6" s="83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z6" s="83"/>
       <c r="AA6" s="83"/>
@@ -19879,7 +19997,7 @@
       <c r="AC6" s="83"/>
       <c r="AD6" s="83"/>
       <c r="AR6" s="83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS6" s="85"/>
       <c r="AT6" s="85"/>
@@ -20032,27 +20150,27 @@
       </c>
       <c r="F9" s="7" cm="1">
         <f t="array" aca="1" ref="F9:K14" ca="1">_xlfn.ANCHORARRAY('-&gt; Q, K, V'!V7)</f>
-        <v>3.26600817427889E-2</v>
+        <v>-2.3276848931278144E-2</v>
       </c>
       <c r="G9" s="8">
         <f ca="1"/>
-        <v>-0.10866109862734627</v>
+        <v>8.5973740258541556E-2</v>
       </c>
       <c r="H9" s="9">
         <f ca="1"/>
-        <v>-1.2806475254965219E-2</v>
+        <v>6.4376504797747078E-2</v>
       </c>
       <c r="I9" s="10">
         <f ca="1"/>
-        <v>6.1087440053230295E-3</v>
+        <v>5.4085273828318181E-2</v>
       </c>
       <c r="J9" s="11">
         <f ca="1"/>
-        <v>-0.15004094887709393</v>
+        <v>-9.6920167243014735E-2</v>
       </c>
       <c r="K9" s="12">
         <f ca="1"/>
-        <v>9.5168436049971328E-2</v>
+        <v>1.9400627475856802E-2</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="2"/>
@@ -20061,27 +20179,27 @@
       </c>
       <c r="O9" s="13" cm="1">
         <f t="array" aca="1" ref="O9:T14" ca="1">TRANSPOSE(_xlfn.ANCHORARRAY('-&gt; Q, K, V'!V16))</f>
-        <v>4.8804458195388797E-2</v>
+        <v>-3.8045482928504314E-2</v>
       </c>
       <c r="P9" s="75">
         <f ca="1"/>
-        <v>6.3299121290323626E-2</v>
+        <v>-7.837179448025168E-2</v>
       </c>
       <c r="Q9" s="74">
         <f ca="1"/>
-        <v>6.1075360977996915E-2</v>
+        <v>8.197736188660357E-3</v>
       </c>
       <c r="R9" s="3">
         <f ca="1"/>
-        <v>5.6761553342706023E-2</v>
+        <v>-1.35487208537495E-2</v>
       </c>
       <c r="S9" s="3">
         <f ca="1"/>
-        <v>7.6461731773429173E-2</v>
+        <v>-4.7735252259494237E-2</v>
       </c>
       <c r="T9" s="3">
         <f ca="1"/>
-        <v>6.6976335030093551E-2</v>
+        <v>3.1233223217050191E-2</v>
       </c>
       <c r="U9" s="4"/>
       <c r="W9" s="2" t="s">
@@ -20093,27 +20211,27 @@
       </c>
       <c r="Y9" s="72" cm="1">
         <f t="array" aca="1" ref="Y9:AD14" ca="1">MMULT(_xlfn.ANCHORARRAY(F9),_xlfn.ANCHORARRAY(O9))</f>
-        <v>3.3283184661644871E-2</v>
+        <v>7.3464340167049506E-3</v>
       </c>
       <c r="Z9" s="76">
         <f ca="1"/>
-        <v>2.1798111285671613E-2</v>
+        <v>3.3303482541929023E-3</v>
       </c>
       <c r="AA9" s="20">
         <f ca="1"/>
-        <v>1.6662466571442595E-2</v>
+        <v>1.4552583287301621E-3</v>
       </c>
       <c r="AB9" s="20">
         <f ca="1"/>
-        <v>9.0911793939972511E-3</v>
+        <v>6.2893433363268858E-3</v>
       </c>
       <c r="AC9" s="20">
         <f ca="1"/>
-        <v>7.3530641728604745E-3</v>
+        <v>6.2496155189157515E-3</v>
       </c>
       <c r="AD9" s="20">
         <f ca="1"/>
-        <v>1.0617210834201283E-2</v>
+        <v>2.4010086203155832E-3</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>54</v>
@@ -20123,57 +20241,57 @@
       </c>
       <c r="AI9" s="21" cm="1">
         <f t="array" aca="1" ref="AI9:AN14" ca="1">_xlfn.ANCHORARRAY('-&gt; Q, K, V'!V26)</f>
-        <v>2.2818355372090399E-2</v>
+        <v>-0.10938527678115562</v>
       </c>
       <c r="AJ9" s="21">
         <f ca="1"/>
-        <v>8.4962213080202534E-2</v>
+        <v>2.1156888111827334E-2</v>
       </c>
       <c r="AK9" s="21">
         <f ca="1"/>
-        <v>7.7585579926391104E-2</v>
+        <v>-8.525581122400297E-2</v>
       </c>
       <c r="AL9" s="21">
         <f ca="1"/>
-        <v>6.2165977455732699E-2</v>
+        <v>7.5648033047392663E-2</v>
       </c>
       <c r="AM9" s="21">
         <f ca="1"/>
-        <v>-9.4688719614692093E-2</v>
+        <v>-4.2946611069160152E-2</v>
       </c>
       <c r="AN9" s="21">
         <f ca="1"/>
-        <v>4.1739857810164115E-2</v>
+        <v>-2.7905323237862042E-2</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AQ9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AR9" s="21" cm="1">
         <f t="array" aca="1" ref="AR9:AW14" ca="1">MMULT(Y36:AD41,_xlfn.ANCHORARRAY(AI9))</f>
-        <v>4.2841855509167344E-3</v>
+        <v>-3.2927721506034534E-2</v>
       </c>
       <c r="AS9" s="21">
         <f ca="1"/>
-        <v>3.6769629177795887E-2</v>
+        <v>6.7991701785119398E-4</v>
       </c>
       <c r="AT9" s="6">
         <f ca="1"/>
-        <v>3.5987535912798005E-2</v>
+        <v>-1.9816437945417837E-2</v>
       </c>
       <c r="AU9" s="6">
         <f ca="1"/>
-        <v>7.4251519680726102E-2</v>
+        <v>3.8047297946547841E-2</v>
       </c>
       <c r="AV9" s="6">
         <f ca="1"/>
-        <v>-0.10295901015482214</v>
+        <v>-1.9200731371020491E-2</v>
       </c>
       <c r="AW9" s="6">
         <f ca="1"/>
-        <v>3.8340470705880224E-2</v>
+        <v>-1.5667359431597645E-2</v>
       </c>
     </row>
     <row r="10" spans="2:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20185,27 +20303,27 @@
       </c>
       <c r="F10" s="7">
         <f ca="1"/>
-        <v>-2.3751226448287768E-2</v>
+        <v>-2.1865213674184321E-2</v>
       </c>
       <c r="G10" s="8">
         <f ca="1"/>
-        <v>-7.3255425089516601E-2</v>
+        <v>9.5869920271719616E-2</v>
       </c>
       <c r="H10" s="9">
         <f ca="1"/>
-        <v>1.4845136966494622E-2</v>
+        <v>9.9271740102261932E-2</v>
       </c>
       <c r="I10" s="10">
         <f ca="1"/>
-        <v>3.8741282491982693E-2</v>
+        <v>-1.760399072097376E-2</v>
       </c>
       <c r="J10" s="11">
         <f ca="1"/>
-        <v>-0.12034234107869952</v>
+        <v>-7.0793298612025005E-2</v>
       </c>
       <c r="K10" s="12">
         <f ca="1"/>
-        <v>5.5010883582970911E-2</v>
+        <v>-6.0702922927261649E-2</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="2"/>
@@ -20214,27 +20332,27 @@
       </c>
       <c r="O10" s="14">
         <f ca="1"/>
-        <v>-0.13861750440048765</v>
+        <v>5.1117756213410609E-2</v>
       </c>
       <c r="P10" s="75">
         <f ca="1"/>
-        <v>-9.5810069657134636E-2</v>
+        <v>9.9574319435609487E-2</v>
       </c>
       <c r="Q10" s="74">
         <f ca="1"/>
-        <v>-2.5538855010696086E-2</v>
+        <v>-1.3277629269503101E-2</v>
       </c>
       <c r="R10" s="3">
         <f ca="1"/>
-        <v>1.2161964616056745E-2</v>
+        <v>2.5729113438636923E-2</v>
       </c>
       <c r="S10" s="3">
         <f ca="1"/>
-        <v>-4.227640547749198E-3</v>
+        <v>6.5193240160164326E-2</v>
       </c>
       <c r="T10" s="3">
         <f ca="1"/>
-        <v>2.1195227888330996E-2</v>
+        <v>-1.5249297210470292E-2</v>
       </c>
       <c r="U10" s="4"/>
       <c r="W10" s="2" t="s">
@@ -20245,27 +20363,27 @@
       </c>
       <c r="Y10" s="47">
         <f ca="1"/>
-        <v>2.0725426992151189E-2</v>
+        <v>1.5035285042043873E-2</v>
       </c>
       <c r="Z10" s="73">
         <f ca="1"/>
-        <v>1.2810035504156896E-2</v>
+        <v>7.442287981777854E-3</v>
       </c>
       <c r="AA10" s="70">
         <f ca="1"/>
-        <v>1.099162934992174E-2</v>
+        <v>-8.3073249043884093E-3</v>
       </c>
       <c r="AB10" s="6">
         <f ca="1"/>
-        <v>2.6439828628360656E-3</v>
+        <v>4.2059543436014091E-3</v>
       </c>
       <c r="AC10" s="6">
         <f ca="1"/>
-        <v>1.6313080134692382E-3</v>
+        <v>1.0244214201976742E-2</v>
       </c>
       <c r="AD10" s="6">
         <f ca="1"/>
-        <v>4.0454653464480766E-3</v>
+        <v>2.5956772105498898E-3</v>
       </c>
       <c r="AG10" s="2" t="s">
         <v>55</v>
@@ -20275,27 +20393,27 @@
       </c>
       <c r="AI10" s="22">
         <f ca="1"/>
-        <v>3.7749704691456172E-2</v>
+        <v>-2.4996623079897268E-2</v>
       </c>
       <c r="AJ10" s="22">
         <f ca="1"/>
-        <v>3.0758557479463395E-2</v>
+        <v>-9.3733307283233626E-3</v>
       </c>
       <c r="AK10" s="22">
         <f ca="1"/>
-        <v>2.0384098918579906E-2</v>
+        <v>-7.8011541586577894E-4</v>
       </c>
       <c r="AL10" s="22">
         <f ca="1"/>
-        <v>0.11496233555428409</v>
+        <v>2.2202089725689256E-2</v>
       </c>
       <c r="AM10" s="22">
         <f ca="1"/>
-        <v>-0.13148276224527211</v>
+        <v>-1.8988105343127212E-2</v>
       </c>
       <c r="AN10" s="22">
         <f ca="1"/>
-        <v>6.2506463636369816E-2</v>
+        <v>6.4473257873825024E-3</v>
       </c>
       <c r="AP10" s="2" t="s">
         <v>1</v>
@@ -20305,27 +20423,27 @@
       </c>
       <c r="AR10" s="20">
         <f ca="1"/>
-        <v>4.2524145227918562E-3</v>
+        <v>-3.3146594261523499E-2</v>
       </c>
       <c r="AS10" s="6">
         <f ca="1"/>
-        <v>3.6719956722248218E-2</v>
+        <v>7.1146514933550717E-4</v>
       </c>
       <c r="AT10" s="6">
         <f ca="1"/>
-        <v>3.593977516347354E-2</v>
+        <v>-1.9939064127569062E-2</v>
       </c>
       <c r="AU10" s="6">
         <f ca="1"/>
-        <v>7.4254161589743739E-2</v>
+        <v>3.8109049347732321E-2</v>
       </c>
       <c r="AV10" s="6">
         <f ca="1"/>
-        <v>-0.10295848475374937</v>
+        <v>-1.9226744980703123E-2</v>
       </c>
       <c r="AW10" s="6">
         <f ca="1"/>
-        <v>3.8327826318887842E-2</v>
+        <v>-1.5637376195873093E-2</v>
       </c>
     </row>
     <row r="11" spans="2:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20340,27 +20458,27 @@
       </c>
       <c r="F11" s="3">
         <f ca="1"/>
-        <v>8.1227358025012311E-3</v>
+        <v>2.4892360315250574E-2</v>
       </c>
       <c r="G11" s="3">
         <f ca="1"/>
-        <v>-8.3990338575712517E-2</v>
+        <v>2.2237710272901643E-2</v>
       </c>
       <c r="H11" s="3">
         <f ca="1"/>
-        <v>-7.0223412005294722E-2</v>
+        <v>-1.2656848023397796E-2</v>
       </c>
       <c r="I11" s="3">
         <f ca="1"/>
-        <v>1.0483120428232195E-2</v>
+        <v>6.4672664185586703E-2</v>
       </c>
       <c r="J11" s="3">
         <f ca="1"/>
-        <v>-9.2148864021563942E-2</v>
+        <v>-4.1983594929929639E-2</v>
       </c>
       <c r="K11" s="3">
         <f ca="1"/>
-        <v>-4.2789992812092045E-2</v>
+        <v>-3.8349634317892678E-2</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>2</v>
@@ -20371,27 +20489,27 @@
       </c>
       <c r="O11" s="15">
         <f ca="1"/>
-        <v>4.0521525056020705E-3</v>
+        <v>6.7100390339903865E-2</v>
       </c>
       <c r="P11" s="75">
         <f ca="1"/>
-        <v>2.5090871852924558E-2</v>
+        <v>-3.0607782191302075E-2</v>
       </c>
       <c r="Q11" s="74">
         <f ca="1"/>
-        <v>-6.064797313608674E-2</v>
+        <v>-2.687738923526908E-2</v>
       </c>
       <c r="R11" s="3">
         <f ca="1"/>
-        <v>-1.4698616151416488E-2</v>
+        <v>2.4316092409922233E-2</v>
       </c>
       <c r="S11" s="3">
         <f ca="1"/>
-        <v>-4.4828309755699253E-3</v>
+        <v>3.4032367345633321E-2</v>
       </c>
       <c r="T11" s="3">
         <f ca="1"/>
-        <v>-5.7548091605219509E-2</v>
+        <v>1.7951790734636014E-2</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="2" t="s">
@@ -20405,27 +20523,27 @@
       </c>
       <c r="Y11" s="20">
         <f ca="1"/>
-        <v>1.9674207547915039E-2</v>
+        <v>-4.7433584719216277E-4</v>
       </c>
       <c r="Z11" s="65">
         <f ca="1"/>
-        <v>1.3536975288869914E-2</v>
+        <v>-1.2648208607775385E-3</v>
       </c>
       <c r="AA11" s="73">
         <f ca="1"/>
-        <v>1.7492295887795554E-2</v>
+        <v>2.1667396276685768E-3</v>
       </c>
       <c r="AB11" s="70">
         <f ca="1"/>
-        <v>7.4510944378996741E-3</v>
+        <v>-5.1985794316239864E-4</v>
       </c>
       <c r="AC11" s="6">
         <f ca="1"/>
-        <v>6.9795822633281568E-3</v>
+        <v>-8.6161313260036169E-4</v>
       </c>
       <c r="AD11" s="6">
         <f ca="1"/>
-        <v>1.0982612912140529E-2</v>
+        <v>1.8648527534707095E-4</v>
       </c>
       <c r="AF11" s="2" t="s">
         <v>2</v>
@@ -20438,27 +20556,27 @@
       </c>
       <c r="AI11" s="23">
         <f ca="1"/>
-        <v>2.1172629707544941E-3</v>
+        <v>3.4265882292658367E-2</v>
       </c>
       <c r="AJ11" s="23">
         <f ca="1"/>
-        <v>5.0281266368724049E-2</v>
+        <v>-1.7352074318706841E-3</v>
       </c>
       <c r="AK11" s="23">
         <f ca="1"/>
-        <v>-2.511569015147537E-2</v>
+        <v>2.3402794289416047E-3</v>
       </c>
       <c r="AL11" s="23">
         <f ca="1"/>
-        <v>0.11025749477697673</v>
+        <v>2.8798381316822365E-2</v>
       </c>
       <c r="AM11" s="23">
         <f ca="1"/>
-        <v>-0.11471079227331828</v>
+        <v>-2.7245699375409854E-2</v>
       </c>
       <c r="AN11" s="23">
         <f ca="1"/>
-        <v>4.1909002441282123E-2</v>
+        <v>-3.6136488079068912E-2</v>
       </c>
       <c r="AO11" s="2" t="s">
         <v>3</v>
@@ -20471,27 +20589,27 @@
       </c>
       <c r="AR11" s="6">
         <f ca="1"/>
-        <v>4.1980800520104713E-3</v>
+        <v>-3.28190876012317E-2</v>
       </c>
       <c r="AS11" s="6">
         <f ca="1"/>
-        <v>3.6675777849592209E-2</v>
+        <v>6.4859408259273707E-4</v>
       </c>
       <c r="AT11" s="6">
         <f ca="1"/>
-        <v>3.589654617237506E-2</v>
+        <v>-1.9752461444696817E-2</v>
       </c>
       <c r="AU11" s="6">
         <f ca="1"/>
-        <v>7.4236817599398722E-2</v>
+        <v>3.7988872473096319E-2</v>
       </c>
       <c r="AV11" s="6">
         <f ca="1"/>
-        <v>-0.10294270934622395</v>
+        <v>-1.9181463248122966E-2</v>
       </c>
       <c r="AW11" s="6">
         <f ca="1"/>
-        <v>3.830230342957823E-2</v>
+        <v>-1.5674313506375513E-2</v>
       </c>
     </row>
     <row r="12" spans="2:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20503,27 +20621,27 @@
       </c>
       <c r="F12" s="3">
         <f ca="1"/>
-        <v>-6.0706038413879809E-2</v>
+        <v>2.2260222352677411E-2</v>
       </c>
       <c r="G12" s="3">
         <f ca="1"/>
-        <v>-4.6319072718143152E-3</v>
+        <v>2.8493966004365885E-2</v>
       </c>
       <c r="H12" s="3">
         <f ca="1"/>
-        <v>-2.0890914819853286E-2</v>
+        <v>3.0209937798731816E-2</v>
       </c>
       <c r="I12" s="3">
         <f ca="1"/>
-        <v>3.8255186120040918E-2</v>
+        <v>1.4481889019490827E-2</v>
       </c>
       <c r="J12" s="3">
         <f ca="1"/>
-        <v>-4.9105650524874034E-2</v>
+        <v>-2.7567937376632826E-2</v>
       </c>
       <c r="K12" s="3">
         <f ca="1"/>
-        <v>-3.3031024466218119E-2</v>
+        <v>-2.4067468027241936E-2</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="2"/>
@@ -20532,27 +20650,27 @@
       </c>
       <c r="O12" s="16">
         <f ca="1"/>
-        <v>-3.7569412525182311E-2</v>
+        <v>-1.9711474138194993E-2</v>
       </c>
       <c r="P12" s="75">
         <f ca="1"/>
-        <v>-3.0299833401267948E-2</v>
+        <v>-2.0099841693041368E-2</v>
       </c>
       <c r="Q12" s="74">
         <f ca="1"/>
-        <v>5.437455651203707E-2</v>
+        <v>6.0279823788423489E-2</v>
       </c>
       <c r="R12" s="3">
         <f ca="1"/>
-        <v>-6.1672471591626844E-2</v>
+        <v>2.7253409612621516E-3</v>
       </c>
       <c r="S12" s="3">
         <f ca="1"/>
-        <v>-2.8150242240400643E-2</v>
+        <v>-6.3195964867895802E-3</v>
       </c>
       <c r="T12" s="3">
         <f ca="1"/>
-        <v>-1.2441558849947269E-2</v>
+        <v>-2.3362955946075264E-2</v>
       </c>
       <c r="U12" s="4"/>
       <c r="W12" s="2" t="s">
@@ -20563,27 +20681,27 @@
       </c>
       <c r="Y12" s="20">
         <f ca="1"/>
-        <v>3.7855055527840069E-4</v>
+        <v>3.2629417907531831E-3</v>
       </c>
       <c r="Z12" s="6">
         <f ca="1"/>
-        <v>-1.219330887856346E-3</v>
+        <v>-5.5396672030165266E-4</v>
       </c>
       <c r="AA12" s="65">
         <f ca="1"/>
-        <v>5.4420012700661744E-3</v>
+        <v>-1.3752546283650013E-3</v>
       </c>
       <c r="AB12" s="73">
         <f ca="1"/>
-        <v>-1.262860594719438E-3</v>
+        <v>8.3234691548530332E-4</v>
       </c>
       <c r="AC12" s="70">
         <f ca="1"/>
-        <v>-2.0920060848971583E-3</v>
+        <v>1.528199830444888E-3</v>
       </c>
       <c r="AD12" s="6">
         <f ca="1"/>
-        <v>1.2039337042385871E-3</v>
+        <v>1.4521956379004494E-3</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>57</v>
@@ -20593,27 +20711,27 @@
       </c>
       <c r="AI12" s="78">
         <f ca="1"/>
-        <v>-1.7821376997820278E-2</v>
+        <v>-2.0953970250843109E-2</v>
       </c>
       <c r="AJ12" s="24">
         <f ca="1"/>
-        <v>1.9034360377989577E-2</v>
+        <v>3.971536417660548E-3</v>
       </c>
       <c r="AK12" s="24">
         <f ca="1"/>
-        <v>7.7111350296600767E-2</v>
+        <v>-2.5834602699305567E-3</v>
       </c>
       <c r="AL12" s="24">
         <f ca="1"/>
-        <v>2.9570145636818843E-2</v>
+        <v>4.8068879561813563E-2</v>
       </c>
       <c r="AM12" s="24">
         <f ca="1"/>
-        <v>-8.6315074723688434E-2</v>
+        <v>-1.024093175502397E-2</v>
       </c>
       <c r="AN12" s="24">
         <f ca="1"/>
-        <v>2.3899813840002802E-2</v>
+        <v>-1.3116552313592806E-2</v>
       </c>
       <c r="AP12" s="2" t="s">
         <v>1</v>
@@ -20623,27 +20741,27 @@
       </c>
       <c r="AR12" s="6">
         <f ca="1"/>
-        <v>4.138559589873538E-3</v>
+        <v>-3.2908794076040165E-2</v>
       </c>
       <c r="AS12" s="6">
         <f ca="1"/>
-        <v>3.6591287375359549E-2</v>
+        <v>6.627901575203465E-4</v>
       </c>
       <c r="AT12" s="6">
         <f ca="1"/>
-        <v>3.5870519173235096E-2</v>
+        <v>-1.9801595806761038E-2</v>
       </c>
       <c r="AU12" s="6">
         <f ca="1"/>
-        <v>7.4202608484278371E-2</v>
+        <v>3.8017346194659955E-2</v>
       </c>
       <c r="AV12" s="6">
         <f ca="1"/>
-        <v>-0.10292576288955467</v>
+        <v>-1.91865071737371E-2</v>
       </c>
       <c r="AW12" s="6">
         <f ca="1"/>
-        <v>3.8273094084931993E-2</v>
+        <v>-1.5665492504556996E-2</v>
       </c>
     </row>
     <row r="13" spans="2:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20655,27 +20773,27 @@
       </c>
       <c r="F13" s="3">
         <f ca="1"/>
-        <v>-6.6184907511051716E-2</v>
+        <v>-3.4056153650361617E-3</v>
       </c>
       <c r="G13" s="3">
         <f ca="1"/>
-        <v>-2.1545694772118283E-2</v>
+        <v>8.9128669621382994E-2</v>
       </c>
       <c r="H13" s="3">
         <f ca="1"/>
-        <v>4.1562750772240337E-3</v>
+        <v>8.4245678351139899E-2</v>
       </c>
       <c r="I13" s="3">
         <f ca="1"/>
-        <v>3.4010135993920027E-2</v>
+        <v>2.9534606698064098E-2</v>
       </c>
       <c r="J13" s="3">
         <f ca="1"/>
-        <v>-4.9225091439164738E-2</v>
+        <v>-3.3426667742691575E-2</v>
       </c>
       <c r="K13" s="3">
         <f ca="1"/>
-        <v>-3.6256631133410329E-2</v>
+        <v>-4.3299423232336244E-2</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="2"/>
@@ -20684,27 +20802,27 @@
       </c>
       <c r="O13" s="17">
         <f ca="1"/>
-        <v>-9.9717672561145151E-2</v>
+        <v>3.7991311307392465E-3</v>
       </c>
       <c r="P13" s="75">
         <f ca="1"/>
-        <v>-7.1883942538390463E-2</v>
+        <v>3.6464814496045321E-2</v>
       </c>
       <c r="Q13" s="74">
         <f ca="1"/>
-        <v>-9.3169835801424447E-2</v>
+        <v>-2.1632983143801228E-3</v>
       </c>
       <c r="R13" s="3">
         <f ca="1"/>
-        <v>-7.2419173504678774E-2</v>
+        <v>-1.4673982472705613E-2</v>
       </c>
       <c r="S13" s="3">
         <f ca="1"/>
-        <v>-5.0196930490098282E-2</v>
+        <v>2.0811002926394935E-2</v>
       </c>
       <c r="T13" s="3">
         <f ca="1"/>
-        <v>-8.0423928863437522E-2</v>
+        <v>-4.4845189705435815E-2</v>
       </c>
       <c r="U13" s="4"/>
       <c r="W13" s="2" t="s">
@@ -20715,27 +20833,27 @@
       </c>
       <c r="Y13" s="20">
         <f ca="1"/>
-        <v>2.6626177886684707E-3</v>
+        <v>1.1457953082868663E-2</v>
       </c>
       <c r="Z13" s="6">
         <f ca="1"/>
-        <v>8.5254902366165377E-4</v>
+        <v>5.7840097252949679E-3</v>
       </c>
       <c r="AA13" s="6">
         <f ca="1"/>
-        <v>3.9088868254302982E-3</v>
+        <v>-3.9618782864203781E-3</v>
       </c>
       <c r="AB13" s="65">
         <f ca="1"/>
-        <v>-1.8054586265458994E-3</v>
+        <v>3.5595939379829246E-3</v>
       </c>
       <c r="AC13" s="73">
         <f ca="1"/>
-        <v>-2.32383272493589E-3</v>
+        <v>8.6241529784922034E-3</v>
       </c>
       <c r="AD13" s="70">
         <f ca="1"/>
-        <v>-8.3289116800614902E-4</v>
+        <v>4.0820040841303164E-4</v>
       </c>
       <c r="AG13" s="2" t="s">
         <v>58</v>
@@ -20745,27 +20863,27 @@
       </c>
       <c r="AI13" s="25">
         <f ca="1"/>
-        <v>1.3720402257600486E-2</v>
+        <v>-5.3179903446839524E-2</v>
       </c>
       <c r="AJ13" s="25">
         <f ca="1"/>
-        <v>1.4127328419140453E-3</v>
+        <v>1.5881487319625246E-2</v>
       </c>
       <c r="AK13" s="25">
         <f ca="1"/>
-        <v>1.0298631613039389E-2</v>
+        <v>-3.5280856517156775E-2</v>
       </c>
       <c r="AL13" s="25">
         <f ca="1"/>
-        <v>9.1252874865750067E-2</v>
+        <v>5.9196745780034525E-2</v>
       </c>
       <c r="AM13" s="25">
         <f ca="1"/>
-        <v>-0.11165442065888358</v>
+        <v>-2.8877835754755138E-2</v>
       </c>
       <c r="AN13" s="25">
         <f ca="1"/>
-        <v>4.077233087600958E-2</v>
+        <v>-1.8487438460208738E-2</v>
       </c>
       <c r="AP13" s="2" t="s">
         <v>1</v>
@@ -20775,27 +20893,27 @@
       </c>
       <c r="AR13" s="6">
         <f ca="1"/>
-        <v>4.1722414509556558E-3</v>
+        <v>-3.3054293842953733E-2</v>
       </c>
       <c r="AS13" s="6">
         <f ca="1"/>
-        <v>3.6608386261319167E-2</v>
+        <v>7.0544443332626848E-4</v>
       </c>
       <c r="AT13" s="6">
         <f ca="1"/>
-        <v>3.5887413827610938E-2</v>
+        <v>-1.9895149361567017E-2</v>
       </c>
       <c r="AU13" s="6">
         <f ca="1"/>
-        <v>7.4218871238946701E-2</v>
+        <v>3.8093416060351569E-2</v>
       </c>
       <c r="AV13" s="6">
         <f ca="1"/>
-        <v>-0.10293883878024719</v>
+        <v>-1.9228429002126186E-2</v>
       </c>
       <c r="AW13" s="6">
         <f ca="1"/>
-        <v>3.8289645222552501E-2</v>
+        <v>-1.5654249526422782E-2</v>
       </c>
     </row>
     <row r="14" spans="2:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20807,27 +20925,27 @@
       </c>
       <c r="F14" s="3">
         <f ca="1"/>
-        <v>-4.0053331269642709E-2</v>
+        <v>-2.230139581179641E-2</v>
       </c>
       <c r="G14" s="3">
         <f ca="1"/>
-        <v>-1.8799202289581391E-2</v>
+        <v>-3.3984294041151997E-2</v>
       </c>
       <c r="H14" s="3">
         <f ca="1"/>
-        <v>-5.6468320417509016E-2</v>
+        <v>-3.1980409524093471E-2</v>
       </c>
       <c r="I14" s="3">
         <f ca="1"/>
-        <v>1.6992902793502261E-2</v>
+        <v>-2.1475459244461037E-3</v>
       </c>
       <c r="J14" s="3">
         <f ca="1"/>
-        <v>-4.778970771598727E-2</v>
+        <v>-4.2855550465717276E-2</v>
       </c>
       <c r="K14" s="3">
         <f ca="1"/>
-        <v>-7.3242438976137997E-2</v>
+        <v>5.0154307060094903E-2</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="2"/>
@@ -20836,27 +20954,27 @@
       </c>
       <c r="O14" s="18">
         <f ca="1"/>
-        <v>2.045382203045068E-2</v>
+        <v>-4.2230867945081081E-2</v>
       </c>
       <c r="P14" s="75">
         <f ca="1"/>
-        <v>-1.0078824981893941E-2</v>
+        <v>-2.3863838638642811E-2</v>
       </c>
       <c r="Q14" s="74">
         <f ca="1"/>
-        <v>-3.3577071034064598E-2</v>
+        <v>5.4016686504134673E-2</v>
       </c>
       <c r="R14" s="3">
         <f ca="1"/>
-        <v>-2.2260140669923795E-2</v>
+        <v>3.2316119955165555E-2</v>
       </c>
       <c r="S14" s="3">
         <f ca="1"/>
-        <v>-3.1739557261055144E-2</v>
+        <v>-1.538606430386868E-2</v>
       </c>
       <c r="T14" s="3">
         <f ca="1"/>
-        <v>-2.0962974592003598E-2</v>
+        <v>1.0338521145980269E-2</v>
       </c>
       <c r="U14" s="4"/>
       <c r="W14" s="2" t="s">
@@ -20867,27 +20985,27 @@
       </c>
       <c r="Y14" s="20">
         <f ca="1"/>
-        <v>3.0512763673715896E-3</v>
+        <v>-5.2731739248184873E-3</v>
       </c>
       <c r="Z14" s="6">
         <f ca="1"/>
-        <v>1.5076010188221174E-3</v>
+        <v>-3.3737417878238344E-3</v>
       </c>
       <c r="AA14" s="6">
         <f ca="1"/>
-        <v>9.2943349660020401E-3</v>
+        <v>3.8003849439209791E-3</v>
       </c>
       <c r="AB14" s="6">
         <f ca="1"/>
-        <v>2.3711654487088424E-3</v>
+        <v>8.939324414314366E-4</v>
       </c>
       <c r="AC14" s="65">
         <f ca="1"/>
-        <v>1.5152920257783934E-3</v>
+        <v>-3.8893252890888274E-3</v>
       </c>
       <c r="AD14" s="73">
         <f ca="1"/>
-        <v>5.3359626062776675E-3</v>
+        <v>1.7381461829891853E-3</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>59</v>
@@ -20897,57 +21015,57 @@
       </c>
       <c r="AI14" s="26">
         <f ca="1"/>
-        <v>-3.3670219164453632E-2</v>
+        <v>-2.2849797623402928E-2</v>
       </c>
       <c r="AJ14" s="26">
         <f ca="1"/>
-        <v>3.2907231383637471E-2</v>
+        <v>-2.5987766961159488E-2</v>
       </c>
       <c r="AK14" s="26">
         <f ca="1"/>
-        <v>5.5232553637539678E-2</v>
+        <v>2.981501916242156E-3</v>
       </c>
       <c r="AL14" s="26">
         <f ca="1"/>
-        <v>3.6888557332896366E-2</v>
+        <v>-5.9313604158239023E-3</v>
       </c>
       <c r="AM14" s="26">
         <f ca="1"/>
-        <v>-7.8702874677339107E-2</v>
+        <v>1.3207125388900929E-2</v>
       </c>
       <c r="AN14" s="26">
         <f ca="1"/>
-        <v>1.8829978525073884E-2</v>
+        <v>-4.7839830005257516E-3</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="AR14" s="6">
         <f ca="1"/>
-        <v>4.1272373468017546E-3</v>
+        <v>-3.2726727749000449E-2</v>
       </c>
       <c r="AS14" s="6">
         <f ca="1"/>
-        <v>3.6584771106740487E-2</v>
+        <v>6.2129379647284533E-4</v>
       </c>
       <c r="AT14" s="6">
         <f ca="1"/>
-        <v>3.5865666570533701E-2</v>
+        <v>-1.9683022801133571E-2</v>
       </c>
       <c r="AU14" s="6">
         <f ca="1"/>
-        <v>7.4196527981687632E-2</v>
+        <v>3.7942147730838836E-2</v>
       </c>
       <c r="AV14" s="6">
         <f ca="1"/>
-        <v>-0.10292115230787195</v>
+        <v>-1.9149375345912469E-2</v>
       </c>
       <c r="AW14" s="6">
         <f ca="1"/>
-        <v>3.8267388188232491E-2</v>
+        <v>-1.5673065239255234E-2</v>
       </c>
     </row>
     <row r="16" spans="2:49" x14ac:dyDescent="0.25">
@@ -21008,27 +21126,27 @@
       </c>
       <c r="AI18" s="21">
         <f ca="1">$Y$36*AI9</f>
-        <v>3.8673948269473202E-3</v>
+        <v>-1.8282582164352985E-2</v>
       </c>
       <c r="AJ18" s="21">
         <f ca="1">$Y$36*AJ9</f>
-        <v>1.4399916996396119E-2</v>
+        <v>3.5361481602352416E-3</v>
       </c>
       <c r="AK18" s="21">
         <f ca="1">$Y$36*AK9</f>
-        <v>1.3149679964228935E-2</v>
+        <v>-1.4249599393617172E-2</v>
       </c>
       <c r="AL18" s="21">
         <f t="shared" ref="AL18:AN18" ca="1" si="0">$Y$36*AL9</f>
-        <v>1.0536271159949043E-2</v>
+        <v>1.2643761760804999E-2</v>
       </c>
       <c r="AM18" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6048424982285561E-2</v>
+        <v>-7.1780679142341222E-3</v>
       </c>
       <c r="AN18" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0743271169309181E-3</v>
+        <v>-4.6640771037198044E-3</v>
       </c>
     </row>
     <row r="19" spans="11:42" x14ac:dyDescent="0.25">
@@ -21037,27 +21155,27 @@
       </c>
       <c r="AI19" s="22">
         <f ca="1">$Z$36*AI10</f>
-        <v>6.3249897643114757E-3</v>
+        <v>-4.1611736674409087E-3</v>
       </c>
       <c r="AJ19" s="22">
         <f t="shared" ref="AJ19:AN19" ca="1" si="1">$Z$36*AJ10</f>
-        <v>5.1536180961602009E-3</v>
+        <v>-1.5603730503214114E-3</v>
       </c>
       <c r="AK19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.415370214641993E-3</v>
+        <v>-1.2986537084187352E-4</v>
       </c>
       <c r="AL19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9262020765602426E-2</v>
+        <v>3.6959692848670253E-3</v>
       </c>
       <c r="AM19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2030029961346061E-2</v>
+        <v>-3.1609391274919248E-3</v>
       </c>
       <c r="AN19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0473002264116415E-2</v>
+        <v>1.0732826672673521E-3</v>
       </c>
     </row>
     <row r="20" spans="11:42" x14ac:dyDescent="0.25">
@@ -21066,27 +21184,27 @@
       </c>
       <c r="AI20" s="23">
         <f ca="1">$AA$36*AI11</f>
-        <v>3.5293171655335475E-4</v>
+        <v>5.6935360840508313E-3</v>
       </c>
       <c r="AJ20" s="23">
         <f t="shared" ref="AJ20:AM20" ca="1" si="2">$AA$36*AJ11</f>
-        <v>8.3815066409376852E-3</v>
+        <v>-2.8831786796821045E-4</v>
       </c>
       <c r="AK20" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.1865955056228218E-3</v>
+        <v>3.8885516682860179E-4</v>
       </c>
       <c r="AL20" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8379090095097649E-2</v>
+        <v>4.785069352342743E-3</v>
       </c>
       <c r="AM20" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.9121421091018526E-2</v>
+        <v>-4.5270794781879396E-3</v>
       </c>
       <c r="AN20" s="23">
         <f ca="1">$AA$36*AN11</f>
-        <v>6.9859135945543899E-3</v>
+        <v>-6.0043514149680398E-3</v>
       </c>
     </row>
     <row r="21" spans="11:42" x14ac:dyDescent="0.25">
@@ -21095,27 +21213,27 @@
       </c>
       <c r="AI21" s="78">
         <f ca="1">$AB$36*AI12</f>
-        <v>-2.9482816914481419E-3</v>
+        <v>-3.4985323829976834E-3</v>
       </c>
       <c r="AJ21" s="78">
         <f t="shared" ref="AJ21:AN21" ca="1" si="3">$AB$36*AJ12</f>
-        <v>3.1489517458564756E-3</v>
+        <v>6.6309862050515104E-4</v>
       </c>
       <c r="AK21" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2756925702773632E-2</v>
+        <v>-4.31341617189531E-4</v>
       </c>
       <c r="AL21" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8919406735602536E-3</v>
+        <v>8.0257120606847133E-3</v>
       </c>
       <c r="AM21" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4279544983249853E-2</v>
+        <v>-1.7098540729091217E-3</v>
       </c>
       <c r="AN21" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9538686366444916E-3</v>
+        <v>-2.18997557374795E-3</v>
       </c>
     </row>
     <row r="22" spans="11:42" x14ac:dyDescent="0.25">
@@ -21124,27 +21242,27 @@
       </c>
       <c r="AI22" s="25">
         <f ca="1">$AC$36*AI13</f>
-        <v>2.2658946212512441E-3</v>
+        <v>-8.8787098973870989E-3</v>
       </c>
       <c r="AJ22" s="25">
         <f t="shared" ref="AJ22:AN22" ca="1" si="4">$AC$36*AJ13</f>
-        <v>2.333097592663329E-4</v>
+        <v>2.6515113700975408E-3</v>
       </c>
       <c r="AK22" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7007966341006581E-3</v>
+        <v>-5.8903546197730137E-3</v>
       </c>
       <c r="AL22" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5070214010487555E-2</v>
+        <v>9.8832584977462268E-3</v>
       </c>
       <c r="AM22" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.8439484969891392E-2</v>
+        <v>-4.8213311704705854E-3</v>
       </c>
       <c r="AN22" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7334618543453094E-3</v>
+        <v>-3.0865908396782793E-3</v>
       </c>
     </row>
     <row r="23" spans="11:42" x14ac:dyDescent="0.25">
@@ -21153,42 +21271,42 @@
       </c>
       <c r="AI23" s="26">
         <f ca="1">$AD$36*AI14</f>
-        <v>-5.5787436866985172E-3</v>
+        <v>-3.8002594779066889E-3</v>
       </c>
       <c r="AJ23" s="26">
         <f t="shared" ref="AJ23:AN23" ca="1" si="5">$AD$36*AJ14</f>
-        <v>5.4523259391790722E-3</v>
+        <v>-4.3221502146971172E-3</v>
       </c>
       <c r="AK23" s="26">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1513589026756097E-3</v>
+        <v>4.9586788917515168E-4</v>
       </c>
       <c r="AL23" s="26">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1119829760291752E-3</v>
+        <v>-9.8647300989786386E-4</v>
       </c>
       <c r="AM23" s="26">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.304010416703074E-2</v>
+        <v>2.1965403922732051E-3</v>
       </c>
       <c r="AN23" s="26">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1198972392887064E-3</v>
+        <v>-7.9564716675092103E-4</v>
       </c>
     </row>
     <row r="26" spans="11:42" x14ac:dyDescent="0.25">
       <c r="AI26" s="6">
         <f ca="1">SUM(AI18:AI23)</f>
-        <v>4.2841855509167344E-3</v>
+        <v>-3.2927721506034534E-2</v>
       </c>
       <c r="AJ26" s="6">
         <f ca="1">SUM(AJ18:AJ23)</f>
-        <v>3.6769629177795887E-2</v>
+        <v>6.7991701785119398E-4</v>
       </c>
     </row>
     <row r="27" spans="11:42" x14ac:dyDescent="0.25">
       <c r="W27" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y27" s="54" t="s">
         <v>19</v>
@@ -21212,7 +21330,7 @@
     <row r="28" spans="11:42" x14ac:dyDescent="0.25">
       <c r="W28" s="54">
         <f ca="1">SUM(Y28:AD28)</f>
-        <v>6.0998693193086089</v>
+        <v>6.0271479442690321</v>
       </c>
       <c r="X28" s="54" t="str" cm="1">
         <f t="array" ref="X28:X33">TRANSPOSE(Y27:AD27)</f>
@@ -21220,95 +21338,95 @@
       </c>
       <c r="Y28" s="21" cm="1">
         <f t="array" aca="1" ref="Y28:AD33" ca="1">EXP(_xlfn.ANCHORARRAY(Y9))</f>
-        <v>1.0338432663470103</v>
+        <v>1.0073734852659173</v>
       </c>
       <c r="Z28" s="20">
         <f ca="1"/>
-        <v>1.0220374258185037</v>
+        <v>1.0033359000253397</v>
       </c>
       <c r="AA28" s="20">
         <f ca="1"/>
-        <v>1.0168020597118175</v>
+        <v>1.0014563177309708</v>
       </c>
       <c r="AB28" s="20">
         <f ca="1"/>
-        <v>1.0091326296808287</v>
+        <v>1.0063091627847804</v>
       </c>
       <c r="AC28" s="20">
         <f ca="1"/>
-        <v>1.0073801643315732</v>
+        <v>1.0062691851122203</v>
       </c>
       <c r="AD28" s="20">
         <f ca="1"/>
-        <v>1.0106737734188753</v>
+        <v>1.0024038933498045</v>
       </c>
       <c r="AE28" s="2"/>
     </row>
     <row r="29" spans="11:42" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W29" s="54">
         <f t="shared" ref="W29:W33" ca="1" si="6">SUM(Y29:AD29)</f>
-        <v>6.0532201647206847</v>
+        <v>6.0314567462411244</v>
       </c>
       <c r="X29" s="54" t="str">
         <v>cat</v>
       </c>
       <c r="Y29" s="21">
         <f ca="1"/>
-        <v>1.0209416901187431</v>
+        <v>1.0151488835548159</v>
       </c>
       <c r="Z29" s="6">
         <f ca="1"/>
-        <v>1.012892435481926</v>
+        <v>1.0074700506368024</v>
       </c>
       <c r="AA29" s="6">
         <f ca="1"/>
-        <v>1.0110522592446254</v>
+        <v>0.99172708556689548</v>
       </c>
       <c r="AB29" s="6">
         <f ca="1"/>
-        <v>1.0026474812680872</v>
+        <v>1.0042148117832135</v>
       </c>
       <c r="AC29" s="6">
         <f ca="1"/>
-        <v>1.001632639320212</v>
+        <v>1.0102968658021181</v>
       </c>
       <c r="AD29" s="6">
         <f ca="1"/>
-        <v>1.004053659287091</v>
+        <v>1.0025990488972796</v>
       </c>
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="11:42" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W30" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0766702797373977</v>
+        <v>5.9992363817983323</v>
       </c>
       <c r="X30" s="54" t="str">
         <v xml:space="preserve">is </v>
       </c>
       <c r="Y30" s="20">
         <f ca="1"/>
-        <v>1.0198690202671421</v>
+        <v>0.99952577663227071</v>
       </c>
       <c r="Z30" s="6">
         <f ca="1"/>
-        <v>1.0136290149829479</v>
+        <v>0.99873597868799657</v>
       </c>
       <c r="AA30" s="6">
         <f ca="1"/>
-        <v>1.0176461820601903</v>
+        <v>1.0021690887042818</v>
       </c>
       <c r="AB30" s="6">
         <f ca="1"/>
-        <v>1.0074789229166639</v>
+        <v>0.99948027715956567</v>
       </c>
       <c r="AC30" s="6">
         <f ca="1"/>
-        <v>1.007003996314521</v>
+        <v>0.99913875794941076</v>
       </c>
       <c r="AD30" s="6">
         <f ca="1"/>
-        <v>1.0110431431959335</v>
+        <v>1.0001865026648069</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AP30" s="71"/>
@@ -21316,102 +21434,102 @@
     <row r="31" spans="11:42" x14ac:dyDescent="0.25">
       <c r="W31" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0024696461014919</v>
+        <v>6.0051554603916273</v>
       </c>
       <c r="X31" s="54" t="str">
         <v xml:space="preserve"> a </v>
       </c>
       <c r="Y31" s="20">
         <f ca="1"/>
-        <v>1.0003786222145818</v>
+        <v>1.0032682709800198</v>
       </c>
       <c r="Z31" s="6">
         <f ca="1"/>
-        <v>0.99878141219399907</v>
+        <v>0.99944618669093244</v>
       </c>
       <c r="AA31" s="6">
         <f ca="1"/>
-        <v>1.0054568358567162</v>
+        <v>0.99862569060092143</v>
       </c>
       <c r="AB31" s="6">
         <f ca="1"/>
-        <v>0.99873793647815545</v>
+        <v>1.0008326934123077</v>
       </c>
       <c r="AC31" s="6">
         <f ca="1"/>
-        <v>0.99791018063468973</v>
+        <v>1.0015293681228581</v>
       </c>
       <c r="AD31" s="6">
         <f ca="1"/>
-        <v>1.0012046587233498</v>
+        <v>1.001453250584587</v>
       </c>
       <c r="AE31" s="2"/>
     </row>
     <row r="32" spans="11:42" x14ac:dyDescent="0.25">
       <c r="W32" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0024781058450571</v>
+        <v>6.0260062445332876</v>
       </c>
       <c r="X32" s="54" t="str">
         <v>lovely</v>
       </c>
       <c r="Y32" s="20">
         <f ca="1"/>
-        <v>1.0026661657036278</v>
+        <v>1.0115238468560626</v>
       </c>
       <c r="Z32" s="6">
         <f ca="1"/>
-        <v>1.0008529125468804</v>
+        <v>1.0058007694066855</v>
       </c>
       <c r="AA32" s="6">
         <f ca="1"/>
-        <v>1.0039165364875109</v>
+        <v>0.9960459595990252</v>
       </c>
       <c r="AB32" s="6">
         <f ca="1"/>
-        <v>0.99819617023345297</v>
+        <v>1.0035659368162753</v>
       </c>
       <c r="AC32" s="6">
         <f ca="1"/>
-        <v>0.99767886528401906</v>
+        <v>1.0086614481217011</v>
       </c>
       <c r="AD32" s="6">
         <f ca="1"/>
-        <v>0.99916745558956566</v>
+        <v>1.0004082837335371</v>
       </c>
       <c r="AE32" s="2"/>
     </row>
     <row r="33" spans="23:31" x14ac:dyDescent="0.25">
       <c r="W33" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0231429794489157</v>
+        <v>5.9939324813922141</v>
       </c>
       <c r="X33" s="54" t="str">
         <v>cat</v>
       </c>
       <c r="Y33" s="20">
         <f ca="1"/>
-        <v>1.0030559362494307</v>
+        <v>0.99474070485101973</v>
       </c>
       <c r="Z33" s="6">
         <f ca="1"/>
-        <v>1.0015087380205479</v>
+        <v>0.99663194288433266</v>
       </c>
       <c r="AA33" s="6">
         <f ca="1"/>
-        <v>1.0093376614234055</v>
+        <v>1.0038076155635931</v>
       </c>
       <c r="AB33" s="6">
         <f ca="1"/>
-        <v>1.0023739788847694</v>
+        <v>1.0008943321181221</v>
       </c>
       <c r="AC33" s="6">
         <f ca="1"/>
-        <v>1.0015164406608392</v>
+        <v>0.99611822834049935</v>
       </c>
       <c r="AD33" s="6">
         <f ca="1"/>
-        <v>1.0053502242099233</v>
+        <v>1.0017396576346471</v>
       </c>
       <c r="AE33" s="2"/>
     </row>
@@ -21445,31 +21563,31 @@
       </c>
       <c r="Y36" s="21">
         <f ca="1">Y28/$W$28</f>
-        <v>0.16948613359215234</v>
+        <v>0.16713933266293679</v>
       </c>
       <c r="Z36" s="22">
         <f t="shared" ref="Z36:AD36" ca="1" si="7">Z28/$W$28</f>
-        <v>0.16755070843621725</v>
+        <v>0.16646943285660851</v>
       </c>
       <c r="AA36" s="23">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16669243331053313</v>
+        <v>0.16615758016745127</v>
       </c>
       <c r="AB36" s="24">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16543512276345113</v>
+        <v>0.16696274458330471</v>
       </c>
       <c r="AC36" s="25">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16514782720718268</v>
+        <v>0.16695611164963031</v>
       </c>
       <c r="AD36" s="26">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16568777469046342</v>
+        <v>0.16631479808006858</v>
       </c>
       <c r="AE36" s="54">
         <f ca="1">SUM(Y36:AD36)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="37" spans="23:31" x14ac:dyDescent="0.25">
@@ -21478,27 +21596,27 @@
       </c>
       <c r="Y37" s="20">
         <f ca="1">Y29/$W$29</f>
-        <v>0.16866092135042188</v>
+        <v>0.16830907130146772</v>
       </c>
       <c r="Z37" s="20">
         <f t="shared" ref="Z37:AD37" ca="1" si="8">Z29/$W$29</f>
-        <v>0.16733117380815837</v>
+        <v>0.16703594057350568</v>
       </c>
       <c r="AA37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16702717425300831</v>
+        <v>0.16442579749659178</v>
       </c>
       <c r="AB37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16563869378346865</v>
+        <v>0.16649623035248526</v>
       </c>
       <c r="AC37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16547104054762735</v>
+        <v>0.16750461925002563</v>
       </c>
       <c r="AD37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16587099625731544</v>
+        <v>0.16622834102592399</v>
       </c>
       <c r="AE37" s="54">
         <f t="shared" ref="AE37:AE41" ca="1" si="9">SUM(Y37:AD37)</f>
@@ -21511,31 +21629,31 @@
       </c>
       <c r="Y38" s="20">
         <f ca="1">Y30/$W$30</f>
-        <v>0.16783352943599494</v>
+        <v>0.16660883369503982</v>
       </c>
       <c r="Z38" s="20">
         <f t="shared" ref="Z38:AD38" ca="1" si="10">Z30/$W$30</f>
-        <v>0.16680665040571391</v>
+        <v>0.16647718394930378</v>
       </c>
       <c r="AA38" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16746773071652782</v>
+        <v>0.16704944178310097</v>
       </c>
       <c r="AB38" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16579456783694407</v>
+        <v>0.16660124948434876</v>
       </c>
       <c r="AC38" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16571641210686824</v>
+        <v>0.16654432237089292</v>
       </c>
       <c r="AD38" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16638110949795115</v>
+        <v>0.16671896871731379</v>
       </c>
       <c r="AE38" s="54">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="23:31" x14ac:dyDescent="0.25">
@@ -21544,27 +21662,27 @@
       </c>
       <c r="Y39" s="20">
         <f ca="1">Y31/$W$31</f>
-        <v>0.16666117135041436</v>
+        <v>0.16706782656957087</v>
       </c>
       <c r="Z39" s="20">
         <f t="shared" ref="Z39:AD39" ca="1" si="11">Z31/$W$31</f>
-        <v>0.16639507920588847</v>
+        <v>0.16643135940160214</v>
       </c>
       <c r="AA39" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16750719206214468</v>
+        <v>0.16629472745336651</v>
       </c>
       <c r="AB39" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16638783623451053</v>
+        <v>0.16666224546783645</v>
       </c>
       <c r="AC39" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16624993368901356</v>
+        <v>0.16677825823638931</v>
       </c>
       <c r="AD39" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16679878745802842</v>
+        <v>0.16676558287123461</v>
       </c>
       <c r="AE39" s="54">
         <f t="shared" ca="1" si="9"/>
@@ -21577,27 +21695,27 @@
       </c>
       <c r="Y40" s="20">
         <f ca="1">Y32/$W$32</f>
-        <v>0.16704203630951314</v>
+        <v>0.16785974089782987</v>
       </c>
       <c r="Z40" s="20">
         <f t="shared" ref="Z40:AD40" ca="1" si="12">Z32/$W$32</f>
-        <v>0.16673995221611485</v>
+        <v>0.16691001114031942</v>
       </c>
       <c r="AA40" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.16725034540482922</v>
+        <v>0.16529122592639608</v>
       </c>
       <c r="AB40" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.16629734463528248</v>
+        <v>0.16653914650797066</v>
       </c>
       <c r="AC40" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.1662111627383539</v>
+        <v>0.16738473330271525</v>
       </c>
       <c r="AD40" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.16645915869590633</v>
+        <v>0.16601514222476854</v>
       </c>
       <c r="AE40" s="54">
         <f t="shared" ca="1" si="9"/>
@@ -21610,31 +21728,31 @@
       </c>
       <c r="Y41" s="20">
         <f ca="1">Y33/$W$33</f>
-        <v>0.16653364193277123</v>
+        <v>0.16595794295967289</v>
       </c>
       <c r="Z41" s="20">
         <f t="shared" ref="Z41:AD41" ca="1" si="13">Z33/$W$33</f>
-        <v>0.16627676637226041</v>
+        <v>0.16627346837461279</v>
       </c>
       <c r="AA41" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.16757657337162438</v>
+        <v>0.16747062444894911</v>
       </c>
       <c r="AB41" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.16642041909097782</v>
+        <v>0.1669845856998449</v>
       </c>
       <c r="AC41" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.16627804521294504</v>
+        <v>0.16618776261375745</v>
       </c>
       <c r="AD41" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.16691455401942115</v>
+        <v>0.16712561590316288</v>
       </c>
       <c r="AE41" s="54">
         <f t="shared" ca="1" si="9"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -21682,11 +21800,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:32" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="C2" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D3" s="44"/>
@@ -21696,7 +21814,7 @@
     <row r="4" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D4" s="44"/>
       <c r="E4" s="83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="85"/>
       <c r="G4" s="85"/>
@@ -21705,7 +21823,7 @@
       <c r="J4" s="85"/>
       <c r="W4" s="44"/>
       <c r="X4" s="83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y4" s="85"/>
       <c r="Z4" s="85"/>
@@ -21769,81 +21887,81 @@
         <v>512</v>
       </c>
       <c r="AE6" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF6" s="53" t="s">
         <v>170</v>
-      </c>
-      <c r="AF6" s="53" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C7" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="6" cm="1">
         <f t="array" aca="1" ref="E7:J12" ca="1">'-&gt; Self - Attention'!AR9:AW14</f>
-        <v>4.2841855509167344E-3</v>
+        <v>-3.2927721506034534E-2</v>
       </c>
       <c r="F7" s="6">
         <f ca="1"/>
-        <v>3.6769629177795887E-2</v>
+        <v>6.7991701785119398E-4</v>
       </c>
       <c r="G7" s="6">
         <f ca="1"/>
-        <v>3.5987535912798005E-2</v>
+        <v>-1.9816437945417837E-2</v>
       </c>
       <c r="H7" s="6">
         <f ca="1"/>
-        <v>7.4251519680726102E-2</v>
+        <v>3.8047297946547841E-2</v>
       </c>
       <c r="I7" s="6">
         <f ca="1"/>
-        <v>-0.10295901015482214</v>
+        <v>-1.9200731371020491E-2</v>
       </c>
       <c r="J7" s="6">
         <f ca="1"/>
-        <v>3.8340470705880224E-2</v>
+        <v>-1.5667359431597645E-2</v>
       </c>
       <c r="L7" s="52"/>
       <c r="V7" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W7" s="44" t="s">
         <v>19</v>
       </c>
       <c r="X7" s="6">
         <f ca="1">(E7-$AE$7)/$AF$7</f>
-        <v>-0.16485391581686509</v>
+        <v>-0.98870784959546809</v>
       </c>
       <c r="Y7" s="6">
         <f t="shared" ref="Y7:AB7" ca="1" si="0">(F7-$AE$7)/$AF$7</f>
-        <v>0.36216802764017814</v>
+        <v>0.35220606812622585</v>
       </c>
       <c r="Z7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34947987360977417</v>
+        <v>-0.46557967463812089</v>
       </c>
       <c r="AA7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97024895780034603</v>
+        <v>1.843130255509571</v>
       </c>
       <c r="AB7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9046952451381947</v>
+        <v>-0.44101354767697276</v>
       </c>
       <c r="AC7" s="6">
         <f ca="1">(J7-$AE$7)/$AF$7</f>
-        <v>0.38765230190476119</v>
+        <v>-0.30003525172523493</v>
       </c>
       <c r="AE7" s="1">
         <f ca="1">AVERAGE(E7:J7)</f>
-        <v>1.4445721812215803E-2</v>
+        <v>-8.147505881611913E-3</v>
       </c>
       <c r="AF7" s="1">
         <f ca="1">STDEV(E7:J7)</f>
-        <v>6.1639641442229609E-2</v>
+        <v>2.506323342589168E-2</v>
       </c>
     </row>
     <row r="8" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -21855,27 +21973,27 @@
       </c>
       <c r="E8" s="6">
         <f ca="1"/>
-        <v>4.2524145227918562E-3</v>
+        <v>-3.3146594261523499E-2</v>
       </c>
       <c r="F8" s="6">
         <f ca="1"/>
-        <v>3.6719956722248218E-2</v>
+        <v>7.1146514933550717E-4</v>
       </c>
       <c r="G8" s="6">
         <f ca="1"/>
-        <v>3.593977516347354E-2</v>
+        <v>-1.9939064127569062E-2</v>
       </c>
       <c r="H8" s="6">
         <f ca="1"/>
-        <v>7.4254161589743739E-2</v>
+        <v>3.8109049347732321E-2</v>
       </c>
       <c r="I8" s="6">
         <f ca="1"/>
-        <v>-0.10295848475374937</v>
+        <v>-1.9226744980703123E-2</v>
       </c>
       <c r="J8" s="6">
         <f ca="1"/>
-        <v>3.8327826318887842E-2</v>
+        <v>-1.5637376195873093E-2</v>
       </c>
       <c r="L8" s="52"/>
       <c r="V8" s="44" t="s">
@@ -21886,35 +22004,35 @@
       </c>
       <c r="X8" s="6">
         <f ca="1">(E8-$AE$8)/$AF$8</f>
-        <v>-0.16501191011463046</v>
+        <v>-0.992636760162387</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" ref="Y8:AB8" ca="1" si="1">(F8-$AE$8)/$AF$8</f>
-        <v>0.36177561165702771</v>
+        <v>0.3539550377829998</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34911712622705438</v>
+        <v>-0.46735113957553487</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97076999264065345</v>
+        <v>1.8413196718110754</v>
       </c>
       <c r="AB8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9045141979639915</v>
+        <v>-0.43902101264624332</v>
       </c>
       <c r="AC8" s="6">
         <f ca="1">(J8-$AE$8)/$AF$8</f>
-        <v>0.38786337755388595</v>
+        <v>-0.29626579720991097</v>
       </c>
       <c r="AE8" s="1">
         <f ca="1">AVERAGE(E8:J8)</f>
-        <v>1.4422608260565973E-2</v>
+        <v>-8.1882108447668221E-3</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" ref="AF8:AF12" ca="1" si="2">STDEV(E8:J8)</f>
-        <v>6.1633088973450996E-2</v>
+        <v>2.5143521193667761E-2</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -21926,27 +22044,27 @@
       </c>
       <c r="E9" s="6">
         <f ca="1"/>
-        <v>4.1980800520104713E-3</v>
+        <v>-3.28190876012317E-2</v>
       </c>
       <c r="F9" s="6">
         <f ca="1"/>
-        <v>3.6675777849592209E-2</v>
+        <v>6.4859408259273707E-4</v>
       </c>
       <c r="G9" s="6">
         <f ca="1"/>
-        <v>3.589654617237506E-2</v>
+        <v>-1.9752461444696817E-2</v>
       </c>
       <c r="H9" s="6">
         <f ca="1"/>
-        <v>7.4236817599398722E-2</v>
+        <v>3.7988872473096319E-2</v>
       </c>
       <c r="I9" s="6">
         <f ca="1"/>
-        <v>-0.10294270934622395</v>
+        <v>-1.9181463248122966E-2</v>
       </c>
       <c r="J9" s="6">
         <f ca="1"/>
-        <v>3.830230342957823E-2</v>
+        <v>-1.5674313506375513E-2</v>
       </c>
       <c r="L9" s="52"/>
       <c r="V9" s="44" t="s">
@@ -21957,35 +22075,35 @@
       </c>
       <c r="X9" s="6">
         <f ca="1">(E9-$AE$9)/$AF$9</f>
-        <v>-0.16547928731103809</v>
+        <v>-0.98707172768985907</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" ref="Y9:AC9" ca="1" si="3">(F9-$AE$9)/$AF$9</f>
-        <v>0.36160791563268058</v>
+        <v>0.35105796506020098</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34896160530153048</v>
+        <v>-0.46463218110558896</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97119371524121956</v>
+        <v>1.8440246940355112</v>
       </c>
       <c r="AB9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.9042890809443265</v>
+        <v>-0.44180210734785108</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3880051320799337</v>
+        <v>-0.30157664295241321</v>
       </c>
       <c r="AE9" s="1">
         <f t="shared" ref="AE9:AE12" ca="1" si="4">AVERAGE(E9:J9)</f>
-        <v>1.4394469292788458E-2</v>
+        <v>-8.1316432074563221E-3</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1617314205690631E-2</v>
+        <v>2.5010790706723844E-2</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -21997,27 +22115,27 @@
       </c>
       <c r="E10" s="6">
         <f ca="1"/>
-        <v>4.138559589873538E-3</v>
+        <v>-3.2908794076040165E-2</v>
       </c>
       <c r="F10" s="6">
         <f ca="1"/>
-        <v>3.6591287375359549E-2</v>
+        <v>6.627901575203465E-4</v>
       </c>
       <c r="G10" s="6">
         <f ca="1"/>
-        <v>3.5870519173235096E-2</v>
+        <v>-1.9801595806761038E-2</v>
       </c>
       <c r="H10" s="6">
         <f ca="1"/>
-        <v>7.4202608484278371E-2</v>
+        <v>3.8017346194659955E-2</v>
       </c>
       <c r="I10" s="6">
         <f ca="1"/>
-        <v>-0.10292576288955467</v>
+        <v>-1.91865071737371E-2</v>
       </c>
       <c r="J10" s="6">
         <f ca="1"/>
-        <v>3.8273094084931993E-2</v>
+        <v>-1.5665492504556996E-2</v>
       </c>
       <c r="L10" s="52"/>
       <c r="U10" s="44"/>
@@ -22029,35 +22147,35 @@
       </c>
       <c r="X10" s="6">
         <f ca="1">(E10-$AE$10)/$AF$10</f>
-        <v>-0.16591702635906055</v>
+        <v>-0.98871035083030345</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" ref="Y10:AC10" ca="1" si="5">(F10-$AE$10)/$AF$10</f>
-        <v>0.36094720493065602</v>
+        <v>0.35176721285944679</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34924566208160751</v>
+        <v>-0.46535389911904684</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97156027619006591</v>
+        <v>1.8432948071789526</v>
       </c>
       <c r="AB10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.9040871529055889</v>
+        <v>-0.44079406582333519</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38825103606232009</v>
+        <v>-0.30020370426571374</v>
       </c>
       <c r="AE10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4358384303020647E-2</v>
+        <v>-8.1470422014858334E-3</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1595997333211701E-2</v>
+        <v>2.5044495441723453E-2</v>
       </c>
     </row>
     <row r="11" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -22069,27 +22187,27 @@
       </c>
       <c r="E11" s="6">
         <f ca="1"/>
-        <v>4.1722414509556558E-3</v>
+        <v>-3.3054293842953733E-2</v>
       </c>
       <c r="F11" s="6">
         <f ca="1"/>
-        <v>3.6608386261319167E-2</v>
+        <v>7.0544443332626848E-4</v>
       </c>
       <c r="G11" s="6">
         <f ca="1"/>
-        <v>3.5887413827610938E-2</v>
+        <v>-1.9895149361567017E-2</v>
       </c>
       <c r="H11" s="6">
         <f ca="1"/>
-        <v>7.4218871238946701E-2</v>
+        <v>3.8093416060351569E-2</v>
       </c>
       <c r="I11" s="6">
         <f ca="1"/>
-        <v>-0.10293883878024719</v>
+        <v>-1.9228429002126186E-2</v>
       </c>
       <c r="J11" s="6">
         <f ca="1"/>
-        <v>3.8289645222552501E-2</v>
+        <v>-1.5654249526422782E-2</v>
       </c>
       <c r="L11" s="52"/>
       <c r="V11" s="44" t="s">
@@ -22100,106 +22218,106 @@
       </c>
       <c r="X11" s="6">
         <f ca="1">(E11-$AE$11)/$AF$11</f>
-        <v>-0.16557790751118967</v>
+        <v>-0.99068343130030567</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" ref="Y11:AC11" ca="1" si="6">(F11-$AE$11)/$AF$11</f>
-        <v>0.36092544987249764</v>
+        <v>0.35346498665750165</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34922262855548375</v>
+        <v>-0.46675036370416684</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97141867369183321</v>
+        <v>1.8420719924892737</v>
       </c>
       <c r="AB11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.9042044824148607</v>
+        <v>-0.44020480493742981</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38821563780623564</v>
+        <v>-0.29789837920487294</v>
       </c>
       <c r="AE11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4372953203522965E-2</v>
+        <v>-8.1722102065653144E-3</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1606719796709286E-2</v>
+        <v>2.5116079314791647E-2</v>
       </c>
     </row>
     <row r="12" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="6">
         <f ca="1"/>
-        <v>4.1272373468017546E-3</v>
+        <v>-3.2726727749000449E-2</v>
       </c>
       <c r="F12" s="6">
         <f ca="1"/>
-        <v>3.6584771106740487E-2</v>
+        <v>6.2129379647284533E-4</v>
       </c>
       <c r="G12" s="6">
         <f ca="1"/>
-        <v>3.5865666570533701E-2</v>
+        <v>-1.9683022801133571E-2</v>
       </c>
       <c r="H12" s="6">
         <f ca="1"/>
-        <v>7.4196527981687632E-2</v>
+        <v>3.7942147730838836E-2</v>
       </c>
       <c r="I12" s="6">
         <f ca="1"/>
-        <v>-0.10292115230787195</v>
+        <v>-1.9149375345912469E-2</v>
       </c>
       <c r="J12" s="6">
         <f ca="1"/>
-        <v>3.8267388188232491E-2</v>
+        <v>-1.5673065239255234E-2</v>
       </c>
       <c r="L12" s="52"/>
       <c r="V12" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W12" s="44" t="s">
         <v>20</v>
       </c>
       <c r="X12" s="6">
         <f ca="1">(E12-$AE$12)/$AF$12</f>
-        <v>-0.16603030719191378</v>
+        <v>-0.98602825610058131</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" ref="Y12:AC12" ca="1" si="7">(F12-$AE$12)/$AF$12</f>
-        <v>0.36094457754982417</v>
+        <v>0.34981296043640647</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34926932110897418</v>
+        <v>-0.46352893295638065</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.97160253421113019</v>
+        <v>1.844796249142181</v>
       </c>
       <c r="AB12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.9040493821250677</v>
+        <v>-0.44215230451644882</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38826325644705295</v>
+        <v>-0.30289971600517679</v>
       </c>
       <c r="AE12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4353406481020686E-2</v>
+        <v>-8.111458267998339E-3</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1592183422262435E-2</v>
+        <v>2.4964060947246517E-2</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -22247,22 +22365,22 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L15" s="52"/>
       <c r="S15" s="44" t="s">
         <v>3</v>
       </c>
       <c r="T15" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X15" s="83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y15" s="83"/>
       <c r="Z15" s="83"/>
@@ -22272,7 +22390,7 @@
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.25">
       <c r="X16" s="83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y16" s="83"/>
       <c r="Z16" s="83"/>
@@ -22282,7 +22400,7 @@
     </row>
     <row r="17" spans="3:32" x14ac:dyDescent="0.25">
       <c r="E17" s="83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="83"/>
       <c r="G17" s="83"/>
@@ -22308,15 +22426,15 @@
         <v>512</v>
       </c>
       <c r="AE17" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF17" s="53" t="s">
         <v>170</v>
-      </c>
-      <c r="AF17" s="53" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="3:32" x14ac:dyDescent="0.25">
       <c r="E18" s="83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="83"/>
       <c r="G18" s="83"/>
@@ -22331,35 +22449,35 @@
       </c>
       <c r="X18" s="6">
         <f ca="1">(E20-$AE$18)/$AF$18</f>
-        <v>0.20707232378287108</v>
+        <v>0.35549942087001418</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" ref="Y18:AC18" ca="1" si="8">(F20-$AE$18)/$AF$18</f>
-        <v>-1.2145202684004153</v>
+        <v>-0.48224481492970867</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.39705256616118201</v>
+        <v>0.95011727575877902</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5128150720762163</v>
+        <v>-1.0551786293499696</v>
       </c>
       <c r="AB18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.10942405158327696</v>
+        <v>-1.023848383921415</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.0118437452031319</v>
+        <v>1.255655131572299</v>
       </c>
       <c r="AE18" s="1">
         <f ca="1">AVERAGE(E20:J20)</f>
-        <v>0.39225030264609462</v>
+        <v>0.58744547442303163</v>
       </c>
       <c r="AF18" s="1">
         <f ca="1">STDEV(E20:J20)</f>
-        <v>0.3092719814084916</v>
+        <v>0.19014358591718489</v>
       </c>
     </row>
     <row r="19" spans="3:32" x14ac:dyDescent="0.25">
@@ -22389,35 +22507,35 @@
       </c>
       <c r="X19" s="6">
         <f ca="1">(E21-$AE$19)/$AF$19</f>
-        <v>0.88771285016788182</v>
+        <v>-0.93631070651782589</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" ref="Y19:AC19" ca="1" si="9">(F21-$AE$19)/$AF$19</f>
-        <v>-1.2333363060822957</v>
+        <v>-0.66318903702846399</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1922681267416566</v>
+        <v>0.2198633413305888</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.25841179964061384</v>
+        <v>6.3784141976969022E-2</v>
       </c>
       <c r="AB19" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.01159763818203</v>
+        <v>-0.51794815546750506</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42336476699540149</v>
+        <v>1.8338004157062378</v>
       </c>
       <c r="AE19" s="1">
         <f ca="1">AVERAGE(E21:J21)</f>
-        <v>0.42612923591243862</v>
+        <v>0.27549538196985818</v>
       </c>
       <c r="AF19" s="1">
         <f t="shared" ref="AF19:AF23" ca="1" si="10">STDEV(E21:J21)</f>
-        <v>0.30139106594990417</v>
+        <v>0.16156221698930157</v>
       </c>
     </row>
     <row r="20" spans="3:32" x14ac:dyDescent="0.25">
@@ -22429,27 +22547,27 @@
       </c>
       <c r="E20" s="6" cm="1">
         <f t="array" aca="1" ref="E20:J25" ca="1">'-&gt; Feed Forward'!Z14:AE19</f>
-        <v>0.45629197051728387</v>
+        <v>0.65504140909873865</v>
       </c>
       <c r="F20" s="6">
         <f ca="1"/>
-        <v>1.663321277712515E-2</v>
+        <v>0.49574971602232765</v>
       </c>
       <c r="G20" s="6">
         <f ca="1"/>
-        <v>0.51504753650608959</v>
+        <v>0.76810418027767269</v>
       </c>
       <c r="H20" s="6">
         <f ca="1"/>
-        <v>0.8601216174917361</v>
+        <v>0.38681002605524828</v>
       </c>
       <c r="I20" s="6">
         <f ca="1"/>
-        <v>0.42609209589299968</v>
+        <v>0.39276727126869915</v>
       </c>
       <c r="J20" s="6">
         <f ca="1"/>
-        <v>7.9315382691333092E-2</v>
+        <v>0.82620024381550317</v>
       </c>
       <c r="V20" s="44" t="s">
         <v>1</v>
@@ -22459,35 +22577,35 @@
       </c>
       <c r="X20" s="6">
         <f ca="1">(E22-$AE$20)/$AF$20</f>
-        <v>0.5173747632113681</v>
+        <v>-0.86015449467100114</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" ref="Y20:AC20" ca="1" si="11">(F22-$AE$20)/$AF$20</f>
-        <v>0.93756088446104024</v>
+        <v>1.4431396642714394</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32844514380420209</v>
+        <v>1.0434331895551341</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.23619843166722423</v>
+        <v>-0.63162248126131371</v>
       </c>
       <c r="AB20" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.34282057286784884</v>
+        <v>-0.80962618515988727</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.8900029326772336</v>
+        <v>-0.18516969273437134</v>
       </c>
       <c r="AE20" s="1">
         <f t="shared" ref="AE20:AE23" ca="1" si="12">AVERAGE(E22:J22)</f>
-        <v>0.70969663287621521</v>
+        <v>0.39867528219786658</v>
       </c>
       <c r="AF20" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16477589765357073</v>
+        <v>0.39188176030539595</v>
       </c>
     </row>
     <row r="21" spans="3:32" x14ac:dyDescent="0.25">
@@ -22499,27 +22617,27 @@
       </c>
       <c r="E21" s="6">
         <f ca="1"/>
-        <v>0.69367795808196409</v>
+        <v>0.12422294843401893</v>
       </c>
       <c r="F21" s="6">
         <f ca="1"/>
-        <v>5.4412691947578251E-2</v>
+        <v>0.16834909086453953</v>
       </c>
       <c r="G21" s="6">
         <f ca="1"/>
-        <v>0.78546819752920194</v>
+        <v>0.31101699082990364</v>
       </c>
       <c r="H21" s="6">
         <f ca="1"/>
-        <v>0.34824622816472095</v>
+        <v>0.28580048935641766</v>
       </c>
       <c r="I21" s="6">
         <f ca="1"/>
-        <v>0.12124274542835112</v>
+        <v>0.19181452968700863</v>
       </c>
       <c r="J21" s="6">
         <f ca="1"/>
-        <v>0.55372759432281549</v>
+        <v>0.57176824264726078</v>
       </c>
       <c r="V21" s="44" t="s">
         <v>1</v>
@@ -22529,35 +22647,35 @@
       </c>
       <c r="X21" s="6">
         <f ca="1">(E23-$AE$21)/$AF$21</f>
-        <v>0.44428405745660915</v>
+        <v>6.6144210741526016E-2</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" ref="Y21:AC21" ca="1" si="13">(F23-$AE$21)/$AF$21</f>
-        <v>-0.5850868557529052</v>
+        <v>0.31429012518380089</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.86534844826342316</v>
+        <v>-0.81366359055220705</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.76648664753883688</v>
+        <v>1.073768019274941</v>
       </c>
       <c r="AB21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.25757075517032002</v>
+        <v>-1.5195765798928944</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.7486030526762832</v>
+        <v>0.8790378152448336</v>
       </c>
       <c r="AE21" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.73464629898675737</v>
+        <v>0.66675012384507459</v>
       </c>
       <c r="AF21" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.2644868977384604</v>
+        <v>0.28716311474797646</v>
       </c>
     </row>
     <row r="22" spans="3:32" x14ac:dyDescent="0.25">
@@ -22569,27 +22687,27 @@
       </c>
       <c r="E22" s="6">
         <f ca="1"/>
-        <v>0.79494752390767198</v>
+        <v>6.1596424691596319E-2</v>
       </c>
       <c r="F22" s="6">
         <f ca="1"/>
-        <v>0.86418406921815882</v>
+        <v>0.9642153941990963</v>
       </c>
       <c r="G22" s="6">
         <f ca="1"/>
-        <v>0.76381647627650873</v>
+        <v>0.80757771728180638</v>
       </c>
       <c r="H22" s="6">
         <f ca="1"/>
-        <v>0.67077682427388274</v>
+        <v>0.151153952392721</v>
       </c>
       <c r="I22" s="6">
         <f ca="1"/>
-        <v>0.76618520050462635</v>
+        <v>8.1397547568067496E-2</v>
       </c>
       <c r="J22" s="6">
         <f ca="1"/>
-        <v>0.39826970307644283</v>
+        <v>0.32611065705391185</v>
       </c>
       <c r="V22" s="44" t="s">
         <v>1</v>
@@ -22599,35 +22717,35 @@
       </c>
       <c r="X22" s="6">
         <f ca="1">(E24-$AE$22)/$AF$22</f>
-        <v>0.55216693413505902</v>
+        <v>-0.47887994556608471</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" ref="Y22:AC22" ca="1" si="14">(F24-$AE$22)/$AF$22</f>
-        <v>-0.87281798224352947</v>
+        <v>-0.63803861348555613</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31023057129256992</v>
+        <v>1.8438990332282561</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.92643141296723597</v>
+        <v>0.39084036143511192</v>
       </c>
       <c r="AB22" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5953546348999741</v>
+        <v>-0.25387010710466063</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.65850274511683671</v>
+        <v>-0.86395072850706589</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.42650260631311232</v>
+        <v>0.36824113316236184</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.32467465645489219</v>
+        <v>0.31722963764969186</v>
       </c>
     </row>
     <row r="23" spans="3:32" x14ac:dyDescent="0.25">
@@ -22639,65 +22757,65 @@
       </c>
       <c r="E23" s="6">
         <f ca="1"/>
-        <v>0.85215361105811183</v>
+        <v>0.68574430142415777</v>
       </c>
       <c r="F23" s="6">
         <f ca="1"/>
-        <v>0.57989849160112139</v>
+        <v>0.75700265512738629</v>
       </c>
       <c r="G23" s="6">
         <f ca="1"/>
-        <v>0.96351962553074078</v>
+        <v>0.43309595282508062</v>
       </c>
       <c r="H23" s="6">
         <f ca="1"/>
-        <v>0.93737197455225707</v>
+        <v>0.97509669277683186</v>
       </c>
       <c r="I23" s="6">
         <f ca="1"/>
-        <v>0.80277038896990782</v>
+        <v>0.23038378006495375</v>
       </c>
       <c r="J23" s="6">
         <f ca="1"/>
-        <v>0.27216370220840558</v>
+        <v>0.91917736085203727</v>
       </c>
       <c r="V23" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W23" s="44" t="s">
         <v>20</v>
       </c>
       <c r="X23" s="6">
         <f ca="1">(E25-$AE$23)/$AF$23</f>
-        <v>1.1528267155516019</v>
+        <v>-1.0420307203480477</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" ref="Y23:AC23" ca="1" si="15">(F25-$AE$23)/$AF$23</f>
-        <v>-0.75228005000573706</v>
+        <v>1.0020287293255603</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.69720653110403519</v>
+        <v>-1.2077032175117337</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.48305233995140795</v>
+        <v>1.0751223810794368</v>
       </c>
       <c r="AB23" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4100652034828982</v>
+        <v>-0.28839698441490041</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.6303529979733199</v>
+        <v>0.46097981186968523</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.48937772924102441</v>
+        <v>0.62544994324633907</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33670113977851202</v>
+        <v>0.33580718593706943</v>
       </c>
     </row>
     <row r="24" spans="3:32" x14ac:dyDescent="0.25">
@@ -22709,59 +22827,59 @@
       </c>
       <c r="E24" s="6">
         <f ca="1"/>
-        <v>0.60577721595916367</v>
+        <v>0.21632622155272863</v>
       </c>
       <c r="F24" s="6">
         <f ca="1"/>
-        <v>0.14312072778054219</v>
+        <v>0.16583637499982706</v>
       </c>
       <c r="G24" s="6">
         <f ca="1"/>
-        <v>0.52722661046933239</v>
+        <v>0.95318055533597867</v>
       </c>
       <c r="H24" s="6">
         <f ca="1"/>
-        <v>0.12571380557895462</v>
+        <v>0.492227279399297</v>
       </c>
       <c r="I24" s="6">
         <f ca="1"/>
-        <v>0.94447382432298133</v>
+        <v>0.2877060110754619</v>
       </c>
       <c r="J24" s="6">
         <f ca="1"/>
-        <v>0.21270345376769995</v>
+        <v>9.4170356610878025E-2</v>
       </c>
     </row>
     <row r="25" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C25" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="6">
         <f ca="1"/>
-        <v>0.87753579833436723</v>
+        <v>0.27552853938628385</v>
       </c>
       <c r="F25" s="6">
         <f ca="1"/>
-        <v>0.23608417897145673</v>
+        <v>0.96193839106925294</v>
       </c>
       <c r="G25" s="6">
         <f ca="1"/>
-        <v>0.25462749555727315</v>
+        <v>0.2198945243265793</v>
       </c>
       <c r="H25" s="6">
         <f ca="1"/>
-        <v>0.3267334558067081</v>
+        <v>0.98648376457458631</v>
       </c>
       <c r="I25" s="6">
         <f ca="1"/>
-        <v>0.96414829041573569</v>
+        <v>0.52860416347723449</v>
       </c>
       <c r="J25" s="6">
         <f ca="1"/>
-        <v>0.27713715636060554</v>
+        <v>0.78025027664409774</v>
       </c>
     </row>
   </sheetData>
@@ -22785,8 +22903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5984A43-FAB3-4532-9C9A-5A647756B553}">
   <dimension ref="B2:AE74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA54" sqref="AA54"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -22811,57 +22929,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="5" spans="2:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28"/>
       <c r="C6" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
+        <v>150</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
+      <c r="J6" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
@@ -22873,28 +22991,28 @@
       <c r="C7" s="31"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="96"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="96" t="s">
+      <c r="J7" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="96"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="96"/>
+      <c r="N7" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7" s="87"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="S7" s="96"/>
+      <c r="R7" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="87"/>
       <c r="T7" s="32"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
@@ -22928,7 +23046,7 @@
       </c>
       <c r="G9" s="6" cm="1">
         <f t="array" aca="1" ref="G9:G14" ca="1">TRANSPOSE('-&gt; Add &amp; Norm'!X7:AC7)</f>
-        <v>-0.16485391581686509</v>
+        <v>-0.98870784959546809</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -22937,7 +23055,7 @@
       </c>
       <c r="K9" s="6" cm="1">
         <f t="array" aca="1" ref="K9:K14" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.84091045004577003</v>
+        <v>5.109179067803038E-2</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -22946,7 +23064,7 @@
       </c>
       <c r="O9" s="6" cm="1">
         <f t="array" aca="1" ref="O9:O14" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.83028006701218371</v>
+        <v>0.73564070590286934</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -22955,7 +23073,7 @@
       </c>
       <c r="S9" s="6" cm="1">
         <f t="array" aca="1" ref="S9:S14" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.72326126155661252</v>
+        <v>0.34948617748290034</v>
       </c>
       <c r="T9" s="32"/>
     </row>
@@ -22969,7 +23087,7 @@
       </c>
       <c r="G10" s="6">
         <f ca="1"/>
-        <v>0.36216802764017814</v>
+        <v>0.35220606812622585</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -22978,7 +23096,7 @@
       </c>
       <c r="K10" s="6">
         <f ca="1"/>
-        <v>0.65004697962782165</v>
+        <v>0.93508136114729723</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -22987,7 +23105,7 @@
       </c>
       <c r="O10" s="6">
         <f ca="1"/>
-        <v>0.334135459690307</v>
+        <v>0.14450569651595346</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -22996,14 +23114,14 @@
       </c>
       <c r="S10" s="6">
         <f ca="1"/>
-        <v>0.43493975179053912</v>
+        <v>0.3738864151567407</v>
       </c>
       <c r="T10" s="32"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
       <c r="C11" s="90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="4"/>
@@ -23012,7 +23130,7 @@
       </c>
       <c r="G11" s="6">
         <f ca="1"/>
-        <v>0.34947987360977417</v>
+        <v>-0.46557967463812089</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -23021,7 +23139,7 @@
       </c>
       <c r="K11" s="6">
         <f ca="1"/>
-        <v>0.99801583949009398</v>
+        <v>0.54590008930778899</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -23030,7 +23148,7 @@
       </c>
       <c r="O11" s="6">
         <f ca="1"/>
-        <v>0.80491018269500425</v>
+        <v>0.84948320566455249</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -23039,23 +23157,23 @@
       </c>
       <c r="S11" s="6">
         <f ca="1"/>
-        <v>0.39532804925291121</v>
+        <v>0.37009279917231486</v>
       </c>
       <c r="T11" s="32"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="88"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5">
         <v>4</v>
       </c>
       <c r="G12" s="6">
         <f ca="1"/>
-        <v>0.97024895780034603</v>
+        <v>1.843130255509571</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -23064,7 +23182,7 @@
       </c>
       <c r="K12" s="6">
         <f ca="1"/>
-        <v>0.54062347952227729</v>
+        <v>0.2324762540603551</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -23073,7 +23191,7 @@
       </c>
       <c r="O12" s="6">
         <f ca="1"/>
-        <v>0.82386017121604493</v>
+        <v>0.82063679326821948</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -23082,7 +23200,7 @@
       </c>
       <c r="S12" s="6">
         <f ca="1"/>
-        <v>0.69989135605747843</v>
+        <v>0.57699434353346235</v>
       </c>
       <c r="T12" s="32"/>
     </row>
@@ -23096,7 +23214,7 @@
       </c>
       <c r="G13" s="6">
         <f ca="1"/>
-        <v>-1.9046952451381947</v>
+        <v>-0.44101354767697276</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -23105,7 +23223,7 @@
       </c>
       <c r="K13" s="6">
         <f ca="1"/>
-        <v>0.61966537407994271</v>
+        <v>0.8141570065475161</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -23114,7 +23232,7 @@
       </c>
       <c r="O13" s="6">
         <f ca="1"/>
-        <v>0.78023047735335549</v>
+        <v>0.96051417426081787</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -23123,7 +23241,7 @@
       </c>
       <c r="S13" s="6">
         <f ca="1"/>
-        <v>0.60151225781330431</v>
+        <v>9.3476646800837226E-2</v>
       </c>
       <c r="T13" s="32"/>
       <c r="Z13" s="27">
@@ -23155,7 +23273,7 @@
       </c>
       <c r="G14" s="6">
         <f ca="1"/>
-        <v>0.38765230190476119</v>
+        <v>-0.30003525172523493</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -23164,7 +23282,7 @@
       </c>
       <c r="K14" s="6">
         <f ca="1"/>
-        <v>0.37307334987553831</v>
+        <v>0.44449998287816372</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -23173,7 +23291,7 @@
       </c>
       <c r="O14" s="6">
         <f ca="1"/>
-        <v>0.95465198926988504</v>
+        <v>0.70488156844188965</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -23182,7 +23300,7 @@
       </c>
       <c r="S14" s="6">
         <f ca="1"/>
-        <v>0.3883382717251036</v>
+        <v>0.90521418900364203</v>
       </c>
       <c r="T14" s="32"/>
       <c r="X14" s="27" t="s">
@@ -23193,27 +23311,27 @@
       </c>
       <c r="Z14" s="6" cm="1">
         <f t="array" aca="1" ref="Z14:AE19" ca="1">_xlfn.RANDARRAY(6,6,0, 1,FALSE)</f>
-        <v>0.45629197051728387</v>
+        <v>0.65504140909873865</v>
       </c>
       <c r="AA14" s="6">
         <f ca="1"/>
-        <v>1.663321277712515E-2</v>
+        <v>0.49574971602232765</v>
       </c>
       <c r="AB14" s="6">
         <f ca="1"/>
-        <v>0.51504753650608959</v>
+        <v>0.76810418027767269</v>
       </c>
       <c r="AC14" s="6">
         <f ca="1"/>
-        <v>0.8601216174917361</v>
+        <v>0.38681002605524828</v>
       </c>
       <c r="AD14" s="6">
         <f ca="1"/>
-        <v>0.42609209589299968</v>
+        <v>0.39276727126869915</v>
       </c>
       <c r="AE14" s="6">
         <f ca="1"/>
-        <v>7.9315382691333092E-2</v>
+        <v>0.82620024381550317</v>
       </c>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
@@ -23244,27 +23362,27 @@
       </c>
       <c r="Z15" s="6">
         <f ca="1"/>
-        <v>0.69367795808196409</v>
+        <v>0.12422294843401893</v>
       </c>
       <c r="AA15" s="6">
         <f ca="1"/>
-        <v>5.4412691947578251E-2</v>
+        <v>0.16834909086453953</v>
       </c>
       <c r="AB15" s="6">
         <f ca="1"/>
-        <v>0.78546819752920194</v>
+        <v>0.31101699082990364</v>
       </c>
       <c r="AC15" s="6">
         <f ca="1"/>
-        <v>0.34824622816472095</v>
+        <v>0.28580048935641766</v>
       </c>
       <c r="AD15" s="6">
         <f ca="1"/>
-        <v>0.12124274542835112</v>
+        <v>0.19181452968700863</v>
       </c>
       <c r="AE15" s="6">
         <f ca="1"/>
-        <v>0.55372759432281549</v>
+        <v>0.57176824264726078</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
@@ -23295,27 +23413,27 @@
       </c>
       <c r="Z16" s="3">
         <f ca="1"/>
-        <v>0.79494752390767198</v>
+        <v>6.1596424691596319E-2</v>
       </c>
       <c r="AA16" s="3">
         <f ca="1"/>
-        <v>0.86418406921815882</v>
+        <v>0.9642153941990963</v>
       </c>
       <c r="AB16" s="3">
         <f ca="1"/>
-        <v>0.76381647627650873</v>
+        <v>0.80757771728180638</v>
       </c>
       <c r="AC16" s="3">
         <f ca="1"/>
-        <v>0.67077682427388274</v>
+        <v>0.151153952392721</v>
       </c>
       <c r="AD16" s="3">
         <f ca="1"/>
-        <v>0.76618520050462635</v>
+        <v>8.1397547568067496E-2</v>
       </c>
       <c r="AE16" s="3">
         <f ca="1"/>
-        <v>0.39826970307644283</v>
+        <v>0.32611065705391185</v>
       </c>
     </row>
     <row r="17" spans="2:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -23338,7 +23456,7 @@
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
       <c r="T17" s="35"/>
-      <c r="V17" s="95" t="s">
+      <c r="V17" s="89" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="27" t="s">
@@ -23349,32 +23467,32 @@
       </c>
       <c r="Z17" s="3">
         <f ca="1"/>
-        <v>0.85215361105811183</v>
+        <v>0.68574430142415777</v>
       </c>
       <c r="AA17" s="3">
         <f ca="1"/>
-        <v>0.57989849160112139</v>
+        <v>0.75700265512738629</v>
       </c>
       <c r="AB17" s="3">
         <f ca="1"/>
-        <v>0.96351962553074078</v>
+        <v>0.43309595282508062</v>
       </c>
       <c r="AC17" s="3">
         <f ca="1"/>
-        <v>0.93737197455225707</v>
+        <v>0.97509669277683186</v>
       </c>
       <c r="AD17" s="3">
         <f ca="1"/>
-        <v>0.80277038896990782</v>
+        <v>0.23038378006495375</v>
       </c>
       <c r="AE17" s="3">
         <f ca="1"/>
-        <v>0.27216370220840558</v>
+        <v>0.91917736085203727</v>
       </c>
     </row>
     <row r="18" spans="2:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="28"/>
-      <c r="V18" s="95"/>
+      <c r="V18" s="89"/>
       <c r="X18" s="27" t="s">
         <v>1</v>
       </c>
@@ -23383,82 +23501,82 @@
       </c>
       <c r="Z18" s="3">
         <f ca="1"/>
-        <v>0.60577721595916367</v>
+        <v>0.21632622155272863</v>
       </c>
       <c r="AA18" s="3">
         <f ca="1"/>
-        <v>0.14312072778054219</v>
+        <v>0.16583637499982706</v>
       </c>
       <c r="AB18" s="3">
         <f ca="1"/>
-        <v>0.52722661046933239</v>
+        <v>0.95318055533597867</v>
       </c>
       <c r="AC18" s="3">
         <f ca="1"/>
-        <v>0.12571380557895462</v>
+        <v>0.492227279399297</v>
       </c>
       <c r="AD18" s="3">
         <f ca="1"/>
-        <v>0.94447382432298133</v>
+        <v>0.2877060110754619</v>
       </c>
       <c r="AE18" s="3">
         <f ca="1"/>
-        <v>0.21270345376769995</v>
+        <v>9.4170356610878025E-2</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
       <c r="C19" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
+        <v>151</v>
+      </c>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
+      <c r="J19" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
       <c r="R19" s="29"/>
       <c r="S19" s="29"/>
       <c r="T19" s="30"/>
       <c r="X19" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y19" s="27" t="s">
         <v>20</v>
       </c>
       <c r="Z19" s="3">
         <f ca="1"/>
-        <v>0.87753579833436723</v>
+        <v>0.27552853938628385</v>
       </c>
       <c r="AA19" s="3">
         <f ca="1"/>
-        <v>0.23608417897145673</v>
+        <v>0.96193839106925294</v>
       </c>
       <c r="AB19" s="3">
         <f ca="1"/>
-        <v>0.25462749555727315</v>
+        <v>0.2198945243265793</v>
       </c>
       <c r="AC19" s="3">
         <f ca="1"/>
-        <v>0.3267334558067081</v>
+        <v>0.98648376457458631</v>
       </c>
       <c r="AD19" s="3">
         <f ca="1"/>
-        <v>0.96414829041573569</v>
+        <v>0.52860416347723449</v>
       </c>
       <c r="AE19" s="3">
         <f ca="1"/>
-        <v>0.27713715636060554</v>
+        <v>0.78025027664409774</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
@@ -23466,28 +23584,28 @@
       <c r="C20" s="31"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="96"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="96" t="s">
+      <c r="J20" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="96"/>
+      <c r="K20" s="87"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="O20" s="96"/>
+      <c r="N20" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" s="87"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="S20" s="96"/>
+      <c r="R20" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" s="87"/>
       <c r="T20" s="32"/>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
@@ -23521,7 +23639,7 @@
       </c>
       <c r="G22" s="6" cm="1">
         <f t="array" aca="1" ref="G22:G27" ca="1">TRANSPOSE('-&gt; Add &amp; Norm'!X12:AC12)</f>
-        <v>-0.16603030719191378</v>
+        <v>-0.98602825610058131</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -23530,7 +23648,7 @@
       </c>
       <c r="K22" s="6" cm="1">
         <f t="array" aca="1" ref="K22:K27" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.727766208942215</v>
+        <v>0.22406835532006886</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -23539,7 +23657,7 @@
       </c>
       <c r="O22" s="6" cm="1">
         <f t="array" aca="1" ref="O22:O27" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.1354045823124157</v>
+        <v>0.17549676268048575</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -23548,7 +23666,7 @@
       </c>
       <c r="S22" s="6" cm="1">
         <f t="array" aca="1" ref="S22:S27" ca="1">_xlfn.RANDARRAY(6,1,0, 1,FALSE)</f>
-        <v>0.62263369202299335</v>
+        <v>0.831233520071752</v>
       </c>
       <c r="T22" s="32"/>
     </row>
@@ -23562,7 +23680,7 @@
       </c>
       <c r="G23" s="6">
         <f ca="1"/>
-        <v>0.36094457754982417</v>
+        <v>0.34981296043640647</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -23571,7 +23689,7 @@
       </c>
       <c r="K23" s="6">
         <f ca="1"/>
-        <v>0.74780215388538984</v>
+        <v>0.34442302391893342</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -23580,7 +23698,7 @@
       </c>
       <c r="O23" s="6">
         <f ca="1"/>
-        <v>8.6233061790883969E-2</v>
+        <v>0.20009007596627493</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -23589,14 +23707,14 @@
       </c>
       <c r="S23" s="6">
         <f ca="1"/>
-        <v>0.16603275630762249</v>
+        <v>0.96326885108294591</v>
       </c>
       <c r="T23" s="32"/>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
       <c r="C24" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="91"/>
       <c r="E24" s="4"/>
@@ -23605,7 +23723,7 @@
       </c>
       <c r="G24" s="6">
         <f ca="1"/>
-        <v>0.34926932110897418</v>
+        <v>-0.46352893295638065</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -23614,7 +23732,7 @@
       </c>
       <c r="K24" s="6">
         <f ca="1"/>
-        <v>0.48831232771269928</v>
+        <v>9.2331927072709652E-2</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -23623,7 +23741,7 @@
       </c>
       <c r="O24" s="6">
         <f ca="1"/>
-        <v>0.45013154675776601</v>
+        <v>0.42750050285735974</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -23632,23 +23750,23 @@
       </c>
       <c r="S24" s="6">
         <f ca="1"/>
-        <v>0.45565965594938684</v>
+        <v>4.2451288427767464E-2</v>
       </c>
       <c r="T24" s="32"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="88"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5">
         <v>4</v>
       </c>
       <c r="G25" s="6">
         <f ca="1"/>
-        <v>0.97160253421113019</v>
+        <v>1.844796249142181</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -23657,7 +23775,7 @@
       </c>
       <c r="K25" s="6">
         <f ca="1"/>
-        <v>0.53430758344602336</v>
+        <v>0.14194736049971302</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -23666,7 +23784,7 @@
       </c>
       <c r="O25" s="6">
         <f ca="1"/>
-        <v>3.7748579068095811E-2</v>
+        <v>0.41008252168216019</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -23675,7 +23793,7 @@
       </c>
       <c r="S25" s="6">
         <f ca="1"/>
-        <v>0.55041200629210763</v>
+        <v>5.7946390036963669E-2</v>
       </c>
       <c r="T25" s="32"/>
     </row>
@@ -23689,7 +23807,7 @@
       </c>
       <c r="G26" s="6">
         <f ca="1"/>
-        <v>-1.9040493821250677</v>
+        <v>-0.44215230451644882</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -23698,7 +23816,7 @@
       </c>
       <c r="K26" s="6">
         <f ca="1"/>
-        <v>0.34433782361194765</v>
+        <v>0.29714891660479736</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -23707,7 +23825,7 @@
       </c>
       <c r="O26" s="6">
         <f ca="1"/>
-        <v>0.54118367047365723</v>
+        <v>0.14930032834107032</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -23716,7 +23834,7 @@
       </c>
       <c r="S26" s="6">
         <f ca="1"/>
-        <v>0.55789372852532892</v>
+        <v>0.78101593227117916</v>
       </c>
       <c r="T26" s="32"/>
     </row>
@@ -23730,7 +23848,7 @@
       </c>
       <c r="G27" s="6">
         <f ca="1"/>
-        <v>0.38826325644705295</v>
+        <v>-0.30289971600517679</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -23739,7 +23857,7 @@
       </c>
       <c r="K27" s="6">
         <f ca="1"/>
-        <v>0.39642984836455541</v>
+        <v>0.58267844333199803</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -23748,7 +23866,7 @@
       </c>
       <c r="O27" s="6">
         <f ca="1"/>
-        <v>0.95516189089068115</v>
+        <v>0.57024407216984008</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -23757,7 +23875,7 @@
       </c>
       <c r="S27" s="6">
         <f ca="1"/>
-        <v>0.80163068592803688</v>
+        <v>0.47484791607672894</v>
       </c>
       <c r="T27" s="32"/>
     </row>
@@ -23830,12 +23948,12 @@
     </row>
     <row r="46" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C46" s="79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" s="79"/>
       <c r="E46" s="79"/>
       <c r="J46" s="79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K46" s="79"/>
       <c r="L46" s="79"/>
@@ -23847,21 +23965,21 @@
       </c>
       <c r="D47" s="6">
         <f ca="1"/>
-        <v>-0.16485391581686509</v>
+        <v>-0.98870784959546809</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" s="80" t="str">
+        <v>176</v>
+      </c>
+      <c r="F47" s="81" t="str">
         <f>"b"&amp;ROW()-46</f>
         <v>b1</v>
       </c>
-      <c r="G47" s="80"/>
+      <c r="G47" s="81"/>
       <c r="H47" s="50" t="s">
         <v>3</v>
       </c>
       <c r="I47" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J47" s="50" cm="1">
         <f t="array" aca="1" ref="J47:K52" ca="1">J9:K14</f>
@@ -23869,7 +23987,7 @@
       </c>
       <c r="K47" s="55">
         <f ca="1"/>
-        <v>0.84091045004577003</v>
+        <v>5.109179067803038E-2</v>
       </c>
     </row>
     <row r="48" spans="3:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -23879,21 +23997,21 @@
       </c>
       <c r="D48" s="6">
         <f ca="1"/>
-        <v>0.36216802764017814</v>
+        <v>0.35220606812622585</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" s="80" t="str">
+        <v>177</v>
+      </c>
+      <c r="F48" s="81" t="str">
         <f>"b"&amp;ROW()-46</f>
         <v>b2</v>
       </c>
-      <c r="G48" s="80"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="50" t="s">
         <v>3</v>
       </c>
       <c r="I48" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J48" s="50">
         <f ca="1"/>
@@ -23901,7 +24019,7 @@
       </c>
       <c r="K48" s="55">
         <f ca="1"/>
-        <v>0.65004697962782165</v>
+        <v>0.93508136114729723</v>
       </c>
       <c r="AA48"/>
     </row>
@@ -23912,21 +24030,21 @@
       </c>
       <c r="D49" s="6">
         <f ca="1"/>
-        <v>0.34947987360977417</v>
+        <v>-0.46557967463812089</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="F49" s="80" t="str">
+        <v>178</v>
+      </c>
+      <c r="F49" s="81" t="str">
         <f>"b"&amp;ROW()-46</f>
         <v>b3</v>
       </c>
-      <c r="G49" s="80"/>
+      <c r="G49" s="81"/>
       <c r="H49" s="50" t="s">
         <v>3</v>
       </c>
       <c r="I49" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J49" s="50">
         <f ca="1"/>
@@ -23934,7 +24052,7 @@
       </c>
       <c r="K49" s="55">
         <f ca="1"/>
-        <v>0.99801583949009398</v>
+        <v>0.54590008930778899</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
@@ -23944,21 +24062,21 @@
       </c>
       <c r="D50" s="6">
         <f ca="1"/>
-        <v>0.97024895780034603</v>
+        <v>1.843130255509571</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="F50" s="80" t="str">
+        <v>179</v>
+      </c>
+      <c r="F50" s="81" t="str">
         <f>"b"&amp;ROW()-46</f>
         <v>b4</v>
       </c>
-      <c r="G50" s="80"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="50" t="s">
         <v>3</v>
       </c>
       <c r="I50" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J50" s="50">
         <f ca="1"/>
@@ -23966,7 +24084,7 @@
       </c>
       <c r="K50" s="55">
         <f ca="1"/>
-        <v>0.54062347952227729</v>
+        <v>0.2324762540603551</v>
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
@@ -23976,21 +24094,21 @@
       </c>
       <c r="D51" s="6">
         <f ca="1"/>
-        <v>-1.9046952451381947</v>
+        <v>-0.44101354767697276</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" s="80" t="str">
+        <v>180</v>
+      </c>
+      <c r="F51" s="81" t="str">
         <f>"b"&amp;ROW()-46</f>
         <v>b5</v>
       </c>
-      <c r="G51" s="80"/>
+      <c r="G51" s="81"/>
       <c r="H51" s="50" t="s">
         <v>3</v>
       </c>
       <c r="I51" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J51" s="50" t="str">
         <f ca="1"/>
@@ -23998,7 +24116,7 @@
       </c>
       <c r="K51" s="55">
         <f ca="1"/>
-        <v>0.61966537407994271</v>
+        <v>0.8141570065475161</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
@@ -24008,20 +24126,20 @@
       </c>
       <c r="D52" s="6">
         <f ca="1"/>
-        <v>0.38765230190476119</v>
+        <v>-0.30003525172523493</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="G52" s="80"/>
+        <v>181</v>
+      </c>
+      <c r="F52" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="81"/>
       <c r="H52" s="50" t="s">
         <v>3</v>
       </c>
       <c r="I52" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J52" s="50">
         <f ca="1"/>
@@ -24029,18 +24147,30 @@
       </c>
       <c r="K52" s="55">
         <f ca="1"/>
-        <v>0.37307334987553831</v>
+        <v>0.44449998287816372</v>
       </c>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E74" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F74" s="79"/>
       <c r="G74" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="E74:G74"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="R7:S7"/>
@@ -24057,18 +24187,6 @@
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24092,15 +24210,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C14" s="83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="83"/>
       <c r="E14" s="83"/>
@@ -24110,7 +24228,7 @@
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
       <c r="L14" s="83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="83"/>
       <c r="N14" s="83"/>
@@ -24120,7 +24238,7 @@
       <c r="R14" s="83"/>
       <c r="S14" s="83"/>
       <c r="U14" s="83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V14" s="83"/>
       <c r="W14" s="83"/>
@@ -24132,7 +24250,7 @@
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C15" s="97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="97"/>
       <c r="E15" s="97"/>
@@ -24142,7 +24260,7 @@
       <c r="I15" s="97"/>
       <c r="J15" s="97"/>
       <c r="L15" s="83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M15" s="83"/>
       <c r="N15" s="83"/>
@@ -24152,7 +24270,7 @@
       <c r="R15" s="83"/>
       <c r="S15" s="83"/>
       <c r="U15" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V15" s="83"/>
       <c r="W15" s="83"/>
@@ -24227,87 +24345,87 @@
       </c>
       <c r="E17" s="6" cm="1">
         <f t="array" aca="1" ref="E17:J22" ca="1">_xlfn.ANCHORARRAY('-&gt; Add &amp; Norm'!E20)</f>
-        <v>0.45629197051728387</v>
+        <v>0.65504140909873865</v>
       </c>
       <c r="F17" s="6">
         <f ca="1"/>
-        <v>1.663321277712515E-2</v>
+        <v>0.49574971602232765</v>
       </c>
       <c r="G17" s="6">
         <f ca="1"/>
-        <v>0.51504753650608959</v>
+        <v>0.76810418027767269</v>
       </c>
       <c r="H17" s="6">
         <f ca="1"/>
-        <v>0.8601216174917361</v>
+        <v>0.38681002605524828</v>
       </c>
       <c r="I17" s="6">
         <f ca="1"/>
-        <v>0.42609209589299968</v>
+        <v>0.39276727126869915</v>
       </c>
       <c r="J17" s="6">
         <f ca="1"/>
-        <v>7.9315382691333092E-2</v>
+        <v>0.82620024381550317</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N17" s="6" cm="1">
         <f t="array" aca="1" ref="N17:S17" ca="1">'Input | Output Embedding'!D14:I14</f>
-        <v>0.7596399639103828</v>
+        <v>0.54320940982524868</v>
       </c>
       <c r="O17" s="6">
         <f ca="1"/>
-        <v>0.22179895091021606</v>
+        <v>0.53624664930602139</v>
       </c>
       <c r="P17" s="6">
         <f ca="1"/>
-        <v>0.85501393132000159</v>
+        <v>0.33498850358295429</v>
       </c>
       <c r="Q17" s="6">
         <f ca="1"/>
-        <v>0.89895163345946072</v>
+        <v>0.83549258846299446</v>
       </c>
       <c r="R17" s="6">
         <f ca="1"/>
-        <v>0.55137703133629756</v>
+        <v>0.94540161505829912</v>
       </c>
       <c r="S17" s="6">
         <f ca="1"/>
-        <v>0.17268136980347037</v>
+        <v>0.97219468279040933</v>
       </c>
       <c r="U17" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V17" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W17" s="6" cm="1">
         <f t="array" aca="1" ref="W17:AB17" ca="1">E17:J17+_xlfn.ANCHORARRAY(N17)</f>
-        <v>1.2159319344276667</v>
+        <v>1.1982508189239873</v>
       </c>
       <c r="X17" s="6">
         <f ca="1"/>
-        <v>0.23843216368734121</v>
+        <v>1.031996365328349</v>
       </c>
       <c r="Y17" s="6">
         <f ca="1"/>
-        <v>1.3700614678260912</v>
+        <v>1.103092683860627</v>
       </c>
       <c r="Z17" s="6">
         <f ca="1"/>
-        <v>1.7590732509511968</v>
+        <v>1.2223026145182427</v>
       </c>
       <c r="AA17" s="6">
         <f ca="1"/>
-        <v>0.97746912722929724</v>
+        <v>1.3381688863269983</v>
       </c>
       <c r="AB17" s="6">
         <f ca="1"/>
-        <v>0.25199675249480347</v>
+        <v>1.7983949266059125</v>
       </c>
     </row>
     <row r="18" spans="3:28" x14ac:dyDescent="0.25">
@@ -24319,27 +24437,27 @@
       </c>
       <c r="E18" s="6">
         <f ca="1"/>
-        <v>0.69367795808196409</v>
+        <v>0.12422294843401893</v>
       </c>
       <c r="F18" s="6">
         <f ca="1"/>
-        <v>5.4412691947578251E-2</v>
+        <v>0.16834909086453953</v>
       </c>
       <c r="G18" s="6">
         <f ca="1"/>
-        <v>0.78546819752920194</v>
+        <v>0.31101699082990364</v>
       </c>
       <c r="H18" s="6">
         <f ca="1"/>
-        <v>0.34824622816472095</v>
+        <v>0.28580048935641766</v>
       </c>
       <c r="I18" s="6">
         <f ca="1"/>
-        <v>0.12124274542835112</v>
+        <v>0.19181452968700863</v>
       </c>
       <c r="J18" s="6">
         <f ca="1"/>
-        <v>0.55372759432281549</v>
+        <v>0.57176824264726078</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -24359,30 +24477,30 @@
       </c>
       <c r="E19" s="6">
         <f ca="1"/>
-        <v>0.79494752390767198</v>
+        <v>6.1596424691596319E-2</v>
       </c>
       <c r="F19" s="6">
         <f ca="1"/>
-        <v>0.86418406921815882</v>
+        <v>0.9642153941990963</v>
       </c>
       <c r="G19" s="6">
         <f ca="1"/>
-        <v>0.76381647627650873</v>
+        <v>0.80757771728180638</v>
       </c>
       <c r="H19" s="6">
         <f ca="1"/>
-        <v>0.67077682427388274</v>
+        <v>0.151153952392721</v>
       </c>
       <c r="I19" s="6">
         <f ca="1"/>
-        <v>0.76618520050462635</v>
+        <v>8.1397547568067496E-2</v>
       </c>
       <c r="J19" s="6">
         <f ca="1"/>
-        <v>0.39826970307644283</v>
+        <v>0.32611065705391185</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T19" s="38" t="s">
         <v>3</v>
@@ -24405,27 +24523,27 @@
       </c>
       <c r="E20" s="6">
         <f ca="1"/>
-        <v>0.85215361105811183</v>
+        <v>0.68574430142415777</v>
       </c>
       <c r="F20" s="6">
         <f ca="1"/>
-        <v>0.57989849160112139</v>
+        <v>0.75700265512738629</v>
       </c>
       <c r="G20" s="6">
         <f ca="1"/>
-        <v>0.96351962553074078</v>
+        <v>0.43309595282508062</v>
       </c>
       <c r="H20" s="6">
         <f ca="1"/>
-        <v>0.93737197455225707</v>
+        <v>0.97509669277683186</v>
       </c>
       <c r="I20" s="6">
         <f ca="1"/>
-        <v>0.80277038896990782</v>
+        <v>0.23038378006495375</v>
       </c>
       <c r="J20" s="6">
         <f ca="1"/>
-        <v>0.27216370220840558</v>
+        <v>0.91917736085203727</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
@@ -24445,27 +24563,27 @@
       </c>
       <c r="E21" s="6">
         <f ca="1"/>
-        <v>0.60577721595916367</v>
+        <v>0.21632622155272863</v>
       </c>
       <c r="F21" s="6">
         <f ca="1"/>
-        <v>0.14312072778054219</v>
+        <v>0.16583637499982706</v>
       </c>
       <c r="G21" s="6">
         <f ca="1"/>
-        <v>0.52722661046933239</v>
+        <v>0.95318055533597867</v>
       </c>
       <c r="H21" s="6">
         <f ca="1"/>
-        <v>0.12571380557895462</v>
+        <v>0.492227279399297</v>
       </c>
       <c r="I21" s="6">
         <f ca="1"/>
-        <v>0.94447382432298133</v>
+        <v>0.2877060110754619</v>
       </c>
       <c r="J21" s="6">
         <f ca="1"/>
-        <v>0.21270345376769995</v>
+        <v>9.4170356610878025E-2</v>
       </c>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
@@ -24478,34 +24596,34 @@
     </row>
     <row r="22" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C22" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="6">
         <f ca="1"/>
-        <v>0.87753579833436723</v>
+        <v>0.27552853938628385</v>
       </c>
       <c r="F22" s="6">
         <f ca="1"/>
-        <v>0.23608417897145673</v>
+        <v>0.96193839106925294</v>
       </c>
       <c r="G22" s="6">
         <f ca="1"/>
-        <v>0.25462749555727315</v>
+        <v>0.2198945243265793</v>
       </c>
       <c r="H22" s="6">
         <f ca="1"/>
-        <v>0.3267334558067081</v>
+        <v>0.98648376457458631</v>
       </c>
       <c r="I22" s="6">
         <f ca="1"/>
-        <v>0.96414829041573569</v>
+        <v>0.52860416347723449</v>
       </c>
       <c r="J22" s="6">
         <f ca="1"/>
-        <v>0.27713715636060554</v>
+        <v>0.78025027664409774</v>
       </c>
       <c r="U22" s="38"/>
       <c r="V22" s="38"/>
